--- a/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>WF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,121 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2260900</v>
+        <v>2028100</v>
       </c>
       <c r="E8" s="3">
-        <v>2246100</v>
+        <v>2112100</v>
       </c>
       <c r="F8" s="3">
-        <v>2187100</v>
+        <v>2180100</v>
       </c>
       <c r="G8" s="3">
-        <v>2154000</v>
+        <v>2165900</v>
       </c>
       <c r="H8" s="3">
-        <v>2080500</v>
+        <v>2109000</v>
       </c>
       <c r="I8" s="3">
+        <v>2077100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2006200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1989700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1910800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1912500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1925300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1853100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1833700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1898800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,8 +822,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +872,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -872,8 +896,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -916,8 +942,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,8 +992,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1004,52 +1042,64 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-110800</v>
+        <v>-109500</v>
       </c>
       <c r="E15" s="3">
-        <v>-99400</v>
+        <v>-109700</v>
       </c>
       <c r="F15" s="3">
-        <v>-82100</v>
+        <v>-106800</v>
       </c>
       <c r="G15" s="3">
-        <v>-50500</v>
+        <v>-95800</v>
       </c>
       <c r="H15" s="3">
-        <v>-49600</v>
+        <v>-79200</v>
       </c>
       <c r="I15" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="K15" s="3">
         <v>-44700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-40700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-39500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-40300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-40800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-44500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-54800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-53700</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1113,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1176700</v>
+        <v>926000</v>
       </c>
       <c r="E17" s="3">
-        <v>1061400</v>
+        <v>971500</v>
       </c>
       <c r="F17" s="3">
-        <v>1013800</v>
+        <v>1134700</v>
       </c>
       <c r="G17" s="3">
-        <v>1157200</v>
+        <v>1023500</v>
       </c>
       <c r="H17" s="3">
-        <v>952800</v>
+        <v>977600</v>
       </c>
       <c r="I17" s="3">
+        <v>1115900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>918800</v>
+      </c>
+      <c r="K17" s="3">
         <v>752200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>877900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1026000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>926800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>906500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>830000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>903100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>963600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1084200</v>
+        <v>1102100</v>
       </c>
       <c r="E18" s="3">
-        <v>1184700</v>
+        <v>1140600</v>
       </c>
       <c r="F18" s="3">
-        <v>1173300</v>
+        <v>1045500</v>
       </c>
       <c r="G18" s="3">
-        <v>996800</v>
+        <v>1142400</v>
       </c>
       <c r="H18" s="3">
-        <v>1127700</v>
+        <v>1131400</v>
       </c>
       <c r="I18" s="3">
+        <v>961200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1087400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1237400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1032900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>886500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>998500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>946600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1003700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>995700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>934400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,96 +1233,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-521100</v>
+        <v>-492400</v>
       </c>
       <c r="E20" s="3">
-        <v>-426800</v>
+        <v>-877600</v>
       </c>
       <c r="F20" s="3">
-        <v>-479700</v>
+        <v>-502500</v>
       </c>
       <c r="G20" s="3">
-        <v>-847700</v>
+        <v>-411600</v>
       </c>
       <c r="H20" s="3">
-        <v>-434000</v>
+        <v>-462500</v>
       </c>
       <c r="I20" s="3">
+        <v>-817400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-418500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-401200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-355800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-756300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-671500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-417500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-274500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-821100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-531000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>678500</v>
+        <v>721900</v>
       </c>
       <c r="E21" s="3">
-        <v>861900</v>
+        <v>377700</v>
       </c>
       <c r="F21" s="3">
-        <v>780100</v>
+        <v>654300</v>
       </c>
       <c r="G21" s="3">
-        <v>210800</v>
+        <v>831100</v>
       </c>
       <c r="H21" s="3">
-        <v>754400</v>
+        <v>752200</v>
       </c>
       <c r="I21" s="3">
+        <v>203200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>727400</v>
+      </c>
+      <c r="K21" s="3">
         <v>892200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>727700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>180100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>377800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>580800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>784400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>229400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>457200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1301,96 +1379,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>563000</v>
+        <v>609600</v>
       </c>
       <c r="E23" s="3">
-        <v>757900</v>
+        <v>263000</v>
       </c>
       <c r="F23" s="3">
-        <v>693700</v>
+        <v>542900</v>
       </c>
       <c r="G23" s="3">
-        <v>149100</v>
+        <v>730800</v>
       </c>
       <c r="H23" s="3">
-        <v>693700</v>
+        <v>668900</v>
       </c>
       <c r="I23" s="3">
+        <v>143800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>668900</v>
+      </c>
+      <c r="K23" s="3">
         <v>836200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>677100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>130200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>327000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>529200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>729200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>174600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>403400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>114400</v>
+        <v>157800</v>
       </c>
       <c r="E24" s="3">
-        <v>205700</v>
+        <v>75500</v>
       </c>
       <c r="F24" s="3">
-        <v>177500</v>
+        <v>110300</v>
       </c>
       <c r="G24" s="3">
-        <v>39300</v>
+        <v>198300</v>
       </c>
       <c r="H24" s="3">
-        <v>185900</v>
+        <v>171100</v>
       </c>
       <c r="I24" s="3">
+        <v>37900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>179200</v>
+      </c>
+      <c r="K24" s="3">
         <v>229900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>177700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>9000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>77600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>118800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>163600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>30300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>448700</v>
+        <v>451800</v>
       </c>
       <c r="E26" s="3">
-        <v>552200</v>
+        <v>187500</v>
       </c>
       <c r="F26" s="3">
-        <v>516200</v>
+        <v>432600</v>
       </c>
       <c r="G26" s="3">
-        <v>109900</v>
+        <v>532500</v>
       </c>
       <c r="H26" s="3">
-        <v>507800</v>
+        <v>497800</v>
       </c>
       <c r="I26" s="3">
+        <v>105900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>489700</v>
+      </c>
+      <c r="K26" s="3">
         <v>606300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>499400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>121100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>249400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>410300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>565600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>144300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>323500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>405200</v>
+        <v>412900</v>
       </c>
       <c r="E27" s="3">
-        <v>513200</v>
+        <v>166600</v>
       </c>
       <c r="F27" s="3">
-        <v>477700</v>
+        <v>390800</v>
       </c>
       <c r="G27" s="3">
-        <v>76800</v>
+        <v>494900</v>
       </c>
       <c r="H27" s="3">
-        <v>470700</v>
+        <v>460600</v>
       </c>
       <c r="I27" s="3">
+        <v>74000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>453900</v>
+      </c>
+      <c r="K27" s="3">
         <v>569900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>463600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>84900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>212100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>369000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>517600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>88500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,8 +1679,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1609,8 +1729,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1829,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>521100</v>
+        <v>492400</v>
       </c>
       <c r="E32" s="3">
-        <v>426800</v>
+        <v>877600</v>
       </c>
       <c r="F32" s="3">
-        <v>479700</v>
+        <v>502500</v>
       </c>
       <c r="G32" s="3">
-        <v>847700</v>
+        <v>411600</v>
       </c>
       <c r="H32" s="3">
-        <v>434000</v>
+        <v>462500</v>
       </c>
       <c r="I32" s="3">
+        <v>817400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>418500</v>
+      </c>
+      <c r="K32" s="3">
         <v>401200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>355800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>756300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>671500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>417500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>274500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>821100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>405200</v>
+        <v>412900</v>
       </c>
       <c r="E33" s="3">
-        <v>513200</v>
+        <v>166600</v>
       </c>
       <c r="F33" s="3">
-        <v>477700</v>
+        <v>390800</v>
       </c>
       <c r="G33" s="3">
-        <v>76800</v>
+        <v>494900</v>
       </c>
       <c r="H33" s="3">
-        <v>470700</v>
+        <v>460600</v>
       </c>
       <c r="I33" s="3">
+        <v>74000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>453900</v>
+      </c>
+      <c r="K33" s="3">
         <v>569900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>463600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>84900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>212100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>369000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>517600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>88500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>405200</v>
+        <v>412900</v>
       </c>
       <c r="E35" s="3">
-        <v>513200</v>
+        <v>166600</v>
       </c>
       <c r="F35" s="3">
-        <v>477700</v>
+        <v>390800</v>
       </c>
       <c r="G35" s="3">
-        <v>76800</v>
+        <v>494900</v>
       </c>
       <c r="H35" s="3">
-        <v>470700</v>
+        <v>460600</v>
       </c>
       <c r="I35" s="3">
+        <v>74000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>453900</v>
+      </c>
+      <c r="K35" s="3">
         <v>569900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>463600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>84900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>212100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>369000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>517600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>88500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,96 +2128,110 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6986700</v>
+        <v>7810800</v>
       </c>
       <c r="E41" s="3">
-        <v>5514900</v>
+        <v>5077100</v>
       </c>
       <c r="F41" s="3">
-        <v>4025500</v>
+        <v>6737200</v>
       </c>
       <c r="G41" s="3">
-        <v>5329900</v>
+        <v>5318000</v>
       </c>
       <c r="H41" s="3">
-        <v>4778800</v>
+        <v>3881800</v>
       </c>
       <c r="I41" s="3">
+        <v>5139600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4608100</v>
+      </c>
+      <c r="K41" s="3">
         <v>4589200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4387400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5323900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5337600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5780800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6495200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>6385500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>7024600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38770600</v>
+        <v>38606200</v>
       </c>
       <c r="E42" s="3">
-        <v>35215100</v>
+        <v>35907600</v>
       </c>
       <c r="F42" s="3">
-        <v>28528000</v>
+        <v>37385900</v>
       </c>
       <c r="G42" s="3">
-        <v>29776700</v>
+        <v>33957400</v>
       </c>
       <c r="H42" s="3">
-        <v>21657100</v>
+        <v>27509100</v>
       </c>
       <c r="I42" s="3">
+        <v>28713300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>20883600</v>
+      </c>
+      <c r="K42" s="3">
         <v>22286700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>21840100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>20932300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>12488600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>14955900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>13350900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>14204100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>16154100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2090,8 +2274,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2134,8 +2324,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2178,8 +2374,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2222,140 +2424,164 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>318300</v>
+        <v>674300</v>
       </c>
       <c r="E47" s="3">
-        <v>297400</v>
+        <v>653200</v>
       </c>
       <c r="F47" s="3">
-        <v>291900</v>
+        <v>307000</v>
       </c>
       <c r="G47" s="3">
-        <v>303600</v>
+        <v>286700</v>
       </c>
       <c r="H47" s="3">
-        <v>286900</v>
+        <v>281500</v>
       </c>
       <c r="I47" s="3">
+        <v>292800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>276700</v>
+      </c>
+      <c r="K47" s="3">
         <v>346900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>348200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>367000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>490900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>326300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>351100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>395100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3053500</v>
+        <v>2961700</v>
       </c>
       <c r="E48" s="3">
-        <v>2919200</v>
+        <v>2952400</v>
       </c>
       <c r="F48" s="3">
-        <v>2843600</v>
+        <v>2944400</v>
       </c>
       <c r="G48" s="3">
-        <v>2368100</v>
+        <v>2814900</v>
       </c>
       <c r="H48" s="3">
-        <v>2369400</v>
+        <v>2742100</v>
       </c>
       <c r="I48" s="3">
+        <v>2283600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2284800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2378800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2384000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2507000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2509800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2480800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2470200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2534900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2525400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>583200</v>
+        <v>668000</v>
       </c>
       <c r="E49" s="3">
-        <v>540100</v>
+        <v>683700</v>
       </c>
       <c r="F49" s="3">
-        <v>543600</v>
+        <v>562400</v>
       </c>
       <c r="G49" s="3">
-        <v>493300</v>
+        <v>520800</v>
       </c>
       <c r="H49" s="3">
-        <v>521000</v>
+        <v>524200</v>
       </c>
       <c r="I49" s="3">
+        <v>475700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>502400</v>
+      </c>
+      <c r="K49" s="3">
         <v>549000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>452700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>456400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>461900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>446100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>415100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>435400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>376700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2674,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>81400</v>
+        <v>38200</v>
       </c>
       <c r="E52" s="3">
-        <v>66300</v>
+        <v>42700</v>
       </c>
       <c r="F52" s="3">
-        <v>63000</v>
+        <v>78500</v>
       </c>
       <c r="G52" s="3">
-        <v>120400</v>
+        <v>64000</v>
       </c>
       <c r="H52" s="3">
-        <v>38200</v>
+        <v>60700</v>
       </c>
       <c r="I52" s="3">
+        <v>116100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K52" s="3">
         <v>91100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>177600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>289300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>234800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>221100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>262700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>274800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>143800</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>311290700</v>
+        <v>306353500</v>
       </c>
       <c r="E54" s="3">
-        <v>301897400</v>
+        <v>293204400</v>
       </c>
       <c r="F54" s="3">
-        <v>289925100</v>
+        <v>300173200</v>
       </c>
       <c r="G54" s="3">
-        <v>285975600</v>
+        <v>291115300</v>
       </c>
       <c r="H54" s="3">
-        <v>277033400</v>
+        <v>279570700</v>
       </c>
       <c r="I54" s="3">
+        <v>275762200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>267139300</v>
+      </c>
+      <c r="K54" s="3">
         <v>274311500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>273668600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>278340000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>279730100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>278137400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>273600800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>279614500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>281548700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,52 +2868,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13182700</v>
+        <v>9538600</v>
       </c>
       <c r="E57" s="3">
-        <v>14450100</v>
+        <v>6922800</v>
       </c>
       <c r="F57" s="3">
-        <v>13641800</v>
+        <v>12711900</v>
       </c>
       <c r="G57" s="3">
-        <v>10988500</v>
+        <v>13934000</v>
       </c>
       <c r="H57" s="3">
-        <v>12515900</v>
+        <v>13154600</v>
       </c>
       <c r="I57" s="3">
+        <v>10596100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>12068900</v>
+      </c>
+      <c r="K57" s="3">
         <v>11638400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>12317300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5801500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>13814400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>14756900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>10823000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>13329400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>15356600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2698,52 +2964,64 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2173900</v>
+        <v>1892000</v>
       </c>
       <c r="E59" s="3">
-        <v>1970900</v>
+        <v>2186100</v>
       </c>
       <c r="F59" s="3">
-        <v>1984000</v>
+        <v>2096300</v>
       </c>
       <c r="G59" s="3">
-        <v>1989900</v>
+        <v>1900500</v>
       </c>
       <c r="H59" s="3">
-        <v>1865100</v>
+        <v>1913200</v>
       </c>
       <c r="I59" s="3">
+        <v>1918800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1798500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1649500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1642100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2008600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2057400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1681400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1880000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2004400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1813400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2786,96 +3064,114 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>43665200</v>
+        <v>43080800</v>
       </c>
       <c r="E61" s="3">
-        <v>41181100</v>
+        <v>40146900</v>
       </c>
       <c r="F61" s="3">
-        <v>37207200</v>
+        <v>42105700</v>
       </c>
       <c r="G61" s="3">
-        <v>36868700</v>
+        <v>39710400</v>
       </c>
       <c r="H61" s="3">
-        <v>36250400</v>
+        <v>35878400</v>
       </c>
       <c r="I61" s="3">
+        <v>35552000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>34955700</v>
+      </c>
+      <c r="K61" s="3">
         <v>35115500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>34009900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>36941800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>37408900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>35000000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>33280700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>34538700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>33926000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>706200</v>
+        <v>680000</v>
       </c>
       <c r="E62" s="3">
-        <v>618600</v>
+        <v>543300</v>
       </c>
       <c r="F62" s="3">
-        <v>571100</v>
+        <v>681000</v>
       </c>
       <c r="G62" s="3">
-        <v>520300</v>
+        <v>596500</v>
       </c>
       <c r="H62" s="3">
-        <v>434000</v>
+        <v>550700</v>
       </c>
       <c r="I62" s="3">
+        <v>501700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>418500</v>
+      </c>
+      <c r="K62" s="3">
         <v>420800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>527700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>419200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>395900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>382900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>400700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>463600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>459900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>293781200</v>
+        <v>288675900</v>
       </c>
       <c r="E66" s="3">
-        <v>285565200</v>
+        <v>275781000</v>
       </c>
       <c r="F66" s="3">
-        <v>274124400</v>
+        <v>283289000</v>
       </c>
       <c r="G66" s="3">
-        <v>267714100</v>
+        <v>275366400</v>
       </c>
       <c r="H66" s="3">
-        <v>258802800</v>
+        <v>264334300</v>
       </c>
       <c r="I66" s="3">
+        <v>258152900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>249559900</v>
+      </c>
+      <c r="K66" s="3">
         <v>256847800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>256582900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>260418000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>261733600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>260311800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>255640700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>261266900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>263136400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3484,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3534,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15390500</v>
+        <v>15002800</v>
       </c>
       <c r="E72" s="3">
-        <v>14985100</v>
+        <v>15004900</v>
       </c>
       <c r="F72" s="3">
-        <v>14472000</v>
+        <v>14840900</v>
       </c>
       <c r="G72" s="3">
-        <v>14384700</v>
+        <v>14449900</v>
       </c>
       <c r="H72" s="3">
-        <v>14306900</v>
+        <v>13955100</v>
       </c>
       <c r="I72" s="3">
+        <v>13871000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>13795900</v>
+      </c>
+      <c r="K72" s="3">
         <v>13837700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>13273900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>13745600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>13660700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>13507800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>13138800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>13150400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>13062800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17509500</v>
+        <v>17677500</v>
       </c>
       <c r="E76" s="3">
-        <v>16332200</v>
+        <v>17423400</v>
       </c>
       <c r="F76" s="3">
-        <v>15800700</v>
+        <v>16884200</v>
       </c>
       <c r="G76" s="3">
-        <v>18261500</v>
+        <v>15748900</v>
       </c>
       <c r="H76" s="3">
-        <v>18230500</v>
+        <v>15236400</v>
       </c>
       <c r="I76" s="3">
+        <v>17609300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>17579400</v>
+      </c>
+      <c r="K76" s="3">
         <v>17463800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>17085700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>17922000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>17996500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>17825600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>17960100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>18347500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>18412300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>405200</v>
+        <v>412900</v>
       </c>
       <c r="E81" s="3">
-        <v>513200</v>
+        <v>166600</v>
       </c>
       <c r="F81" s="3">
-        <v>477700</v>
+        <v>390800</v>
       </c>
       <c r="G81" s="3">
-        <v>76800</v>
+        <v>494900</v>
       </c>
       <c r="H81" s="3">
-        <v>470700</v>
+        <v>460600</v>
       </c>
       <c r="I81" s="3">
+        <v>74000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>453900</v>
+      </c>
+      <c r="K81" s="3">
         <v>569900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>463600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>84900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>212100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>369000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>517600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>88500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +4013,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>115500</v>
+        <v>112300</v>
       </c>
       <c r="E83" s="3">
-        <v>104000</v>
+        <v>114700</v>
       </c>
       <c r="F83" s="3">
-        <v>86400</v>
+        <v>111400</v>
       </c>
       <c r="G83" s="3">
-        <v>61600</v>
+        <v>100200</v>
       </c>
       <c r="H83" s="3">
-        <v>60700</v>
+        <v>83300</v>
       </c>
       <c r="I83" s="3">
+        <v>59400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>58600</v>
+      </c>
+      <c r="K83" s="3">
         <v>56000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>50600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>49900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>50800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>51600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>55200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>54800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4309,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-423500</v>
+        <v>-824700</v>
       </c>
       <c r="E89" s="3">
-        <v>3342500</v>
+        <v>-146100</v>
       </c>
       <c r="F89" s="3">
-        <v>-1196400</v>
+        <v>-408400</v>
       </c>
       <c r="G89" s="3">
-        <v>5201900</v>
+        <v>3223100</v>
       </c>
       <c r="H89" s="3">
-        <v>941600</v>
+        <v>-1153600</v>
       </c>
       <c r="I89" s="3">
+        <v>5044700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>908000</v>
+      </c>
+      <c r="K89" s="3">
         <v>643600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>877700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-506300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2456000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-340700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1561500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>108800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3807600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4383,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-90000</v>
+        <v>-20300</v>
       </c>
       <c r="E91" s="3">
-        <v>-52900</v>
+        <v>-181900</v>
       </c>
       <c r="F91" s="3">
-        <v>-29300</v>
+        <v>-86800</v>
       </c>
       <c r="G91" s="3">
-        <v>-43000</v>
+        <v>-51000</v>
       </c>
       <c r="H91" s="3">
-        <v>-20800</v>
+        <v>-28300</v>
       </c>
       <c r="I91" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-18000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-17800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-25100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-57300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-37900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-22400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-111600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-90400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4529,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-902900</v>
+        <v>-179800</v>
       </c>
       <c r="E94" s="3">
-        <v>-5269900</v>
+        <v>-916900</v>
       </c>
       <c r="F94" s="3">
-        <v>-90400</v>
+        <v>-870600</v>
       </c>
       <c r="G94" s="3">
-        <v>-5105000</v>
+        <v>-5081700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2543400</v>
+        <v>-87200</v>
       </c>
       <c r="I94" s="3">
+        <v>-4922600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2452600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1063800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-587600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1277600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-195600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>183200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>392500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2371700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>694800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,8 +4603,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4169,22 +4635,28 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-59200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-237000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-38100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-22800</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,136 +4799,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2965200</v>
+        <v>3526800</v>
       </c>
       <c r="E100" s="3">
-        <v>3425500</v>
+        <v>-906000</v>
       </c>
       <c r="F100" s="3">
-        <v>-267500</v>
+        <v>2859300</v>
       </c>
       <c r="G100" s="3">
-        <v>491400</v>
+        <v>3303200</v>
       </c>
       <c r="H100" s="3">
-        <v>1751700</v>
+        <v>-258000</v>
       </c>
       <c r="I100" s="3">
+        <v>473800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1689200</v>
+      </c>
+      <c r="K100" s="3">
         <v>354700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1323700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-309500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2140800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-384900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1500100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1503800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1778900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-336600</v>
+        <v>200400</v>
       </c>
       <c r="E101" s="3">
-        <v>48800</v>
+        <v>352000</v>
       </c>
       <c r="F101" s="3">
-        <v>83600</v>
+        <v>-324600</v>
       </c>
       <c r="G101" s="3">
-        <v>6400</v>
+        <v>47100</v>
       </c>
       <c r="H101" s="3">
-        <v>-79400</v>
+        <v>80600</v>
       </c>
       <c r="I101" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-76600</v>
+      </c>
+      <c r="K101" s="3">
         <v>218900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>50500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-377500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>14000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>8400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-108300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>138000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-105900</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1302200</v>
+        <v>2722600</v>
       </c>
       <c r="E102" s="3">
-        <v>1546900</v>
+        <v>-1617000</v>
       </c>
       <c r="F102" s="3">
-        <v>-1470700</v>
+        <v>1255700</v>
       </c>
       <c r="G102" s="3">
-        <v>594800</v>
+        <v>1491700</v>
       </c>
       <c r="H102" s="3">
-        <v>70500</v>
+        <v>-1418200</v>
       </c>
       <c r="I102" s="3">
+        <v>602100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>68000</v>
+      </c>
+      <c r="K102" s="3">
         <v>153400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-983000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>84300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-496900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-534100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>345600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-621200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>2617600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>WF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,127 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2028100</v>
+        <v>2026200</v>
       </c>
       <c r="E8" s="3">
-        <v>2112100</v>
+        <v>2103200</v>
       </c>
       <c r="F8" s="3">
-        <v>2180100</v>
+        <v>2190400</v>
       </c>
       <c r="G8" s="3">
-        <v>2165900</v>
+        <v>2260900</v>
       </c>
       <c r="H8" s="3">
-        <v>2109000</v>
+        <v>2246100</v>
       </c>
       <c r="I8" s="3">
-        <v>2077100</v>
+        <v>2187100</v>
       </c>
       <c r="J8" s="3">
+        <v>2154000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2006200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1989700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1910800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1912500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1925300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1853100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1833700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1898800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +834,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +887,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -898,8 +910,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -948,8 +961,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,8 +1014,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1048,58 +1067,64 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-109500</v>
+        <v>-104900</v>
       </c>
       <c r="E15" s="3">
-        <v>-109700</v>
+        <v>-113600</v>
       </c>
       <c r="F15" s="3">
-        <v>-106800</v>
+        <v>-113800</v>
       </c>
       <c r="G15" s="3">
-        <v>-95800</v>
+        <v>-110800</v>
       </c>
       <c r="H15" s="3">
-        <v>-79200</v>
+        <v>-99400</v>
       </c>
       <c r="I15" s="3">
-        <v>-48700</v>
+        <v>-82100</v>
       </c>
       <c r="J15" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="K15" s="3">
         <v>-47800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-44700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-40700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-39500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-40300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-40800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-44500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-54800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-53700</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>926000</v>
+        <v>1054000</v>
       </c>
       <c r="E17" s="3">
-        <v>971500</v>
+        <v>960300</v>
       </c>
       <c r="F17" s="3">
-        <v>1134700</v>
+        <v>1007500</v>
       </c>
       <c r="G17" s="3">
-        <v>1023500</v>
+        <v>1176700</v>
       </c>
       <c r="H17" s="3">
-        <v>977600</v>
+        <v>1061400</v>
       </c>
       <c r="I17" s="3">
-        <v>1115900</v>
+        <v>1013800</v>
       </c>
       <c r="J17" s="3">
+        <v>1157200</v>
+      </c>
+      <c r="K17" s="3">
         <v>918800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>752200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>877900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1026000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>926800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>906500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>830000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>903100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>963600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1102100</v>
+        <v>972200</v>
       </c>
       <c r="E18" s="3">
-        <v>1140600</v>
+        <v>1142900</v>
       </c>
       <c r="F18" s="3">
-        <v>1045500</v>
+        <v>1182800</v>
       </c>
       <c r="G18" s="3">
-        <v>1142400</v>
+        <v>1084200</v>
       </c>
       <c r="H18" s="3">
-        <v>1131400</v>
+        <v>1184700</v>
       </c>
       <c r="I18" s="3">
-        <v>961200</v>
+        <v>1173300</v>
       </c>
       <c r="J18" s="3">
+        <v>996800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1087400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1237400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1032900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>886500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>998500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>946600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1003700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>995700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>934400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,108 +1267,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-492400</v>
+        <v>-736000</v>
       </c>
       <c r="E20" s="3">
-        <v>-877600</v>
+        <v>-510700</v>
       </c>
       <c r="F20" s="3">
-        <v>-502500</v>
+        <v>-910100</v>
       </c>
       <c r="G20" s="3">
-        <v>-411600</v>
+        <v>-521100</v>
       </c>
       <c r="H20" s="3">
-        <v>-462500</v>
+        <v>-426800</v>
       </c>
       <c r="I20" s="3">
-        <v>-817400</v>
+        <v>-479700</v>
       </c>
       <c r="J20" s="3">
+        <v>-847700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-418500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-401200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-355800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-756300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-671500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-417500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-274500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-821100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-531000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>721900</v>
+        <v>344000</v>
       </c>
       <c r="E21" s="3">
-        <v>377700</v>
+        <v>748600</v>
       </c>
       <c r="F21" s="3">
-        <v>654300</v>
+        <v>391700</v>
       </c>
       <c r="G21" s="3">
-        <v>831100</v>
+        <v>678500</v>
       </c>
       <c r="H21" s="3">
-        <v>752200</v>
+        <v>861900</v>
       </c>
       <c r="I21" s="3">
-        <v>203200</v>
+        <v>780100</v>
       </c>
       <c r="J21" s="3">
+        <v>210800</v>
+      </c>
+      <c r="K21" s="3">
         <v>727400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>892200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>727700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>180100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>377800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>580800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>784400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>229400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>457200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1385,108 +1424,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>609600</v>
+        <v>236200</v>
       </c>
       <c r="E23" s="3">
-        <v>263000</v>
+        <v>632200</v>
       </c>
       <c r="F23" s="3">
-        <v>542900</v>
+        <v>272700</v>
       </c>
       <c r="G23" s="3">
-        <v>730800</v>
+        <v>563000</v>
       </c>
       <c r="H23" s="3">
+        <v>757900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>693700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>149100</v>
+      </c>
+      <c r="K23" s="3">
         <v>668900</v>
       </c>
-      <c r="I23" s="3">
-        <v>143800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>668900</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>836200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>677100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>130200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>327000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>529200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>729200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>174600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>403400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>157800</v>
+        <v>54600</v>
       </c>
       <c r="E24" s="3">
-        <v>75500</v>
+        <v>163700</v>
       </c>
       <c r="F24" s="3">
-        <v>110300</v>
+        <v>78300</v>
       </c>
       <c r="G24" s="3">
-        <v>198300</v>
+        <v>114400</v>
       </c>
       <c r="H24" s="3">
-        <v>171100</v>
+        <v>205700</v>
       </c>
       <c r="I24" s="3">
-        <v>37900</v>
+        <v>177500</v>
       </c>
       <c r="J24" s="3">
+        <v>39300</v>
+      </c>
+      <c r="K24" s="3">
         <v>179200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>229900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>177700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>77600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>118800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>163600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>30300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>451800</v>
+        <v>181700</v>
       </c>
       <c r="E26" s="3">
-        <v>187500</v>
+        <v>468500</v>
       </c>
       <c r="F26" s="3">
-        <v>432600</v>
+        <v>194500</v>
       </c>
       <c r="G26" s="3">
-        <v>532500</v>
+        <v>448700</v>
       </c>
       <c r="H26" s="3">
-        <v>497800</v>
+        <v>552200</v>
       </c>
       <c r="I26" s="3">
-        <v>105900</v>
+        <v>516200</v>
       </c>
       <c r="J26" s="3">
+        <v>109900</v>
+      </c>
+      <c r="K26" s="3">
         <v>489700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>606300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>499400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>121100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>249400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>410300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>565600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>144300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>323500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>412900</v>
+        <v>109600</v>
       </c>
       <c r="E27" s="3">
-        <v>166600</v>
+        <v>428200</v>
       </c>
       <c r="F27" s="3">
-        <v>390800</v>
+        <v>172800</v>
       </c>
       <c r="G27" s="3">
-        <v>494900</v>
+        <v>405200</v>
       </c>
       <c r="H27" s="3">
-        <v>460600</v>
+        <v>513200</v>
       </c>
       <c r="I27" s="3">
-        <v>74000</v>
+        <v>477700</v>
       </c>
       <c r="J27" s="3">
+        <v>76800</v>
+      </c>
+      <c r="K27" s="3">
         <v>453900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>569900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>463600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>84900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>212100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>369000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>517600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>88500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,8 +1742,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1735,8 +1795,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>492400</v>
+        <v>736000</v>
       </c>
       <c r="E32" s="3">
-        <v>877600</v>
+        <v>510700</v>
       </c>
       <c r="F32" s="3">
-        <v>502500</v>
+        <v>910100</v>
       </c>
       <c r="G32" s="3">
-        <v>411600</v>
+        <v>521100</v>
       </c>
       <c r="H32" s="3">
-        <v>462500</v>
+        <v>426800</v>
       </c>
       <c r="I32" s="3">
-        <v>817400</v>
+        <v>479700</v>
       </c>
       <c r="J32" s="3">
+        <v>847700</v>
+      </c>
+      <c r="K32" s="3">
         <v>418500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>401200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>355800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>756300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>671500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>417500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>274500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>821100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>412900</v>
+        <v>109600</v>
       </c>
       <c r="E33" s="3">
-        <v>166600</v>
+        <v>428200</v>
       </c>
       <c r="F33" s="3">
-        <v>390800</v>
+        <v>172800</v>
       </c>
       <c r="G33" s="3">
-        <v>494900</v>
+        <v>405200</v>
       </c>
       <c r="H33" s="3">
-        <v>460600</v>
+        <v>513200</v>
       </c>
       <c r="I33" s="3">
-        <v>74000</v>
+        <v>477700</v>
       </c>
       <c r="J33" s="3">
+        <v>76800</v>
+      </c>
+      <c r="K33" s="3">
         <v>453900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>569900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>463600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>84900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>212100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>369000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>517600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>88500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>412900</v>
+        <v>109600</v>
       </c>
       <c r="E35" s="3">
-        <v>166600</v>
+        <v>428200</v>
       </c>
       <c r="F35" s="3">
-        <v>390800</v>
+        <v>172800</v>
       </c>
       <c r="G35" s="3">
-        <v>494900</v>
+        <v>405200</v>
       </c>
       <c r="H35" s="3">
-        <v>460600</v>
+        <v>513200</v>
       </c>
       <c r="I35" s="3">
-        <v>74000</v>
+        <v>477700</v>
       </c>
       <c r="J35" s="3">
+        <v>76800</v>
+      </c>
+      <c r="K35" s="3">
         <v>453900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>569900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>463600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>84900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>212100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>369000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>517600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>88500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,108 +2215,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7810800</v>
+        <v>7565200</v>
       </c>
       <c r="E41" s="3">
-        <v>5077100</v>
+        <v>8100100</v>
       </c>
       <c r="F41" s="3">
-        <v>6737200</v>
+        <v>5265200</v>
       </c>
       <c r="G41" s="3">
-        <v>5318000</v>
+        <v>6986700</v>
       </c>
       <c r="H41" s="3">
-        <v>3881800</v>
+        <v>5514900</v>
       </c>
       <c r="I41" s="3">
-        <v>5139600</v>
+        <v>4025500</v>
       </c>
       <c r="J41" s="3">
+        <v>5329900</v>
+      </c>
+      <c r="K41" s="3">
         <v>4608100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4589200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4387400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5323900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5337600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5780800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6495200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6385500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7024600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38606200</v>
+        <v>39705400</v>
       </c>
       <c r="E42" s="3">
-        <v>35907600</v>
+        <v>40036100</v>
       </c>
       <c r="F42" s="3">
-        <v>37385900</v>
+        <v>37237500</v>
       </c>
       <c r="G42" s="3">
-        <v>33957400</v>
+        <v>38770600</v>
       </c>
       <c r="H42" s="3">
-        <v>27509100</v>
+        <v>35215100</v>
       </c>
       <c r="I42" s="3">
-        <v>28713300</v>
+        <v>28528000</v>
       </c>
       <c r="J42" s="3">
+        <v>29776700</v>
+      </c>
+      <c r="K42" s="3">
         <v>20883600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22286700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>21840100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>20932300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>12488600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14955900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>13350900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14204100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>16154100</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2280,8 +2372,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2330,8 +2425,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2380,8 +2478,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2430,158 +2531,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>674300</v>
+        <v>779700</v>
       </c>
       <c r="E47" s="3">
-        <v>653200</v>
+        <v>699300</v>
       </c>
       <c r="F47" s="3">
-        <v>307000</v>
+        <v>677300</v>
       </c>
       <c r="G47" s="3">
-        <v>286700</v>
+        <v>318300</v>
       </c>
       <c r="H47" s="3">
-        <v>281500</v>
+        <v>297400</v>
       </c>
       <c r="I47" s="3">
-        <v>292800</v>
+        <v>291900</v>
       </c>
       <c r="J47" s="3">
+        <v>303600</v>
+      </c>
+      <c r="K47" s="3">
         <v>276700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>346900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>348200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>367000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>490900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>326300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>351100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>395100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2961700</v>
+        <v>3044000</v>
       </c>
       <c r="E48" s="3">
-        <v>2952400</v>
+        <v>3071400</v>
       </c>
       <c r="F48" s="3">
-        <v>2944400</v>
+        <v>3061800</v>
       </c>
       <c r="G48" s="3">
-        <v>2814900</v>
+        <v>3053500</v>
       </c>
       <c r="H48" s="3">
-        <v>2742100</v>
+        <v>2919200</v>
       </c>
       <c r="I48" s="3">
-        <v>2283600</v>
+        <v>2843600</v>
       </c>
       <c r="J48" s="3">
+        <v>2368100</v>
+      </c>
+      <c r="K48" s="3">
         <v>2284800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2378800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2384000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2507000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2509800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2480800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2470200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2534900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2525400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>668000</v>
+        <v>689100</v>
       </c>
       <c r="E49" s="3">
-        <v>683700</v>
+        <v>692800</v>
       </c>
       <c r="F49" s="3">
-        <v>562400</v>
+        <v>709100</v>
       </c>
       <c r="G49" s="3">
-        <v>520800</v>
+        <v>583200</v>
       </c>
       <c r="H49" s="3">
-        <v>524200</v>
+        <v>540100</v>
       </c>
       <c r="I49" s="3">
-        <v>475700</v>
+        <v>543600</v>
       </c>
       <c r="J49" s="3">
+        <v>493300</v>
+      </c>
+      <c r="K49" s="3">
         <v>502400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>549000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>452700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>456400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>461900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>446100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>415100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>435400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>376700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>38200</v>
+        <v>41200</v>
       </c>
       <c r="E52" s="3">
-        <v>42700</v>
+        <v>39600</v>
       </c>
       <c r="F52" s="3">
-        <v>78500</v>
+        <v>44300</v>
       </c>
       <c r="G52" s="3">
-        <v>64000</v>
+        <v>81400</v>
       </c>
       <c r="H52" s="3">
-        <v>60700</v>
+        <v>66300</v>
       </c>
       <c r="I52" s="3">
-        <v>116100</v>
+        <v>63000</v>
       </c>
       <c r="J52" s="3">
+        <v>120400</v>
+      </c>
+      <c r="K52" s="3">
         <v>36800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>91100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>177600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>289300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>234800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>221100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>262700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>274800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>143800</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>306353500</v>
+        <v>319265000</v>
       </c>
       <c r="E54" s="3">
-        <v>293204400</v>
+        <v>317699900</v>
       </c>
       <c r="F54" s="3">
-        <v>300173200</v>
+        <v>304063800</v>
       </c>
       <c r="G54" s="3">
-        <v>291115300</v>
+        <v>311290700</v>
       </c>
       <c r="H54" s="3">
-        <v>279570700</v>
+        <v>301897400</v>
       </c>
       <c r="I54" s="3">
-        <v>275762200</v>
+        <v>289925100</v>
       </c>
       <c r="J54" s="3">
+        <v>285975600</v>
+      </c>
+      <c r="K54" s="3">
         <v>267139300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>274311500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>273668600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>278340000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>279730100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>278137400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>273600800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>279614500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>281548700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,58 +2999,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9538600</v>
+        <v>9236700</v>
       </c>
       <c r="E57" s="3">
-        <v>6922800</v>
+        <v>9891900</v>
       </c>
       <c r="F57" s="3">
-        <v>12711900</v>
+        <v>7179200</v>
       </c>
       <c r="G57" s="3">
-        <v>13934000</v>
+        <v>13182700</v>
       </c>
       <c r="H57" s="3">
-        <v>13154600</v>
+        <v>14450100</v>
       </c>
       <c r="I57" s="3">
-        <v>10596100</v>
+        <v>13641800</v>
       </c>
       <c r="J57" s="3">
+        <v>10988500</v>
+      </c>
+      <c r="K57" s="3">
         <v>12068900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11638400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12317300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5801500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13814400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14756900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10823000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13329400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15356600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2970,58 +3103,64 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1892000</v>
+        <v>1685800</v>
       </c>
       <c r="E59" s="3">
-        <v>2186100</v>
+        <v>1962000</v>
       </c>
       <c r="F59" s="3">
-        <v>2096300</v>
+        <v>2267100</v>
       </c>
       <c r="G59" s="3">
-        <v>1900500</v>
+        <v>2173900</v>
       </c>
       <c r="H59" s="3">
-        <v>1913200</v>
+        <v>1970900</v>
       </c>
       <c r="I59" s="3">
-        <v>1918800</v>
+        <v>1984000</v>
       </c>
       <c r="J59" s="3">
+        <v>1989900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1798500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1649500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1642100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2008600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2057400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1681400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1880000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2004400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1813400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3070,108 +3209,117 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>43080800</v>
+        <v>42779800</v>
       </c>
       <c r="E61" s="3">
-        <v>40146900</v>
+        <v>44676400</v>
       </c>
       <c r="F61" s="3">
-        <v>42105700</v>
+        <v>41633900</v>
       </c>
       <c r="G61" s="3">
-        <v>39710400</v>
+        <v>43665200</v>
       </c>
       <c r="H61" s="3">
-        <v>35878400</v>
+        <v>41181100</v>
       </c>
       <c r="I61" s="3">
-        <v>35552000</v>
+        <v>37207200</v>
       </c>
       <c r="J61" s="3">
+        <v>36868700</v>
+      </c>
+      <c r="K61" s="3">
         <v>34955700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35115500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>34009900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>36941800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37408900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>35000000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>33280700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>34538700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>33926000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>680000</v>
+        <v>754300</v>
       </c>
       <c r="E62" s="3">
-        <v>543300</v>
+        <v>705200</v>
       </c>
       <c r="F62" s="3">
-        <v>681000</v>
+        <v>563400</v>
       </c>
       <c r="G62" s="3">
-        <v>596500</v>
+        <v>706200</v>
       </c>
       <c r="H62" s="3">
-        <v>550700</v>
+        <v>618600</v>
       </c>
       <c r="I62" s="3">
-        <v>501700</v>
+        <v>571100</v>
       </c>
       <c r="J62" s="3">
+        <v>520300</v>
+      </c>
+      <c r="K62" s="3">
         <v>418500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>420800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>527700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>419200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>395900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>382900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>400700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>463600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>459900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>288675900</v>
+        <v>300532000</v>
       </c>
       <c r="E66" s="3">
-        <v>275781000</v>
+        <v>299367600</v>
       </c>
       <c r="F66" s="3">
-        <v>283289000</v>
+        <v>285995100</v>
       </c>
       <c r="G66" s="3">
-        <v>275366400</v>
+        <v>293781200</v>
       </c>
       <c r="H66" s="3">
-        <v>264334300</v>
+        <v>285565200</v>
       </c>
       <c r="I66" s="3">
-        <v>258152900</v>
+        <v>274124400</v>
       </c>
       <c r="J66" s="3">
+        <v>267714100</v>
+      </c>
+      <c r="K66" s="3">
         <v>249559900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>256847800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>256582900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>260418000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>261733600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>260311800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>255640700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>261266900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>263136400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15002800</v>
+        <v>15667800</v>
       </c>
       <c r="E72" s="3">
-        <v>15004900</v>
+        <v>15558500</v>
       </c>
       <c r="F72" s="3">
-        <v>14840900</v>
+        <v>15560600</v>
       </c>
       <c r="G72" s="3">
-        <v>14449900</v>
+        <v>15390500</v>
       </c>
       <c r="H72" s="3">
-        <v>13955100</v>
+        <v>14985100</v>
       </c>
       <c r="I72" s="3">
-        <v>13871000</v>
+        <v>14472000</v>
       </c>
       <c r="J72" s="3">
+        <v>14384700</v>
+      </c>
+      <c r="K72" s="3">
         <v>13795900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13837700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13273900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13745600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13660700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13507800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13138800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13150400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13062800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17677500</v>
+        <v>18733000</v>
       </c>
       <c r="E76" s="3">
-        <v>17423400</v>
+        <v>18332300</v>
       </c>
       <c r="F76" s="3">
-        <v>16884200</v>
+        <v>18068700</v>
       </c>
       <c r="G76" s="3">
-        <v>15748900</v>
+        <v>17509500</v>
       </c>
       <c r="H76" s="3">
-        <v>15236400</v>
+        <v>16332200</v>
       </c>
       <c r="I76" s="3">
-        <v>17609300</v>
+        <v>15800700</v>
       </c>
       <c r="J76" s="3">
+        <v>18261500</v>
+      </c>
+      <c r="K76" s="3">
         <v>17579400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17463800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17085700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17922000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17996500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17825600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17960100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18347500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18412300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>412900</v>
+        <v>109600</v>
       </c>
       <c r="E81" s="3">
-        <v>166600</v>
+        <v>428200</v>
       </c>
       <c r="F81" s="3">
-        <v>390800</v>
+        <v>172800</v>
       </c>
       <c r="G81" s="3">
-        <v>494900</v>
+        <v>405200</v>
       </c>
       <c r="H81" s="3">
-        <v>460600</v>
+        <v>513200</v>
       </c>
       <c r="I81" s="3">
-        <v>74000</v>
+        <v>477700</v>
       </c>
       <c r="J81" s="3">
+        <v>76800</v>
+      </c>
+      <c r="K81" s="3">
         <v>453900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>569900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>463600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>84900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>212100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>369000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>517600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>88500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>112300</v>
+        <v>107700</v>
       </c>
       <c r="E83" s="3">
-        <v>114700</v>
+        <v>116400</v>
       </c>
       <c r="F83" s="3">
-        <v>111400</v>
+        <v>118900</v>
       </c>
       <c r="G83" s="3">
-        <v>100200</v>
+        <v>115500</v>
       </c>
       <c r="H83" s="3">
-        <v>83300</v>
+        <v>104000</v>
       </c>
       <c r="I83" s="3">
-        <v>59400</v>
+        <v>86400</v>
       </c>
       <c r="J83" s="3">
+        <v>61600</v>
+      </c>
+      <c r="K83" s="3">
         <v>58600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>56000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>50600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>49900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>50800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>51600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>55200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>54800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-824700</v>
+        <v>2965700</v>
       </c>
       <c r="E89" s="3">
-        <v>-146100</v>
+        <v>-855300</v>
       </c>
       <c r="F89" s="3">
-        <v>-408400</v>
+        <v>-151500</v>
       </c>
       <c r="G89" s="3">
-        <v>3223100</v>
+        <v>-423500</v>
       </c>
       <c r="H89" s="3">
-        <v>-1153600</v>
+        <v>3342500</v>
       </c>
       <c r="I89" s="3">
-        <v>5044700</v>
+        <v>-1196400</v>
       </c>
       <c r="J89" s="3">
+        <v>5231600</v>
+      </c>
+      <c r="K89" s="3">
         <v>908000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>643600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>877700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-506300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2456000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-340700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1561500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>108800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3807600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4604,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20300</v>
+        <v>-27000</v>
       </c>
       <c r="E91" s="3">
-        <v>-181900</v>
+        <v>-21100</v>
       </c>
       <c r="F91" s="3">
-        <v>-86800</v>
+        <v>-188600</v>
       </c>
       <c r="G91" s="3">
-        <v>-51000</v>
+        <v>-90000</v>
       </c>
       <c r="H91" s="3">
-        <v>-28300</v>
+        <v>-52900</v>
       </c>
       <c r="I91" s="3">
-        <v>-41500</v>
+        <v>-29300</v>
       </c>
       <c r="J91" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-20100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-57300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-37900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-111600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-90400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-179800</v>
+        <v>-486700</v>
       </c>
       <c r="E94" s="3">
-        <v>-916900</v>
+        <v>-186500</v>
       </c>
       <c r="F94" s="3">
-        <v>-870600</v>
+        <v>-950800</v>
       </c>
       <c r="G94" s="3">
-        <v>-5081700</v>
+        <v>-902900</v>
       </c>
       <c r="H94" s="3">
-        <v>-87200</v>
+        <v>-5269900</v>
       </c>
       <c r="I94" s="3">
-        <v>-4922600</v>
+        <v>-90400</v>
       </c>
       <c r="J94" s="3">
+        <v>-5105000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2452600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1063800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-587600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1277600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-195600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>183200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>392500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2371700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>694800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,8 +4837,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4641,22 +4874,25 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-59200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-237000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-38100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-22800</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,154 +5047,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3526800</v>
+        <v>-2570200</v>
       </c>
       <c r="E100" s="3">
-        <v>-906000</v>
+        <v>3657400</v>
       </c>
       <c r="F100" s="3">
-        <v>2859300</v>
+        <v>-939500</v>
       </c>
       <c r="G100" s="3">
-        <v>3303200</v>
+        <v>2965200</v>
       </c>
       <c r="H100" s="3">
-        <v>-258000</v>
+        <v>3425500</v>
       </c>
       <c r="I100" s="3">
-        <v>473800</v>
+        <v>-267500</v>
       </c>
       <c r="J100" s="3">
+        <v>491400</v>
+      </c>
+      <c r="K100" s="3">
         <v>1689200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>354700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1323700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-309500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2140800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-384900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1500100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1503800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1778900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>200400</v>
+        <v>-174400</v>
       </c>
       <c r="E101" s="3">
-        <v>352000</v>
+        <v>207800</v>
       </c>
       <c r="F101" s="3">
-        <v>-324600</v>
+        <v>365100</v>
       </c>
       <c r="G101" s="3">
-        <v>47100</v>
+        <v>-336600</v>
       </c>
       <c r="H101" s="3">
-        <v>80600</v>
+        <v>48800</v>
       </c>
       <c r="I101" s="3">
-        <v>6200</v>
+        <v>83600</v>
       </c>
       <c r="J101" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-76600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>218900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>50500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-377500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>14000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-108300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>138000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-105900</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2722600</v>
+        <v>-265600</v>
       </c>
       <c r="E102" s="3">
-        <v>-1617000</v>
+        <v>2823500</v>
       </c>
       <c r="F102" s="3">
-        <v>1255700</v>
+        <v>-1676900</v>
       </c>
       <c r="G102" s="3">
-        <v>1491700</v>
+        <v>1302200</v>
       </c>
       <c r="H102" s="3">
-        <v>-1418200</v>
+        <v>1546900</v>
       </c>
       <c r="I102" s="3">
-        <v>602100</v>
+        <v>-1470700</v>
       </c>
       <c r="J102" s="3">
+        <v>624400</v>
+      </c>
+      <c r="K102" s="3">
         <v>68000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>153400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-983000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>84300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-496900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-534100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>345600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-621200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2617600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>WF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,133 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2026200</v>
+        <v>2067900</v>
       </c>
       <c r="E8" s="3">
-        <v>2103200</v>
+        <v>2195100</v>
       </c>
       <c r="F8" s="3">
-        <v>2190400</v>
+        <v>2278500</v>
       </c>
       <c r="G8" s="3">
-        <v>2260900</v>
+        <v>2372900</v>
       </c>
       <c r="H8" s="3">
-        <v>2246100</v>
+        <v>2449300</v>
       </c>
       <c r="I8" s="3">
-        <v>2187100</v>
+        <v>2433300</v>
       </c>
       <c r="J8" s="3">
+        <v>2369400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2154000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2006200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1989700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1910800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1912500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1925300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1853100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1833700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1898800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -837,8 +843,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,8 +899,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +923,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -964,8 +977,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,8 +1033,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1070,61 +1089,67 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-104900</v>
+        <v>-117700</v>
       </c>
       <c r="E15" s="3">
         <v>-113600</v>
       </c>
       <c r="F15" s="3">
-        <v>-113800</v>
+        <v>-123100</v>
       </c>
       <c r="G15" s="3">
-        <v>-110800</v>
+        <v>-123300</v>
       </c>
       <c r="H15" s="3">
-        <v>-99400</v>
+        <v>-120000</v>
       </c>
       <c r="I15" s="3">
-        <v>-82100</v>
+        <v>-107700</v>
       </c>
       <c r="J15" s="3">
+        <v>-88900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-50500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-47800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-44700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-40700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-39500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-40300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-40800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-44500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-54800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-53700</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1054000</v>
+        <v>852200</v>
       </c>
       <c r="E17" s="3">
-        <v>960300</v>
+        <v>1141900</v>
       </c>
       <c r="F17" s="3">
-        <v>1007500</v>
+        <v>1040400</v>
       </c>
       <c r="G17" s="3">
-        <v>1176700</v>
+        <v>1091500</v>
       </c>
       <c r="H17" s="3">
-        <v>1061400</v>
+        <v>1274800</v>
       </c>
       <c r="I17" s="3">
-        <v>1013800</v>
+        <v>1149800</v>
       </c>
       <c r="J17" s="3">
+        <v>1098300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1157200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>918800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>752200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>877900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1026000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>926800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>906500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>830000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>903100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>963600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>972200</v>
+        <v>1215700</v>
       </c>
       <c r="E18" s="3">
-        <v>1142900</v>
+        <v>1053200</v>
       </c>
       <c r="F18" s="3">
-        <v>1182800</v>
+        <v>1238100</v>
       </c>
       <c r="G18" s="3">
-        <v>1084200</v>
+        <v>1281400</v>
       </c>
       <c r="H18" s="3">
-        <v>1184700</v>
+        <v>1174500</v>
       </c>
       <c r="I18" s="3">
-        <v>1173300</v>
+        <v>1283500</v>
       </c>
       <c r="J18" s="3">
+        <v>1271100</v>
+      </c>
+      <c r="K18" s="3">
         <v>996800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1087400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1237400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1032900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>886500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>998500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>946600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1003700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>995700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>934400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,114 +1300,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-736000</v>
+        <v>-600600</v>
       </c>
       <c r="E20" s="3">
-        <v>-510700</v>
+        <v>-797300</v>
       </c>
       <c r="F20" s="3">
-        <v>-910100</v>
+        <v>-553200</v>
       </c>
       <c r="G20" s="3">
-        <v>-521100</v>
+        <v>-985900</v>
       </c>
       <c r="H20" s="3">
-        <v>-426800</v>
+        <v>-564600</v>
       </c>
       <c r="I20" s="3">
-        <v>-479700</v>
+        <v>-462400</v>
       </c>
       <c r="J20" s="3">
+        <v>-519600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-847700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-418500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-401200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-355800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-756300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-671500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-417500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-274500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-821100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-531000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>344000</v>
+        <v>735100</v>
       </c>
       <c r="E21" s="3">
-        <v>748600</v>
+        <v>372600</v>
       </c>
       <c r="F21" s="3">
-        <v>391700</v>
+        <v>811000</v>
       </c>
       <c r="G21" s="3">
-        <v>678500</v>
+        <v>424300</v>
       </c>
       <c r="H21" s="3">
-        <v>861900</v>
+        <v>735100</v>
       </c>
       <c r="I21" s="3">
-        <v>780100</v>
+        <v>933700</v>
       </c>
       <c r="J21" s="3">
+        <v>845100</v>
+      </c>
+      <c r="K21" s="3">
         <v>210800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>727400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>892200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>727700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>180100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>377800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>580800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>784400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>229400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>457200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1427,114 +1466,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>236200</v>
+        <v>615100</v>
       </c>
       <c r="E23" s="3">
-        <v>632200</v>
+        <v>255900</v>
       </c>
       <c r="F23" s="3">
-        <v>272700</v>
+        <v>684900</v>
       </c>
       <c r="G23" s="3">
-        <v>563000</v>
+        <v>295500</v>
       </c>
       <c r="H23" s="3">
-        <v>757900</v>
+        <v>609900</v>
       </c>
       <c r="I23" s="3">
-        <v>693700</v>
+        <v>821100</v>
       </c>
       <c r="J23" s="3">
+        <v>751500</v>
+      </c>
+      <c r="K23" s="3">
         <v>149100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>668900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>836200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>677100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>130200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>327000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>529200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>729200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>174600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>403400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>54600</v>
+        <v>140400</v>
       </c>
       <c r="E24" s="3">
-        <v>163700</v>
+        <v>59100</v>
       </c>
       <c r="F24" s="3">
-        <v>78300</v>
+        <v>177300</v>
       </c>
       <c r="G24" s="3">
-        <v>114400</v>
+        <v>84800</v>
       </c>
       <c r="H24" s="3">
-        <v>205700</v>
+        <v>123900</v>
       </c>
       <c r="I24" s="3">
-        <v>177500</v>
+        <v>222800</v>
       </c>
       <c r="J24" s="3">
+        <v>192300</v>
+      </c>
+      <c r="K24" s="3">
         <v>39300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>179200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>229900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>177700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>77600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>118800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>163600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>30300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>181700</v>
+        <v>474800</v>
       </c>
       <c r="E26" s="3">
-        <v>468500</v>
+        <v>196800</v>
       </c>
       <c r="F26" s="3">
-        <v>194500</v>
+        <v>507600</v>
       </c>
       <c r="G26" s="3">
-        <v>448700</v>
+        <v>210700</v>
       </c>
       <c r="H26" s="3">
-        <v>552200</v>
+        <v>486000</v>
       </c>
       <c r="I26" s="3">
-        <v>516200</v>
+        <v>598300</v>
       </c>
       <c r="J26" s="3">
+        <v>559200</v>
+      </c>
+      <c r="K26" s="3">
         <v>109900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>489700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>606300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>499400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>121100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>249400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>410300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>565600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>144300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>323500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>109600</v>
+        <v>424000</v>
       </c>
       <c r="E27" s="3">
-        <v>428200</v>
+        <v>118800</v>
       </c>
       <c r="F27" s="3">
-        <v>172800</v>
+        <v>463800</v>
       </c>
       <c r="G27" s="3">
-        <v>405200</v>
+        <v>187200</v>
       </c>
       <c r="H27" s="3">
-        <v>513200</v>
+        <v>439000</v>
       </c>
       <c r="I27" s="3">
-        <v>477700</v>
+        <v>556000</v>
       </c>
       <c r="J27" s="3">
+        <v>517500</v>
+      </c>
+      <c r="K27" s="3">
         <v>76800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>453900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>569900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>463600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>84900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>212100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>369000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>517600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>88500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1798,8 +1858,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +1970,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>736000</v>
+        <v>600600</v>
       </c>
       <c r="E32" s="3">
-        <v>510700</v>
+        <v>797300</v>
       </c>
       <c r="F32" s="3">
-        <v>910100</v>
+        <v>553200</v>
       </c>
       <c r="G32" s="3">
-        <v>521100</v>
+        <v>985900</v>
       </c>
       <c r="H32" s="3">
-        <v>426800</v>
+        <v>564600</v>
       </c>
       <c r="I32" s="3">
-        <v>479700</v>
+        <v>462400</v>
       </c>
       <c r="J32" s="3">
+        <v>519600</v>
+      </c>
+      <c r="K32" s="3">
         <v>847700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>418500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>401200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>355800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>756300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>671500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>417500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>274500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>821100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>109600</v>
+        <v>424000</v>
       </c>
       <c r="E33" s="3">
-        <v>428200</v>
+        <v>118800</v>
       </c>
       <c r="F33" s="3">
-        <v>172800</v>
+        <v>463800</v>
       </c>
       <c r="G33" s="3">
-        <v>405200</v>
+        <v>187200</v>
       </c>
       <c r="H33" s="3">
-        <v>513200</v>
+        <v>439000</v>
       </c>
       <c r="I33" s="3">
-        <v>477700</v>
+        <v>556000</v>
       </c>
       <c r="J33" s="3">
+        <v>517500</v>
+      </c>
+      <c r="K33" s="3">
         <v>76800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>453900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>569900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>463600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>84900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>212100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>369000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>517600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>88500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>109600</v>
+        <v>424000</v>
       </c>
       <c r="E35" s="3">
-        <v>428200</v>
+        <v>118800</v>
       </c>
       <c r="F35" s="3">
-        <v>172800</v>
+        <v>463800</v>
       </c>
       <c r="G35" s="3">
-        <v>405200</v>
+        <v>187200</v>
       </c>
       <c r="H35" s="3">
-        <v>513200</v>
+        <v>439000</v>
       </c>
       <c r="I35" s="3">
-        <v>477700</v>
+        <v>556000</v>
       </c>
       <c r="J35" s="3">
+        <v>517500</v>
+      </c>
+      <c r="K35" s="3">
         <v>76800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>453900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>569900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>463600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>84900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>212100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>369000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>517600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>88500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,114 +2301,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7565200</v>
+        <v>7625500</v>
       </c>
       <c r="E41" s="3">
-        <v>8100100</v>
+        <v>8195600</v>
       </c>
       <c r="F41" s="3">
-        <v>5265200</v>
+        <v>8775100</v>
       </c>
       <c r="G41" s="3">
-        <v>6986700</v>
+        <v>5703900</v>
       </c>
       <c r="H41" s="3">
-        <v>5514900</v>
+        <v>7568900</v>
       </c>
       <c r="I41" s="3">
-        <v>4025500</v>
+        <v>5974500</v>
       </c>
       <c r="J41" s="3">
+        <v>4361000</v>
+      </c>
+      <c r="K41" s="3">
         <v>5329900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4608100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4589200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4387400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5323900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5337600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5780800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6495200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6385500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7024600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>39705400</v>
+        <v>39323600</v>
       </c>
       <c r="E42" s="3">
-        <v>40036100</v>
+        <v>43014100</v>
       </c>
       <c r="F42" s="3">
-        <v>37237500</v>
+        <v>43372500</v>
       </c>
       <c r="G42" s="3">
-        <v>38770600</v>
+        <v>40340600</v>
       </c>
       <c r="H42" s="3">
-        <v>35215100</v>
+        <v>42001500</v>
       </c>
       <c r="I42" s="3">
-        <v>28528000</v>
+        <v>38149700</v>
       </c>
       <c r="J42" s="3">
+        <v>30905300</v>
+      </c>
+      <c r="K42" s="3">
         <v>29776700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>20883600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22286700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>21840100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>20932300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>12488600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14955900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>13350900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14204100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>16154100</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2375,8 +2467,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2428,8 +2523,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2481,8 +2579,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2534,167 +2635,179 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>779700</v>
+        <v>979900</v>
       </c>
       <c r="E47" s="3">
-        <v>699300</v>
+        <v>844600</v>
       </c>
       <c r="F47" s="3">
-        <v>677300</v>
+        <v>757500</v>
       </c>
       <c r="G47" s="3">
-        <v>318300</v>
+        <v>733800</v>
       </c>
       <c r="H47" s="3">
-        <v>297400</v>
+        <v>344800</v>
       </c>
       <c r="I47" s="3">
-        <v>291900</v>
+        <v>322100</v>
       </c>
       <c r="J47" s="3">
+        <v>316200</v>
+      </c>
+      <c r="K47" s="3">
         <v>303600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>276700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>346900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>348200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>367000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>490900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>326300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>351100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>395100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3044000</v>
+        <v>3266900</v>
       </c>
       <c r="E48" s="3">
-        <v>3071400</v>
+        <v>3297700</v>
       </c>
       <c r="F48" s="3">
-        <v>3061800</v>
+        <v>3327400</v>
       </c>
       <c r="G48" s="3">
-        <v>3053500</v>
+        <v>3316900</v>
       </c>
       <c r="H48" s="3">
-        <v>2919200</v>
+        <v>3307900</v>
       </c>
       <c r="I48" s="3">
-        <v>2843600</v>
+        <v>3162500</v>
       </c>
       <c r="J48" s="3">
+        <v>3080600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2368100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2284800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2378800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2384000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2507000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2509800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2480800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2470200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2534900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2525400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>689100</v>
+        <v>727800</v>
       </c>
       <c r="E49" s="3">
-        <v>692800</v>
+        <v>746500</v>
       </c>
       <c r="F49" s="3">
-        <v>709100</v>
+        <v>750500</v>
       </c>
       <c r="G49" s="3">
-        <v>583200</v>
+        <v>768100</v>
       </c>
       <c r="H49" s="3">
-        <v>540100</v>
+        <v>631800</v>
       </c>
       <c r="I49" s="3">
-        <v>543600</v>
+        <v>585100</v>
       </c>
       <c r="J49" s="3">
+        <v>588900</v>
+      </c>
+      <c r="K49" s="3">
         <v>493300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>502400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>549000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>452700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>456400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>461900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>446100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>415100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>435400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>376700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +2915,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>41200</v>
+        <v>88100</v>
       </c>
       <c r="E52" s="3">
-        <v>39600</v>
+        <v>44600</v>
       </c>
       <c r="F52" s="3">
-        <v>44300</v>
+        <v>42900</v>
       </c>
       <c r="G52" s="3">
-        <v>81400</v>
+        <v>47900</v>
       </c>
       <c r="H52" s="3">
-        <v>66300</v>
+        <v>88200</v>
       </c>
       <c r="I52" s="3">
-        <v>63000</v>
+        <v>71800</v>
       </c>
       <c r="J52" s="3">
+        <v>68200</v>
+      </c>
+      <c r="K52" s="3">
         <v>120400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>36800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>91100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>177600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>289300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>234800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>221100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>262700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>274800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>143800</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>319265000</v>
+        <v>346563400</v>
       </c>
       <c r="E54" s="3">
-        <v>317699900</v>
+        <v>345870400</v>
       </c>
       <c r="F54" s="3">
-        <v>304063800</v>
+        <v>344174900</v>
       </c>
       <c r="G54" s="3">
-        <v>311290700</v>
+        <v>329402500</v>
       </c>
       <c r="H54" s="3">
-        <v>301897400</v>
+        <v>337231600</v>
       </c>
       <c r="I54" s="3">
-        <v>289925100</v>
+        <v>327055500</v>
       </c>
       <c r="J54" s="3">
+        <v>314085600</v>
+      </c>
+      <c r="K54" s="3">
         <v>285975600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>267139300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>274311500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>273668600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>278340000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>279730100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>278137400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>273600800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>279614500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>281548700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,61 +3129,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9236700</v>
+        <v>8900100</v>
       </c>
       <c r="E57" s="3">
-        <v>9891900</v>
+        <v>10006400</v>
       </c>
       <c r="F57" s="3">
-        <v>7179200</v>
+        <v>10716200</v>
       </c>
       <c r="G57" s="3">
-        <v>13182700</v>
+        <v>7777500</v>
       </c>
       <c r="H57" s="3">
-        <v>14450100</v>
+        <v>14281300</v>
       </c>
       <c r="I57" s="3">
-        <v>13641800</v>
+        <v>15654200</v>
       </c>
       <c r="J57" s="3">
+        <v>14778600</v>
+      </c>
+      <c r="K57" s="3">
         <v>10988500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12068900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11638400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12317300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5801500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13814400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14756900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10823000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13329400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15356600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3106,61 +3239,67 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1685800</v>
+        <v>1798400</v>
       </c>
       <c r="E59" s="3">
-        <v>1962000</v>
+        <v>1826300</v>
       </c>
       <c r="F59" s="3">
-        <v>2267100</v>
+        <v>2125500</v>
       </c>
       <c r="G59" s="3">
-        <v>2173900</v>
+        <v>2456000</v>
       </c>
       <c r="H59" s="3">
-        <v>1970900</v>
+        <v>2355100</v>
       </c>
       <c r="I59" s="3">
-        <v>1984000</v>
+        <v>2135100</v>
       </c>
       <c r="J59" s="3">
+        <v>2149400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1989900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1798500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1649500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1642100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2008600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2057400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1681400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1880000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2004400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1813400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3212,114 +3351,123 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42779800</v>
+        <v>45181600</v>
       </c>
       <c r="E61" s="3">
-        <v>44676400</v>
+        <v>46344800</v>
       </c>
       <c r="F61" s="3">
-        <v>41633900</v>
+        <v>48399400</v>
       </c>
       <c r="G61" s="3">
-        <v>43665200</v>
+        <v>45103400</v>
       </c>
       <c r="H61" s="3">
-        <v>41181100</v>
+        <v>47303900</v>
       </c>
       <c r="I61" s="3">
-        <v>37207200</v>
+        <v>44612900</v>
       </c>
       <c r="J61" s="3">
+        <v>40307800</v>
+      </c>
+      <c r="K61" s="3">
         <v>36868700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>34955700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35115500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>34009900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>36941800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37408900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>35000000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>33280700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>34538700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>33926000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>754300</v>
+        <v>851700</v>
       </c>
       <c r="E62" s="3">
-        <v>705200</v>
+        <v>817200</v>
       </c>
       <c r="F62" s="3">
-        <v>563400</v>
+        <v>764000</v>
       </c>
       <c r="G62" s="3">
-        <v>706200</v>
+        <v>610400</v>
       </c>
       <c r="H62" s="3">
-        <v>618600</v>
+        <v>765100</v>
       </c>
       <c r="I62" s="3">
-        <v>571100</v>
+        <v>670200</v>
       </c>
       <c r="J62" s="3">
+        <v>618700</v>
+      </c>
+      <c r="K62" s="3">
         <v>520300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>418500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>420800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>527700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>419200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>395900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>382900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>400700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>463600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>459900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300532000</v>
+        <v>325858000</v>
       </c>
       <c r="E66" s="3">
-        <v>299367600</v>
+        <v>325576300</v>
       </c>
       <c r="F66" s="3">
-        <v>285995100</v>
+        <v>324314900</v>
       </c>
       <c r="G66" s="3">
-        <v>293781200</v>
+        <v>309828000</v>
       </c>
       <c r="H66" s="3">
-        <v>285565200</v>
+        <v>318263000</v>
       </c>
       <c r="I66" s="3">
-        <v>274124400</v>
+        <v>309362300</v>
       </c>
       <c r="J66" s="3">
+        <v>296968200</v>
+      </c>
+      <c r="K66" s="3">
         <v>267714100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>249559900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>256847800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>256582900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>260418000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>261733600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>260311800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>255640700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>261266900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>263136400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15667800</v>
+        <v>17395600</v>
       </c>
       <c r="E72" s="3">
-        <v>15558500</v>
+        <v>16973500</v>
       </c>
       <c r="F72" s="3">
-        <v>15560600</v>
+        <v>16855000</v>
       </c>
       <c r="G72" s="3">
-        <v>15390500</v>
+        <v>16857300</v>
       </c>
       <c r="H72" s="3">
-        <v>14985100</v>
+        <v>16673100</v>
       </c>
       <c r="I72" s="3">
-        <v>14472000</v>
+        <v>16233800</v>
       </c>
       <c r="J72" s="3">
+        <v>15678000</v>
+      </c>
+      <c r="K72" s="3">
         <v>14384700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13795900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13837700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13273900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13745600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13660700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13507800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13138800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13150400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13062800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18733000</v>
+        <v>20705400</v>
       </c>
       <c r="E76" s="3">
-        <v>18332300</v>
+        <v>20294100</v>
       </c>
       <c r="F76" s="3">
-        <v>18068700</v>
+        <v>19859900</v>
       </c>
       <c r="G76" s="3">
-        <v>17509500</v>
+        <v>19574400</v>
       </c>
       <c r="H76" s="3">
-        <v>16332200</v>
+        <v>18968600</v>
       </c>
       <c r="I76" s="3">
-        <v>15800700</v>
+        <v>17693200</v>
       </c>
       <c r="J76" s="3">
+        <v>17117400</v>
+      </c>
+      <c r="K76" s="3">
         <v>18261500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17579400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17463800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17085700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17922000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17996500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17825600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17960100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18347500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18412300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>109600</v>
+        <v>424000</v>
       </c>
       <c r="E81" s="3">
-        <v>428200</v>
+        <v>118800</v>
       </c>
       <c r="F81" s="3">
-        <v>172800</v>
+        <v>463800</v>
       </c>
       <c r="G81" s="3">
-        <v>405200</v>
+        <v>187200</v>
       </c>
       <c r="H81" s="3">
-        <v>513200</v>
+        <v>439000</v>
       </c>
       <c r="I81" s="3">
-        <v>477700</v>
+        <v>556000</v>
       </c>
       <c r="J81" s="3">
+        <v>517500</v>
+      </c>
+      <c r="K81" s="3">
         <v>76800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>453900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>569900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>463600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>84900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>212100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>369000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>517600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>88500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4410,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>107700</v>
+        <v>120000</v>
       </c>
       <c r="E83" s="3">
-        <v>116400</v>
+        <v>116700</v>
       </c>
       <c r="F83" s="3">
-        <v>118900</v>
+        <v>126100</v>
       </c>
       <c r="G83" s="3">
-        <v>115500</v>
+        <v>128800</v>
       </c>
       <c r="H83" s="3">
-        <v>104000</v>
+        <v>125100</v>
       </c>
       <c r="I83" s="3">
-        <v>86400</v>
+        <v>112600</v>
       </c>
       <c r="J83" s="3">
+        <v>93600</v>
+      </c>
+      <c r="K83" s="3">
         <v>61600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>58600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>56000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>50600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>49900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>50800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>51600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>55200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>54800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2965700</v>
+        <v>-905800</v>
       </c>
       <c r="E89" s="3">
-        <v>-855300</v>
+        <v>3212800</v>
       </c>
       <c r="F89" s="3">
-        <v>-151500</v>
+        <v>-926600</v>
       </c>
       <c r="G89" s="3">
-        <v>-423500</v>
+        <v>-164200</v>
       </c>
       <c r="H89" s="3">
-        <v>3342500</v>
+        <v>-458800</v>
       </c>
       <c r="I89" s="3">
-        <v>-1196400</v>
+        <v>3621100</v>
       </c>
       <c r="J89" s="3">
+        <v>-1296100</v>
+      </c>
+      <c r="K89" s="3">
         <v>5231600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>908000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>643600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>877700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-506300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2456000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-340700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1561500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>108800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3807600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +4824,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-27000</v>
+        <v>-30200</v>
       </c>
       <c r="E91" s="3">
-        <v>-21100</v>
+        <v>-29300</v>
       </c>
       <c r="F91" s="3">
-        <v>-188600</v>
+        <v>-22800</v>
       </c>
       <c r="G91" s="3">
-        <v>-90000</v>
+        <v>-204400</v>
       </c>
       <c r="H91" s="3">
-        <v>-52900</v>
+        <v>-97500</v>
       </c>
       <c r="I91" s="3">
-        <v>-29300</v>
+        <v>-57300</v>
       </c>
       <c r="J91" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-43000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-57300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-37900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-22400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-111600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-90400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-486700</v>
+        <v>-147100</v>
       </c>
       <c r="E94" s="3">
-        <v>-186500</v>
+        <v>-527200</v>
       </c>
       <c r="F94" s="3">
-        <v>-950800</v>
+        <v>-202000</v>
       </c>
       <c r="G94" s="3">
-        <v>-902900</v>
+        <v>-1030100</v>
       </c>
       <c r="H94" s="3">
-        <v>-5269900</v>
+        <v>-978100</v>
       </c>
       <c r="I94" s="3">
-        <v>-90400</v>
+        <v>-5709100</v>
       </c>
       <c r="J94" s="3">
+        <v>-97900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5105000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2452600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1063800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-587600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1277600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-195600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>183200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>392500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2371700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>694800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,8 +5070,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4877,22 +5110,25 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-59200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-237000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-38100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-22800</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,163 +5292,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2570200</v>
+        <v>654500</v>
       </c>
       <c r="E100" s="3">
-        <v>3657400</v>
+        <v>-2784400</v>
       </c>
       <c r="F100" s="3">
-        <v>-939500</v>
+        <v>3962200</v>
       </c>
       <c r="G100" s="3">
-        <v>2965200</v>
+        <v>-1017800</v>
       </c>
       <c r="H100" s="3">
-        <v>3425500</v>
+        <v>3212300</v>
       </c>
       <c r="I100" s="3">
-        <v>-267500</v>
+        <v>3710900</v>
       </c>
       <c r="J100" s="3">
+        <v>-289800</v>
+      </c>
+      <c r="K100" s="3">
         <v>491400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1689200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>354700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1323700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-309500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2140800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-384900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1500100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1503800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1778900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-174400</v>
+        <v>-168900</v>
       </c>
       <c r="E101" s="3">
-        <v>207800</v>
+        <v>-189000</v>
       </c>
       <c r="F101" s="3">
-        <v>365100</v>
+        <v>225100</v>
       </c>
       <c r="G101" s="3">
-        <v>-336600</v>
+        <v>395500</v>
       </c>
       <c r="H101" s="3">
-        <v>48800</v>
+        <v>-364700</v>
       </c>
       <c r="I101" s="3">
-        <v>83600</v>
+        <v>52900</v>
       </c>
       <c r="J101" s="3">
+        <v>90500</v>
+      </c>
+      <c r="K101" s="3">
         <v>6400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-76600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>218900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>50500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-377500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>14000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>8400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-108300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>138000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-105900</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-265600</v>
+        <v>-567300</v>
       </c>
       <c r="E102" s="3">
-        <v>2823500</v>
+        <v>-287800</v>
       </c>
       <c r="F102" s="3">
-        <v>-1676900</v>
+        <v>3058800</v>
       </c>
       <c r="G102" s="3">
-        <v>1302200</v>
+        <v>-1816600</v>
       </c>
       <c r="H102" s="3">
-        <v>1546900</v>
+        <v>1410700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1470700</v>
+        <v>1675800</v>
       </c>
       <c r="J102" s="3">
+        <v>-1593300</v>
+      </c>
+      <c r="K102" s="3">
         <v>624400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>68000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>153400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-983000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>84300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-496900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-534100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>345600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-621200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2617600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>WF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,139 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2067900</v>
+        <v>2055200</v>
       </c>
       <c r="E8" s="3">
-        <v>2195100</v>
+        <v>1999700</v>
       </c>
       <c r="F8" s="3">
-        <v>2278500</v>
+        <v>2122700</v>
       </c>
       <c r="G8" s="3">
-        <v>2372900</v>
+        <v>2203400</v>
       </c>
       <c r="H8" s="3">
-        <v>2449300</v>
+        <v>2294700</v>
       </c>
       <c r="I8" s="3">
-        <v>2433300</v>
+        <v>2368500</v>
       </c>
       <c r="J8" s="3">
+        <v>2353100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2369400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2154000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2006200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1989700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1910800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1912500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1925300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1853100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1833700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1898800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -846,8 +852,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +936,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -980,8 +993,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,8 +1052,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1092,64 +1111,70 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-117700</v>
+        <v>-118200</v>
       </c>
       <c r="E15" s="3">
-        <v>-113600</v>
+        <v>-113800</v>
       </c>
       <c r="F15" s="3">
-        <v>-123100</v>
+        <v>-109800</v>
       </c>
       <c r="G15" s="3">
-        <v>-123300</v>
+        <v>-119000</v>
       </c>
       <c r="H15" s="3">
-        <v>-120000</v>
+        <v>-119200</v>
       </c>
       <c r="I15" s="3">
-        <v>-107700</v>
+        <v>-116100</v>
       </c>
       <c r="J15" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-88900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-50500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-47800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-44700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-40700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-39500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-40300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-40800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-44500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-54800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-53700</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>852200</v>
+        <v>865600</v>
       </c>
       <c r="E17" s="3">
-        <v>1141900</v>
+        <v>824100</v>
       </c>
       <c r="F17" s="3">
-        <v>1040400</v>
+        <v>1104200</v>
       </c>
       <c r="G17" s="3">
-        <v>1091500</v>
+        <v>1006100</v>
       </c>
       <c r="H17" s="3">
-        <v>1274800</v>
+        <v>1055500</v>
       </c>
       <c r="I17" s="3">
-        <v>1149800</v>
+        <v>1232700</v>
       </c>
       <c r="J17" s="3">
+        <v>1111900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1098300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1157200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>918800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>752200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>877900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1026000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>926800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>906500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>830000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>903100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>963600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1215700</v>
+        <v>1189500</v>
       </c>
       <c r="E18" s="3">
-        <v>1053200</v>
+        <v>1175700</v>
       </c>
       <c r="F18" s="3">
-        <v>1238100</v>
+        <v>1018500</v>
       </c>
       <c r="G18" s="3">
-        <v>1281400</v>
+        <v>1197300</v>
       </c>
       <c r="H18" s="3">
-        <v>1174500</v>
+        <v>1239200</v>
       </c>
       <c r="I18" s="3">
-        <v>1283500</v>
+        <v>1135800</v>
       </c>
       <c r="J18" s="3">
+        <v>1241200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1271100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>996800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1087400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1237400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1032900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>886500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>998500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>946600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1003700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>995700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>934400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,120 +1333,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-600600</v>
+        <v>-933100</v>
       </c>
       <c r="E20" s="3">
-        <v>-797300</v>
+        <v>-580800</v>
       </c>
       <c r="F20" s="3">
-        <v>-553200</v>
+        <v>-771000</v>
       </c>
       <c r="G20" s="3">
-        <v>-985900</v>
+        <v>-535000</v>
       </c>
       <c r="H20" s="3">
-        <v>-564600</v>
+        <v>-953400</v>
       </c>
       <c r="I20" s="3">
-        <v>-462400</v>
+        <v>-546000</v>
       </c>
       <c r="J20" s="3">
+        <v>-447200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-519600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-847700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-418500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-401200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-355800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-756300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-671500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-417500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-274500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-821100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-531000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>735100</v>
+        <v>376900</v>
       </c>
       <c r="E21" s="3">
-        <v>372600</v>
+        <v>710900</v>
       </c>
       <c r="F21" s="3">
-        <v>811000</v>
+        <v>360300</v>
       </c>
       <c r="G21" s="3">
-        <v>424300</v>
+        <v>784300</v>
       </c>
       <c r="H21" s="3">
-        <v>735100</v>
+        <v>410300</v>
       </c>
       <c r="I21" s="3">
-        <v>933700</v>
+        <v>710800</v>
       </c>
       <c r="J21" s="3">
+        <v>902900</v>
+      </c>
+      <c r="K21" s="3">
         <v>845100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>210800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>727400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>892200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>727700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>180100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>377800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>580800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>784400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>229400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>457200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1469,120 +1508,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>615100</v>
+        <v>256500</v>
       </c>
       <c r="E23" s="3">
-        <v>255900</v>
+        <v>594900</v>
       </c>
       <c r="F23" s="3">
-        <v>684900</v>
+        <v>247500</v>
       </c>
       <c r="G23" s="3">
-        <v>295500</v>
+        <v>662300</v>
       </c>
       <c r="H23" s="3">
-        <v>609900</v>
+        <v>285700</v>
       </c>
       <c r="I23" s="3">
-        <v>821100</v>
+        <v>589800</v>
       </c>
       <c r="J23" s="3">
+        <v>794000</v>
+      </c>
+      <c r="K23" s="3">
         <v>751500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>149100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>668900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>836200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>677100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>130200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>327000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>529200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>729200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>174600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>403400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>140400</v>
+        <v>63300</v>
       </c>
       <c r="E24" s="3">
-        <v>59100</v>
+        <v>135800</v>
       </c>
       <c r="F24" s="3">
-        <v>177300</v>
+        <v>57200</v>
       </c>
       <c r="G24" s="3">
-        <v>84800</v>
+        <v>171500</v>
       </c>
       <c r="H24" s="3">
-        <v>123900</v>
+        <v>82000</v>
       </c>
       <c r="I24" s="3">
-        <v>222800</v>
+        <v>119800</v>
       </c>
       <c r="J24" s="3">
+        <v>215500</v>
+      </c>
+      <c r="K24" s="3">
         <v>192300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>179200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>229900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>177700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>77600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>118800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>163600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>30300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>474800</v>
+        <v>193200</v>
       </c>
       <c r="E26" s="3">
-        <v>196800</v>
+        <v>459100</v>
       </c>
       <c r="F26" s="3">
-        <v>507600</v>
+        <v>190300</v>
       </c>
       <c r="G26" s="3">
-        <v>210700</v>
+        <v>490800</v>
       </c>
       <c r="H26" s="3">
-        <v>486000</v>
+        <v>203700</v>
       </c>
       <c r="I26" s="3">
-        <v>598300</v>
+        <v>470000</v>
       </c>
       <c r="J26" s="3">
+        <v>578500</v>
+      </c>
+      <c r="K26" s="3">
         <v>559200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>109900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>489700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>606300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>499400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>121100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>249400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>410300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>565600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>144300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>323500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>424000</v>
+        <v>134000</v>
       </c>
       <c r="E27" s="3">
-        <v>118800</v>
+        <v>410000</v>
       </c>
       <c r="F27" s="3">
-        <v>463800</v>
+        <v>114800</v>
       </c>
       <c r="G27" s="3">
-        <v>187200</v>
+        <v>448500</v>
       </c>
       <c r="H27" s="3">
-        <v>439000</v>
+        <v>181000</v>
       </c>
       <c r="I27" s="3">
-        <v>556000</v>
+        <v>424500</v>
       </c>
       <c r="J27" s="3">
+        <v>537700</v>
+      </c>
+      <c r="K27" s="3">
         <v>517500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>76800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>453900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>569900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>463600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>84900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>212100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>369000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>517600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>88500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,8 +1862,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1861,8 +1921,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,120 +2039,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>600600</v>
+        <v>933100</v>
       </c>
       <c r="E32" s="3">
-        <v>797300</v>
+        <v>580800</v>
       </c>
       <c r="F32" s="3">
-        <v>553200</v>
+        <v>771000</v>
       </c>
       <c r="G32" s="3">
-        <v>985900</v>
+        <v>535000</v>
       </c>
       <c r="H32" s="3">
-        <v>564600</v>
+        <v>953400</v>
       </c>
       <c r="I32" s="3">
-        <v>462400</v>
+        <v>546000</v>
       </c>
       <c r="J32" s="3">
+        <v>447200</v>
+      </c>
+      <c r="K32" s="3">
         <v>519600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>847700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>418500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>401200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>355800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>756300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>671500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>417500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>274500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>821100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>424000</v>
+        <v>134000</v>
       </c>
       <c r="E33" s="3">
-        <v>118800</v>
+        <v>410000</v>
       </c>
       <c r="F33" s="3">
-        <v>463800</v>
+        <v>114800</v>
       </c>
       <c r="G33" s="3">
-        <v>187200</v>
+        <v>448500</v>
       </c>
       <c r="H33" s="3">
-        <v>439000</v>
+        <v>181000</v>
       </c>
       <c r="I33" s="3">
-        <v>556000</v>
+        <v>424500</v>
       </c>
       <c r="J33" s="3">
+        <v>537700</v>
+      </c>
+      <c r="K33" s="3">
         <v>517500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>76800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>453900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>569900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>463600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>84900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>212100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>369000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>517600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>88500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>424000</v>
+        <v>134000</v>
       </c>
       <c r="E35" s="3">
-        <v>118800</v>
+        <v>410000</v>
       </c>
       <c r="F35" s="3">
-        <v>463800</v>
+        <v>114800</v>
       </c>
       <c r="G35" s="3">
-        <v>187200</v>
+        <v>448500</v>
       </c>
       <c r="H35" s="3">
-        <v>439000</v>
+        <v>181000</v>
       </c>
       <c r="I35" s="3">
-        <v>556000</v>
+        <v>424500</v>
       </c>
       <c r="J35" s="3">
+        <v>537700</v>
+      </c>
+      <c r="K35" s="3">
         <v>517500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>76800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>453900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>569900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>463600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>84900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>212100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>369000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>517600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>88500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,120 +2387,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7625500</v>
+        <v>8307400</v>
       </c>
       <c r="E41" s="3">
-        <v>8195600</v>
+        <v>7374100</v>
       </c>
       <c r="F41" s="3">
-        <v>8775100</v>
+        <v>7925400</v>
       </c>
       <c r="G41" s="3">
-        <v>5703900</v>
+        <v>8485800</v>
       </c>
       <c r="H41" s="3">
-        <v>7568900</v>
+        <v>5515900</v>
       </c>
       <c r="I41" s="3">
-        <v>5974500</v>
+        <v>7319400</v>
       </c>
       <c r="J41" s="3">
+        <v>5777500</v>
+      </c>
+      <c r="K41" s="3">
         <v>4361000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5329900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4608100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4589200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4387400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5323900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5337600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5780800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6495200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6385500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7024600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>39323600</v>
+        <v>46580900</v>
       </c>
       <c r="E42" s="3">
-        <v>43014100</v>
+        <v>38027200</v>
       </c>
       <c r="F42" s="3">
-        <v>43372500</v>
+        <v>41596100</v>
       </c>
       <c r="G42" s="3">
-        <v>40340600</v>
+        <v>41942600</v>
       </c>
       <c r="H42" s="3">
-        <v>42001500</v>
+        <v>39010700</v>
       </c>
       <c r="I42" s="3">
-        <v>38149700</v>
+        <v>40616800</v>
       </c>
       <c r="J42" s="3">
+        <v>36892000</v>
+      </c>
+      <c r="K42" s="3">
         <v>30905300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>29776700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>20883600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>22286700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>21840100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>20932300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12488600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14955900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>13350900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14204100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>16154100</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2470,8 +2562,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2526,8 +2621,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2582,8 +2680,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2638,176 +2739,188 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>979900</v>
+        <v>874100</v>
       </c>
       <c r="E47" s="3">
-        <v>844600</v>
+        <v>947600</v>
       </c>
       <c r="F47" s="3">
-        <v>757500</v>
+        <v>816800</v>
       </c>
       <c r="G47" s="3">
-        <v>733800</v>
+        <v>732500</v>
       </c>
       <c r="H47" s="3">
-        <v>344800</v>
+        <v>709600</v>
       </c>
       <c r="I47" s="3">
-        <v>322100</v>
+        <v>333500</v>
       </c>
       <c r="J47" s="3">
+        <v>311500</v>
+      </c>
+      <c r="K47" s="3">
         <v>316200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>303600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>276700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>346900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>348200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>367000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>490900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>326300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>351100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>395100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3266900</v>
+        <v>3233700</v>
       </c>
       <c r="E48" s="3">
-        <v>3297700</v>
+        <v>3159200</v>
       </c>
       <c r="F48" s="3">
-        <v>3327400</v>
+        <v>3189000</v>
       </c>
       <c r="G48" s="3">
-        <v>3316900</v>
+        <v>3217700</v>
       </c>
       <c r="H48" s="3">
-        <v>3307900</v>
+        <v>3207600</v>
       </c>
       <c r="I48" s="3">
-        <v>3162500</v>
+        <v>3198900</v>
       </c>
       <c r="J48" s="3">
+        <v>3058200</v>
+      </c>
+      <c r="K48" s="3">
         <v>3080600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2368100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2284800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2378800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2384000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2507000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2509800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2480800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2470200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2534900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2525400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>727800</v>
+        <v>697000</v>
       </c>
       <c r="E49" s="3">
-        <v>746500</v>
+        <v>703800</v>
       </c>
       <c r="F49" s="3">
-        <v>750500</v>
+        <v>721900</v>
       </c>
       <c r="G49" s="3">
-        <v>768100</v>
+        <v>725800</v>
       </c>
       <c r="H49" s="3">
-        <v>631800</v>
+        <v>742800</v>
       </c>
       <c r="I49" s="3">
-        <v>585100</v>
+        <v>611000</v>
       </c>
       <c r="J49" s="3">
+        <v>565800</v>
+      </c>
+      <c r="K49" s="3">
         <v>588900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>493300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>502400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>549000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>452700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>456400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>461900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>446100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>415100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>435400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>376700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,64 +3034,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>88100</v>
+        <v>98300</v>
       </c>
       <c r="E52" s="3">
-        <v>44600</v>
+        <v>85100</v>
       </c>
       <c r="F52" s="3">
-        <v>42900</v>
+        <v>43200</v>
       </c>
       <c r="G52" s="3">
-        <v>47900</v>
+        <v>41500</v>
       </c>
       <c r="H52" s="3">
-        <v>88200</v>
+        <v>46400</v>
       </c>
       <c r="I52" s="3">
-        <v>71800</v>
+        <v>85200</v>
       </c>
       <c r="J52" s="3">
+        <v>69500</v>
+      </c>
+      <c r="K52" s="3">
         <v>68200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>120400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>36800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>91100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>177600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>289300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>234800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>221100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>262700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>274800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>143800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>346563400</v>
+        <v>351191300</v>
       </c>
       <c r="E54" s="3">
-        <v>345870400</v>
+        <v>335138200</v>
       </c>
       <c r="F54" s="3">
-        <v>344174900</v>
+        <v>334468100</v>
       </c>
       <c r="G54" s="3">
-        <v>329402500</v>
+        <v>332828500</v>
       </c>
       <c r="H54" s="3">
-        <v>337231600</v>
+        <v>318543000</v>
       </c>
       <c r="I54" s="3">
-        <v>327055500</v>
+        <v>326114100</v>
       </c>
       <c r="J54" s="3">
+        <v>316273500</v>
+      </c>
+      <c r="K54" s="3">
         <v>314085600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>285975600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>267139300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>274311500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>273668600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>278340000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>279730100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>278137400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>273600800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>279614500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>281548700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,64 +3259,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8900100</v>
+        <v>4398300</v>
       </c>
       <c r="E57" s="3">
-        <v>10006400</v>
+        <v>8606700</v>
       </c>
       <c r="F57" s="3">
-        <v>10716200</v>
+        <v>9676600</v>
       </c>
       <c r="G57" s="3">
-        <v>7777500</v>
+        <v>10362900</v>
       </c>
       <c r="H57" s="3">
-        <v>14281300</v>
+        <v>7521100</v>
       </c>
       <c r="I57" s="3">
-        <v>15654200</v>
+        <v>13810500</v>
       </c>
       <c r="J57" s="3">
+        <v>15138200</v>
+      </c>
+      <c r="K57" s="3">
         <v>14778600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10988500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12068900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11638400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12317300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5801500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13814400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14756900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10823000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13329400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15356600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3242,64 +3375,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1798400</v>
+        <v>2129700</v>
       </c>
       <c r="E59" s="3">
-        <v>1826300</v>
+        <v>1739100</v>
       </c>
       <c r="F59" s="3">
-        <v>2125500</v>
+        <v>1766100</v>
       </c>
       <c r="G59" s="3">
-        <v>2456000</v>
+        <v>2055500</v>
       </c>
       <c r="H59" s="3">
-        <v>2355100</v>
+        <v>2375100</v>
       </c>
       <c r="I59" s="3">
-        <v>2135100</v>
+        <v>2277400</v>
       </c>
       <c r="J59" s="3">
+        <v>2064700</v>
+      </c>
+      <c r="K59" s="3">
         <v>2149400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1989900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1798500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1649500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1642100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2008600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2057400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1681400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1880000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2004400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1813400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3354,120 +3493,129 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>45181600</v>
+        <v>50643200</v>
       </c>
       <c r="E61" s="3">
-        <v>46344800</v>
+        <v>43692100</v>
       </c>
       <c r="F61" s="3">
-        <v>48399400</v>
+        <v>44816900</v>
       </c>
       <c r="G61" s="3">
-        <v>45103400</v>
+        <v>46803900</v>
       </c>
       <c r="H61" s="3">
-        <v>47303900</v>
+        <v>43616400</v>
       </c>
       <c r="I61" s="3">
-        <v>44612900</v>
+        <v>45744500</v>
       </c>
       <c r="J61" s="3">
+        <v>43142100</v>
+      </c>
+      <c r="K61" s="3">
         <v>40307800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36868700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>34955700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35115500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>34009900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>36941800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>37408900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>35000000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>33280700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>34538700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>33926000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>851700</v>
+        <v>628400</v>
       </c>
       <c r="E62" s="3">
-        <v>817200</v>
+        <v>823600</v>
       </c>
       <c r="F62" s="3">
-        <v>764000</v>
+        <v>790200</v>
       </c>
       <c r="G62" s="3">
-        <v>610400</v>
+        <v>738800</v>
       </c>
       <c r="H62" s="3">
-        <v>765100</v>
+        <v>590300</v>
       </c>
       <c r="I62" s="3">
-        <v>670200</v>
+        <v>739800</v>
       </c>
       <c r="J62" s="3">
+        <v>648100</v>
+      </c>
+      <c r="K62" s="3">
         <v>618700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>520300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>418500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>420800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>527700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>419200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>395900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>382900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>400700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>463600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>459900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>325858000</v>
+        <v>330904100</v>
       </c>
       <c r="E66" s="3">
-        <v>325576300</v>
+        <v>315115500</v>
       </c>
       <c r="F66" s="3">
-        <v>324314900</v>
+        <v>314843000</v>
       </c>
       <c r="G66" s="3">
-        <v>309828000</v>
+        <v>313623200</v>
       </c>
       <c r="H66" s="3">
-        <v>318263000</v>
+        <v>299613900</v>
       </c>
       <c r="I66" s="3">
-        <v>309362300</v>
+        <v>307770800</v>
       </c>
       <c r="J66" s="3">
+        <v>299163500</v>
+      </c>
+      <c r="K66" s="3">
         <v>296968200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>267714100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>249559900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>256847800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>256582900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>260418000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>261733600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>260311800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>255640700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>261266900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>263136400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17395600</v>
+        <v>16956100</v>
       </c>
       <c r="E72" s="3">
-        <v>16973500</v>
+        <v>16822100</v>
       </c>
       <c r="F72" s="3">
-        <v>16855000</v>
+        <v>16413900</v>
       </c>
       <c r="G72" s="3">
-        <v>16857300</v>
+        <v>16299400</v>
       </c>
       <c r="H72" s="3">
-        <v>16673100</v>
+        <v>16301600</v>
       </c>
       <c r="I72" s="3">
-        <v>16233800</v>
+        <v>16123400</v>
       </c>
       <c r="J72" s="3">
+        <v>15698600</v>
+      </c>
+      <c r="K72" s="3">
         <v>15678000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14384700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13795900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13837700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13273900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13745600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13660700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13507800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13138800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13150400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13062800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20705400</v>
+        <v>20287200</v>
       </c>
       <c r="E76" s="3">
-        <v>20294100</v>
+        <v>20022800</v>
       </c>
       <c r="F76" s="3">
-        <v>19859900</v>
+        <v>19625000</v>
       </c>
       <c r="G76" s="3">
-        <v>19574400</v>
+        <v>19205200</v>
       </c>
       <c r="H76" s="3">
-        <v>18968600</v>
+        <v>18929100</v>
       </c>
       <c r="I76" s="3">
-        <v>17693200</v>
+        <v>18343300</v>
       </c>
       <c r="J76" s="3">
+        <v>17110000</v>
+      </c>
+      <c r="K76" s="3">
         <v>17117400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18261500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17579400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17463800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17085700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17922000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17996500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17825600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17960100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18347500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18412300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>424000</v>
+        <v>134000</v>
       </c>
       <c r="E81" s="3">
-        <v>118800</v>
+        <v>410000</v>
       </c>
       <c r="F81" s="3">
-        <v>463800</v>
+        <v>114800</v>
       </c>
       <c r="G81" s="3">
-        <v>187200</v>
+        <v>448500</v>
       </c>
       <c r="H81" s="3">
-        <v>439000</v>
+        <v>181000</v>
       </c>
       <c r="I81" s="3">
-        <v>556000</v>
+        <v>424500</v>
       </c>
       <c r="J81" s="3">
+        <v>537700</v>
+      </c>
+      <c r="K81" s="3">
         <v>517500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>76800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>453900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>569900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>463600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>84900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>212100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>369000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>517600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>88500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,64 +4608,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>120000</v>
+        <v>120400</v>
       </c>
       <c r="E83" s="3">
-        <v>116700</v>
+        <v>116100</v>
       </c>
       <c r="F83" s="3">
-        <v>126100</v>
+        <v>112800</v>
       </c>
       <c r="G83" s="3">
-        <v>128800</v>
+        <v>122000</v>
       </c>
       <c r="H83" s="3">
-        <v>125100</v>
+        <v>124600</v>
       </c>
       <c r="I83" s="3">
-        <v>112600</v>
+        <v>121000</v>
       </c>
       <c r="J83" s="3">
+        <v>108900</v>
+      </c>
+      <c r="K83" s="3">
         <v>93600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>61600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>58600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>56000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>50600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>49900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>50800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>51600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>55200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>54800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-905800</v>
+        <v>1838400</v>
       </c>
       <c r="E89" s="3">
-        <v>3212800</v>
+        <v>-876000</v>
       </c>
       <c r="F89" s="3">
-        <v>-926600</v>
+        <v>3106900</v>
       </c>
       <c r="G89" s="3">
-        <v>-164200</v>
+        <v>-896000</v>
       </c>
       <c r="H89" s="3">
-        <v>-458800</v>
+        <v>-158700</v>
       </c>
       <c r="I89" s="3">
-        <v>3621100</v>
+        <v>-443700</v>
       </c>
       <c r="J89" s="3">
+        <v>3501700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1296100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5231600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>908000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>643600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>877700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-506300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2456000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-340700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1561500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>108800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3807600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,64 +5044,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-30200</v>
+        <v>-51800</v>
       </c>
       <c r="E91" s="3">
-        <v>-29300</v>
+        <v>-29200</v>
       </c>
       <c r="F91" s="3">
-        <v>-22800</v>
+        <v>-28300</v>
       </c>
       <c r="G91" s="3">
-        <v>-204400</v>
+        <v>-22100</v>
       </c>
       <c r="H91" s="3">
-        <v>-97500</v>
+        <v>-197600</v>
       </c>
       <c r="I91" s="3">
+        <v>-94300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-57300</v>
       </c>
-      <c r="J91" s="3">
-        <v>-31700</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-43000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-18000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-25100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-57300</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-37900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-111600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-90400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-147100</v>
+        <v>-434200</v>
       </c>
       <c r="E94" s="3">
-        <v>-527200</v>
+        <v>-142200</v>
       </c>
       <c r="F94" s="3">
-        <v>-202000</v>
+        <v>-509800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1030100</v>
+        <v>-195400</v>
       </c>
       <c r="H94" s="3">
-        <v>-978100</v>
+        <v>-996100</v>
       </c>
       <c r="I94" s="3">
-        <v>-5709100</v>
+        <v>-945800</v>
       </c>
       <c r="J94" s="3">
+        <v>-5520900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-97900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5105000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2452600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1063800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-587600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1277600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-195600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>183200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>392500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2371700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>694800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,8 +5303,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5113,22 +5346,25 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-59200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-237000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-38100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-22800</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,172 +5537,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>654500</v>
+        <v>311300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2784400</v>
+        <v>632900</v>
       </c>
       <c r="F100" s="3">
-        <v>3962200</v>
+        <v>-2692600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1017800</v>
+        <v>3831600</v>
       </c>
       <c r="H100" s="3">
-        <v>3212300</v>
+        <v>-984300</v>
       </c>
       <c r="I100" s="3">
-        <v>3710900</v>
+        <v>3106400</v>
       </c>
       <c r="J100" s="3">
+        <v>3588600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-289800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>491400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1689200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>354700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1323700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-309500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2140800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-384900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1500100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1503800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1778900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-168900</v>
+        <v>-679900</v>
       </c>
       <c r="E101" s="3">
-        <v>-189000</v>
+        <v>-163300</v>
       </c>
       <c r="F101" s="3">
-        <v>225100</v>
+        <v>-182700</v>
       </c>
       <c r="G101" s="3">
-        <v>395500</v>
+        <v>217700</v>
       </c>
       <c r="H101" s="3">
-        <v>-364700</v>
+        <v>382400</v>
       </c>
       <c r="I101" s="3">
-        <v>52900</v>
+        <v>-352700</v>
       </c>
       <c r="J101" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K101" s="3">
         <v>90500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-76600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>218900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>50500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-377500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>14000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>8400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-108300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>138000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-105900</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-567300</v>
+        <v>1035500</v>
       </c>
       <c r="E102" s="3">
-        <v>-287800</v>
+        <v>-548600</v>
       </c>
       <c r="F102" s="3">
-        <v>3058800</v>
+        <v>-278300</v>
       </c>
       <c r="G102" s="3">
-        <v>-1816600</v>
+        <v>2957900</v>
       </c>
       <c r="H102" s="3">
-        <v>1410700</v>
+        <v>-1756700</v>
       </c>
       <c r="I102" s="3">
-        <v>1675800</v>
+        <v>1364200</v>
       </c>
       <c r="J102" s="3">
+        <v>1620600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1593300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>624400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>68000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>153400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-983000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>84300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-496900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-534100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>345600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-621200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2617600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>WF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,145 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2055200</v>
+        <v>2071200</v>
       </c>
       <c r="E8" s="3">
-        <v>1999700</v>
+        <v>2078500</v>
       </c>
       <c r="F8" s="3">
-        <v>2122700</v>
+        <v>2022500</v>
       </c>
       <c r="G8" s="3">
-        <v>2203400</v>
+        <v>2146800</v>
       </c>
       <c r="H8" s="3">
-        <v>2294700</v>
+        <v>2228400</v>
       </c>
       <c r="I8" s="3">
-        <v>2368500</v>
+        <v>2320700</v>
       </c>
       <c r="J8" s="3">
+        <v>2395400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2353100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2369400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2154000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2006200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1989700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1910800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1912500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1925300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1853100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1833700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1898800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,8 +861,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -996,8 +1009,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,8 +1071,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1114,67 +1133,73 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-118200</v>
+        <v>-121000</v>
       </c>
       <c r="E15" s="3">
-        <v>-113800</v>
+        <v>-119500</v>
       </c>
       <c r="F15" s="3">
-        <v>-109800</v>
+        <v>-115100</v>
       </c>
       <c r="G15" s="3">
-        <v>-119000</v>
+        <v>-111100</v>
       </c>
       <c r="H15" s="3">
-        <v>-119200</v>
+        <v>-120300</v>
       </c>
       <c r="I15" s="3">
-        <v>-116100</v>
+        <v>-120600</v>
       </c>
       <c r="J15" s="3">
+        <v>-117400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-104100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-88900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-50500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-47800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-44700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-40700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-39500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-40300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-40800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-44500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-54800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-53700</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>865600</v>
+        <v>752500</v>
       </c>
       <c r="E17" s="3">
-        <v>824100</v>
+        <v>875500</v>
       </c>
       <c r="F17" s="3">
-        <v>1104200</v>
+        <v>833400</v>
       </c>
       <c r="G17" s="3">
-        <v>1006100</v>
+        <v>1116800</v>
       </c>
       <c r="H17" s="3">
-        <v>1055500</v>
+        <v>1017500</v>
       </c>
       <c r="I17" s="3">
-        <v>1232700</v>
+        <v>1067500</v>
       </c>
       <c r="J17" s="3">
+        <v>1246700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1111900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1098300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1157200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>918800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>752200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>877900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1026000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>926800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>906500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>830000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>903100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>963600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1189500</v>
+        <v>1318600</v>
       </c>
       <c r="E18" s="3">
-        <v>1175700</v>
+        <v>1203000</v>
       </c>
       <c r="F18" s="3">
-        <v>1018500</v>
+        <v>1189000</v>
       </c>
       <c r="G18" s="3">
-        <v>1197300</v>
+        <v>1030100</v>
       </c>
       <c r="H18" s="3">
-        <v>1239200</v>
+        <v>1210900</v>
       </c>
       <c r="I18" s="3">
-        <v>1135800</v>
+        <v>1253200</v>
       </c>
       <c r="J18" s="3">
+        <v>1148700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1241200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1271100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>996800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1087400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1237400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1032900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>886500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>998500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>946600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1003700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>995700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>934400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,126 +1366,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-933100</v>
+        <v>-480500</v>
       </c>
       <c r="E20" s="3">
-        <v>-580800</v>
+        <v>-943700</v>
       </c>
       <c r="F20" s="3">
-        <v>-771000</v>
+        <v>-587400</v>
       </c>
       <c r="G20" s="3">
-        <v>-535000</v>
+        <v>-779800</v>
       </c>
       <c r="H20" s="3">
-        <v>-953400</v>
+        <v>-541100</v>
       </c>
       <c r="I20" s="3">
-        <v>-546000</v>
+        <v>-964300</v>
       </c>
       <c r="J20" s="3">
+        <v>-552200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-447200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-519600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-847700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-418500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-401200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-355800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-756300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-671500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-417500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-274500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-821100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-531000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>376900</v>
+        <v>961900</v>
       </c>
       <c r="E21" s="3">
-        <v>710900</v>
+        <v>381100</v>
       </c>
       <c r="F21" s="3">
-        <v>360300</v>
+        <v>719000</v>
       </c>
       <c r="G21" s="3">
-        <v>784300</v>
+        <v>364400</v>
       </c>
       <c r="H21" s="3">
-        <v>410300</v>
+        <v>793200</v>
       </c>
       <c r="I21" s="3">
-        <v>710800</v>
+        <v>415000</v>
       </c>
       <c r="J21" s="3">
+        <v>718900</v>
+      </c>
+      <c r="K21" s="3">
         <v>902900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>845100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>210800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>727400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>892200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>727700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>180100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>377800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>580800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>784400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>229400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>457200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1511,126 +1550,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>256500</v>
+        <v>838200</v>
       </c>
       <c r="E23" s="3">
-        <v>594900</v>
+        <v>259400</v>
       </c>
       <c r="F23" s="3">
-        <v>247500</v>
+        <v>601600</v>
       </c>
       <c r="G23" s="3">
-        <v>662300</v>
+        <v>250300</v>
       </c>
       <c r="H23" s="3">
-        <v>285700</v>
+        <v>669800</v>
       </c>
       <c r="I23" s="3">
-        <v>589800</v>
+        <v>289000</v>
       </c>
       <c r="J23" s="3">
+        <v>596500</v>
+      </c>
+      <c r="K23" s="3">
         <v>794000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>751500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>149100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>668900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>836200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>677100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>130200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>327000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>529200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>729200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>174600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>403400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>63300</v>
+        <v>198400</v>
       </c>
       <c r="E24" s="3">
-        <v>135800</v>
+        <v>64000</v>
       </c>
       <c r="F24" s="3">
-        <v>57200</v>
+        <v>137300</v>
       </c>
       <c r="G24" s="3">
-        <v>171500</v>
+        <v>57800</v>
       </c>
       <c r="H24" s="3">
-        <v>82000</v>
+        <v>173400</v>
       </c>
       <c r="I24" s="3">
-        <v>119800</v>
+        <v>82900</v>
       </c>
       <c r="J24" s="3">
+        <v>121200</v>
+      </c>
+      <c r="K24" s="3">
         <v>215500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>192300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>179200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>229900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>177700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>77600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>118800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>163600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>30300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>193200</v>
+        <v>639800</v>
       </c>
       <c r="E26" s="3">
-        <v>459100</v>
+        <v>195400</v>
       </c>
       <c r="F26" s="3">
-        <v>190300</v>
+        <v>464300</v>
       </c>
       <c r="G26" s="3">
-        <v>490800</v>
+        <v>192500</v>
       </c>
       <c r="H26" s="3">
-        <v>203700</v>
+        <v>496400</v>
       </c>
       <c r="I26" s="3">
-        <v>470000</v>
+        <v>206100</v>
       </c>
       <c r="J26" s="3">
+        <v>475400</v>
+      </c>
+      <c r="K26" s="3">
         <v>578500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>559200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>109900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>489700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>606300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>499400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>121100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>249400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>410300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>565600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>144300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>323500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>134000</v>
+        <v>579700</v>
       </c>
       <c r="E27" s="3">
-        <v>410000</v>
+        <v>135500</v>
       </c>
       <c r="F27" s="3">
-        <v>114800</v>
+        <v>414700</v>
       </c>
       <c r="G27" s="3">
-        <v>448500</v>
+        <v>116100</v>
       </c>
       <c r="H27" s="3">
-        <v>181000</v>
+        <v>453600</v>
       </c>
       <c r="I27" s="3">
-        <v>424500</v>
+        <v>183100</v>
       </c>
       <c r="J27" s="3">
+        <v>429400</v>
+      </c>
+      <c r="K27" s="3">
         <v>537700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>517500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>76800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>453900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>569900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>463600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>84900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>212100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>369000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>517600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>88500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,8 +1922,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1924,8 +1984,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>933100</v>
+        <v>480500</v>
       </c>
       <c r="E32" s="3">
-        <v>580800</v>
+        <v>943700</v>
       </c>
       <c r="F32" s="3">
-        <v>771000</v>
+        <v>587400</v>
       </c>
       <c r="G32" s="3">
-        <v>535000</v>
+        <v>779800</v>
       </c>
       <c r="H32" s="3">
-        <v>953400</v>
+        <v>541100</v>
       </c>
       <c r="I32" s="3">
-        <v>546000</v>
+        <v>964300</v>
       </c>
       <c r="J32" s="3">
+        <v>552200</v>
+      </c>
+      <c r="K32" s="3">
         <v>447200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>519600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>847700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>418500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>401200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>355800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>756300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>671500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>417500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>274500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>821100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>134000</v>
+        <v>579700</v>
       </c>
       <c r="E33" s="3">
-        <v>410000</v>
+        <v>135500</v>
       </c>
       <c r="F33" s="3">
-        <v>114800</v>
+        <v>414700</v>
       </c>
       <c r="G33" s="3">
-        <v>448500</v>
+        <v>116100</v>
       </c>
       <c r="H33" s="3">
-        <v>181000</v>
+        <v>453600</v>
       </c>
       <c r="I33" s="3">
-        <v>424500</v>
+        <v>183100</v>
       </c>
       <c r="J33" s="3">
+        <v>429400</v>
+      </c>
+      <c r="K33" s="3">
         <v>537700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>517500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>76800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>453900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>569900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>463600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>84900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>212100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>369000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>517600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>88500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>134000</v>
+        <v>579700</v>
       </c>
       <c r="E35" s="3">
-        <v>410000</v>
+        <v>135500</v>
       </c>
       <c r="F35" s="3">
-        <v>114800</v>
+        <v>414700</v>
       </c>
       <c r="G35" s="3">
-        <v>448500</v>
+        <v>116100</v>
       </c>
       <c r="H35" s="3">
-        <v>181000</v>
+        <v>453600</v>
       </c>
       <c r="I35" s="3">
-        <v>424500</v>
+        <v>183100</v>
       </c>
       <c r="J35" s="3">
+        <v>429400</v>
+      </c>
+      <c r="K35" s="3">
         <v>537700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>517500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>76800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>453900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>569900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>463600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>84900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>212100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>369000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>517600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>88500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,126 +2473,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8307400</v>
+        <v>9617900</v>
       </c>
       <c r="E41" s="3">
-        <v>7374100</v>
+        <v>8401800</v>
       </c>
       <c r="F41" s="3">
-        <v>7925400</v>
+        <v>7457900</v>
       </c>
       <c r="G41" s="3">
-        <v>8485800</v>
+        <v>8015500</v>
       </c>
       <c r="H41" s="3">
-        <v>5515900</v>
+        <v>8582200</v>
       </c>
       <c r="I41" s="3">
-        <v>7319400</v>
+        <v>5578600</v>
       </c>
       <c r="J41" s="3">
+        <v>7402600</v>
+      </c>
+      <c r="K41" s="3">
         <v>5777500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4361000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5329900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4608100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4589200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4387400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5323900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5337600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5780800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6495200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6385500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7024600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>46580900</v>
+        <v>38503200</v>
       </c>
       <c r="E42" s="3">
-        <v>38027200</v>
+        <v>47110300</v>
       </c>
       <c r="F42" s="3">
-        <v>41596100</v>
+        <v>38459400</v>
       </c>
       <c r="G42" s="3">
-        <v>41942600</v>
+        <v>42068800</v>
       </c>
       <c r="H42" s="3">
-        <v>39010700</v>
+        <v>42419200</v>
       </c>
       <c r="I42" s="3">
-        <v>40616800</v>
+        <v>39454000</v>
       </c>
       <c r="J42" s="3">
+        <v>41078400</v>
+      </c>
+      <c r="K42" s="3">
         <v>36892000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>30905300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>29776700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>20883600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>22286700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>21840100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>20932300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>12488600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14955900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>13350900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>14204100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>16154100</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2565,8 +2657,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2624,8 +2719,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2683,8 +2781,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2742,185 +2843,197 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>874100</v>
+        <v>933000</v>
       </c>
       <c r="E47" s="3">
-        <v>947600</v>
+        <v>884000</v>
       </c>
       <c r="F47" s="3">
-        <v>816800</v>
+        <v>958400</v>
       </c>
       <c r="G47" s="3">
-        <v>732500</v>
+        <v>826100</v>
       </c>
       <c r="H47" s="3">
-        <v>709600</v>
+        <v>740900</v>
       </c>
       <c r="I47" s="3">
-        <v>333500</v>
+        <v>717700</v>
       </c>
       <c r="J47" s="3">
+        <v>337300</v>
+      </c>
+      <c r="K47" s="3">
         <v>311500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>316200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>303600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>276700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>346900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>348200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>367000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>490900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>326300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>351100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>395100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3233700</v>
+        <v>3248000</v>
       </c>
       <c r="E48" s="3">
-        <v>3159200</v>
+        <v>3270400</v>
       </c>
       <c r="F48" s="3">
-        <v>3189000</v>
+        <v>3195100</v>
       </c>
       <c r="G48" s="3">
-        <v>3217700</v>
+        <v>3225200</v>
       </c>
       <c r="H48" s="3">
-        <v>3207600</v>
+        <v>3254200</v>
       </c>
       <c r="I48" s="3">
-        <v>3198900</v>
+        <v>3244000</v>
       </c>
       <c r="J48" s="3">
+        <v>3235200</v>
+      </c>
+      <c r="K48" s="3">
         <v>3058200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3080600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2368100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2284800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2378800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2384000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2507000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2509800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2480800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2470200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2534900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2525400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>697000</v>
+        <v>700700</v>
       </c>
       <c r="E49" s="3">
-        <v>703800</v>
+        <v>704900</v>
       </c>
       <c r="F49" s="3">
-        <v>721900</v>
+        <v>711800</v>
       </c>
       <c r="G49" s="3">
-        <v>725800</v>
+        <v>730100</v>
       </c>
       <c r="H49" s="3">
-        <v>742800</v>
+        <v>734000</v>
       </c>
       <c r="I49" s="3">
-        <v>611000</v>
+        <v>751300</v>
       </c>
       <c r="J49" s="3">
+        <v>617900</v>
+      </c>
+      <c r="K49" s="3">
         <v>565800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>588900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>493300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>502400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>549000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>452700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>456400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>461900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>446100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>415100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>435400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>376700</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>98300</v>
+        <v>88600</v>
       </c>
       <c r="E52" s="3">
-        <v>85100</v>
+        <v>99500</v>
       </c>
       <c r="F52" s="3">
-        <v>43200</v>
+        <v>86100</v>
       </c>
       <c r="G52" s="3">
-        <v>41500</v>
+        <v>43700</v>
       </c>
       <c r="H52" s="3">
-        <v>46400</v>
+        <v>42000</v>
       </c>
       <c r="I52" s="3">
-        <v>85200</v>
+        <v>46900</v>
       </c>
       <c r="J52" s="3">
+        <v>86200</v>
+      </c>
+      <c r="K52" s="3">
         <v>69500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>68200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>120400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>36800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>91100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>177600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>289300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>234800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>221100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>262700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>274800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>143800</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>351191300</v>
+        <v>370332900</v>
       </c>
       <c r="E54" s="3">
-        <v>335138200</v>
+        <v>355182100</v>
       </c>
       <c r="F54" s="3">
-        <v>334468100</v>
+        <v>338946600</v>
       </c>
       <c r="G54" s="3">
-        <v>332828500</v>
+        <v>338268900</v>
       </c>
       <c r="H54" s="3">
-        <v>318543000</v>
+        <v>336610600</v>
       </c>
       <c r="I54" s="3">
-        <v>326114100</v>
+        <v>322162800</v>
       </c>
       <c r="J54" s="3">
+        <v>329819900</v>
+      </c>
+      <c r="K54" s="3">
         <v>316273500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>314085600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>285975600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>267139300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>274311500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>273668600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>278340000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>279730100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>278137400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>273600800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>279614500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>281548700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,67 +3389,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4398300</v>
+        <v>9616500</v>
       </c>
       <c r="E57" s="3">
-        <v>8606700</v>
+        <v>4448300</v>
       </c>
       <c r="F57" s="3">
-        <v>9676600</v>
+        <v>8704500</v>
       </c>
       <c r="G57" s="3">
-        <v>10362900</v>
+        <v>9786500</v>
       </c>
       <c r="H57" s="3">
-        <v>7521100</v>
+        <v>10480700</v>
       </c>
       <c r="I57" s="3">
-        <v>13810500</v>
+        <v>7606600</v>
       </c>
       <c r="J57" s="3">
+        <v>13967400</v>
+      </c>
+      <c r="K57" s="3">
         <v>15138200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14778600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10988500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12068900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11638400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12317300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5801500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13814400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14756900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10823000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13329400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>15356600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3378,67 +3511,73 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2129700</v>
+        <v>1925300</v>
       </c>
       <c r="E59" s="3">
-        <v>1739100</v>
+        <v>2153900</v>
       </c>
       <c r="F59" s="3">
-        <v>1766100</v>
+        <v>1758900</v>
       </c>
       <c r="G59" s="3">
-        <v>2055500</v>
+        <v>1786200</v>
       </c>
       <c r="H59" s="3">
-        <v>2375100</v>
+        <v>2078800</v>
       </c>
       <c r="I59" s="3">
-        <v>2277400</v>
+        <v>2402000</v>
       </c>
       <c r="J59" s="3">
+        <v>2303300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2064700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2149400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1989900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1798500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1649500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1642100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2008600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2057400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1681400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1880000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2004400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1813400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3496,126 +3635,135 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>50643200</v>
+        <v>52113000</v>
       </c>
       <c r="E61" s="3">
-        <v>43692100</v>
+        <v>51218700</v>
       </c>
       <c r="F61" s="3">
-        <v>44816900</v>
+        <v>44188600</v>
       </c>
       <c r="G61" s="3">
-        <v>46803900</v>
+        <v>45326200</v>
       </c>
       <c r="H61" s="3">
-        <v>43616400</v>
+        <v>47335700</v>
       </c>
       <c r="I61" s="3">
-        <v>45744500</v>
+        <v>44112100</v>
       </c>
       <c r="J61" s="3">
+        <v>46264300</v>
+      </c>
+      <c r="K61" s="3">
         <v>43142100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>40307800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36868700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>34955700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>35115500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>34009900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>36941800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>37408900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>35000000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>33280700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>34538700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>33926000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>628400</v>
+        <v>652200</v>
       </c>
       <c r="E62" s="3">
-        <v>823600</v>
+        <v>635600</v>
       </c>
       <c r="F62" s="3">
-        <v>790200</v>
+        <v>833000</v>
       </c>
       <c r="G62" s="3">
-        <v>738800</v>
+        <v>799200</v>
       </c>
       <c r="H62" s="3">
-        <v>590300</v>
+        <v>747200</v>
       </c>
       <c r="I62" s="3">
-        <v>739800</v>
+        <v>597000</v>
       </c>
       <c r="J62" s="3">
+        <v>748300</v>
+      </c>
+      <c r="K62" s="3">
         <v>648100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>618700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>520300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>418500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>420800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>527700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>419200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>395900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>382900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>400700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>463600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>459900</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>330904100</v>
+        <v>349406400</v>
       </c>
       <c r="E66" s="3">
-        <v>315115500</v>
+        <v>334664400</v>
       </c>
       <c r="F66" s="3">
-        <v>314843000</v>
+        <v>318696300</v>
       </c>
       <c r="G66" s="3">
-        <v>313623200</v>
+        <v>318420800</v>
       </c>
       <c r="H66" s="3">
-        <v>299613900</v>
+        <v>317187100</v>
       </c>
       <c r="I66" s="3">
-        <v>307770800</v>
+        <v>303018600</v>
       </c>
       <c r="J66" s="3">
+        <v>311268200</v>
+      </c>
+      <c r="K66" s="3">
         <v>299163500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>296968200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>267714100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>249559900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>256847800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>256582900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>260418000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>261733600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>260311800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>255640700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>261266900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>263136400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16956100</v>
+        <v>17468400</v>
       </c>
       <c r="E72" s="3">
-        <v>16822100</v>
+        <v>17148800</v>
       </c>
       <c r="F72" s="3">
-        <v>16413900</v>
+        <v>17013300</v>
       </c>
       <c r="G72" s="3">
-        <v>16299400</v>
+        <v>16600500</v>
       </c>
       <c r="H72" s="3">
-        <v>16301600</v>
+        <v>16484600</v>
       </c>
       <c r="I72" s="3">
-        <v>16123400</v>
+        <v>16486800</v>
       </c>
       <c r="J72" s="3">
+        <v>16306600</v>
+      </c>
+      <c r="K72" s="3">
         <v>15698600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15678000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14384700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13795900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13837700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13273900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13745600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13660700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13507800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13138800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13150400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13062800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20287200</v>
+        <v>20926500</v>
       </c>
       <c r="E76" s="3">
-        <v>20022800</v>
+        <v>20517700</v>
       </c>
       <c r="F76" s="3">
-        <v>19625000</v>
+        <v>20250300</v>
       </c>
       <c r="G76" s="3">
-        <v>19205200</v>
+        <v>19848100</v>
       </c>
       <c r="H76" s="3">
-        <v>18929100</v>
+        <v>19423500</v>
       </c>
       <c r="I76" s="3">
-        <v>18343300</v>
+        <v>19144200</v>
       </c>
       <c r="J76" s="3">
+        <v>18551800</v>
+      </c>
+      <c r="K76" s="3">
         <v>17110000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17117400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18261500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17579400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17463800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17085700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17922000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17996500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17825600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17960100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18347500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18412300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>134000</v>
+        <v>579700</v>
       </c>
       <c r="E81" s="3">
-        <v>410000</v>
+        <v>135500</v>
       </c>
       <c r="F81" s="3">
-        <v>114800</v>
+        <v>414700</v>
       </c>
       <c r="G81" s="3">
-        <v>448500</v>
+        <v>116100</v>
       </c>
       <c r="H81" s="3">
-        <v>181000</v>
+        <v>453600</v>
       </c>
       <c r="I81" s="3">
-        <v>424500</v>
+        <v>183100</v>
       </c>
       <c r="J81" s="3">
+        <v>429400</v>
+      </c>
+      <c r="K81" s="3">
         <v>537700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>517500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>76800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>453900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>569900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>463600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>84900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>212100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>369000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>517600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>88500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>120400</v>
+        <v>123700</v>
       </c>
       <c r="E83" s="3">
-        <v>116100</v>
+        <v>121800</v>
       </c>
       <c r="F83" s="3">
-        <v>112800</v>
+        <v>117400</v>
       </c>
       <c r="G83" s="3">
-        <v>122000</v>
+        <v>114100</v>
       </c>
       <c r="H83" s="3">
-        <v>124600</v>
+        <v>123400</v>
       </c>
       <c r="I83" s="3">
-        <v>121000</v>
+        <v>126000</v>
       </c>
       <c r="J83" s="3">
+        <v>122400</v>
+      </c>
+      <c r="K83" s="3">
         <v>108900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>93600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>61600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>58600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>56000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>50600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>49900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>50800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>51600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>55200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>54800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1838400</v>
+        <v>1000300</v>
       </c>
       <c r="E89" s="3">
-        <v>-876000</v>
+        <v>1859300</v>
       </c>
       <c r="F89" s="3">
-        <v>3106900</v>
+        <v>-885900</v>
       </c>
       <c r="G89" s="3">
-        <v>-896000</v>
+        <v>3142200</v>
       </c>
       <c r="H89" s="3">
-        <v>-158700</v>
+        <v>-906200</v>
       </c>
       <c r="I89" s="3">
-        <v>-443700</v>
+        <v>-160500</v>
       </c>
       <c r="J89" s="3">
+        <v>-448800</v>
+      </c>
+      <c r="K89" s="3">
         <v>3501700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1296100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5231600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>908000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>643600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>877700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-506300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2456000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-340700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1561500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>108800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3807600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5264,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-51800</v>
+        <v>-17200</v>
       </c>
       <c r="E91" s="3">
-        <v>-29200</v>
+        <v>-52400</v>
       </c>
       <c r="F91" s="3">
-        <v>-28300</v>
+        <v>-29500</v>
       </c>
       <c r="G91" s="3">
-        <v>-22100</v>
+        <v>-28600</v>
       </c>
       <c r="H91" s="3">
-        <v>-197600</v>
+        <v>-22300</v>
       </c>
       <c r="I91" s="3">
-        <v>-94300</v>
+        <v>-199900</v>
       </c>
       <c r="J91" s="3">
+        <v>-95300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-55400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-43000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-57300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-37900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-111600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-90400</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-434200</v>
+        <v>-870000</v>
       </c>
       <c r="E94" s="3">
-        <v>-142200</v>
+        <v>-439200</v>
       </c>
       <c r="F94" s="3">
-        <v>-509800</v>
+        <v>-143800</v>
       </c>
       <c r="G94" s="3">
-        <v>-195400</v>
+        <v>-515600</v>
       </c>
       <c r="H94" s="3">
-        <v>-996100</v>
+        <v>-197600</v>
       </c>
       <c r="I94" s="3">
-        <v>-945800</v>
+        <v>-1007400</v>
       </c>
       <c r="J94" s="3">
+        <v>-956600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5520900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-97900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5105000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2452600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1063800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-587600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1277600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-195600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>183200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>392500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2371700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>694800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,8 +5536,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5349,22 +5582,25 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-59200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-237000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-38100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-22800</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,181 +5782,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>311300</v>
+        <v>545000</v>
       </c>
       <c r="E100" s="3">
-        <v>632900</v>
+        <v>314800</v>
       </c>
       <c r="F100" s="3">
-        <v>-2692600</v>
+        <v>640100</v>
       </c>
       <c r="G100" s="3">
-        <v>3831600</v>
+        <v>-2723200</v>
       </c>
       <c r="H100" s="3">
-        <v>-984300</v>
+        <v>3875100</v>
       </c>
       <c r="I100" s="3">
-        <v>3106400</v>
+        <v>-995500</v>
       </c>
       <c r="J100" s="3">
+        <v>3141700</v>
+      </c>
+      <c r="K100" s="3">
         <v>3588600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-289800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>491400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1689200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>354700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1323700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-309500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2140800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-384900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1500100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1503800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1778900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-679900</v>
+        <v>355400</v>
       </c>
       <c r="E101" s="3">
-        <v>-163300</v>
+        <v>-687600</v>
       </c>
       <c r="F101" s="3">
-        <v>-182700</v>
+        <v>-165100</v>
       </c>
       <c r="G101" s="3">
-        <v>217700</v>
+        <v>-184800</v>
       </c>
       <c r="H101" s="3">
-        <v>382400</v>
+        <v>220200</v>
       </c>
       <c r="I101" s="3">
-        <v>-352700</v>
+        <v>386800</v>
       </c>
       <c r="J101" s="3">
+        <v>-356700</v>
+      </c>
+      <c r="K101" s="3">
         <v>51200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>90500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-76600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>218900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>50500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-377500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>14000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>8400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-108300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>138000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-105900</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1035500</v>
+        <v>1030700</v>
       </c>
       <c r="E102" s="3">
-        <v>-548600</v>
+        <v>1047300</v>
       </c>
       <c r="F102" s="3">
-        <v>-278300</v>
+        <v>-554800</v>
       </c>
       <c r="G102" s="3">
-        <v>2957900</v>
+        <v>-281400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1756700</v>
+        <v>2991500</v>
       </c>
       <c r="I102" s="3">
-        <v>1364200</v>
+        <v>-1776700</v>
       </c>
       <c r="J102" s="3">
+        <v>1379700</v>
+      </c>
+      <c r="K102" s="3">
         <v>1620600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1593300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>624400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>68000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>153400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-983000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>84300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-496900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-534100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>345600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-621200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2617600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
@@ -746,25 +746,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2071200</v>
+        <v>1978100</v>
       </c>
       <c r="E8" s="3">
-        <v>2078500</v>
+        <v>1985100</v>
       </c>
       <c r="F8" s="3">
-        <v>2022500</v>
+        <v>1931600</v>
       </c>
       <c r="G8" s="3">
-        <v>2146800</v>
+        <v>2050400</v>
       </c>
       <c r="H8" s="3">
-        <v>2228400</v>
+        <v>2128200</v>
       </c>
       <c r="I8" s="3">
-        <v>2320700</v>
+        <v>2216400</v>
       </c>
       <c r="J8" s="3">
-        <v>2395400</v>
+        <v>2287800</v>
       </c>
       <c r="K8" s="3">
         <v>2353100</v>
@@ -1142,25 +1142,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-121000</v>
+        <v>-115600</v>
       </c>
       <c r="E15" s="3">
-        <v>-119500</v>
+        <v>-114200</v>
       </c>
       <c r="F15" s="3">
-        <v>-115100</v>
+        <v>-109900</v>
       </c>
       <c r="G15" s="3">
-        <v>-111100</v>
+        <v>-106100</v>
       </c>
       <c r="H15" s="3">
-        <v>-120300</v>
+        <v>-114900</v>
       </c>
       <c r="I15" s="3">
-        <v>-120600</v>
+        <v>-115200</v>
       </c>
       <c r="J15" s="3">
-        <v>-117400</v>
+        <v>-112100</v>
       </c>
       <c r="K15" s="3">
         <v>-104100</v>
@@ -1225,25 +1225,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>752500</v>
+        <v>718700</v>
       </c>
       <c r="E17" s="3">
-        <v>875500</v>
+        <v>836100</v>
       </c>
       <c r="F17" s="3">
-        <v>833400</v>
+        <v>796000</v>
       </c>
       <c r="G17" s="3">
-        <v>1116800</v>
+        <v>1066600</v>
       </c>
       <c r="H17" s="3">
-        <v>1017500</v>
+        <v>971800</v>
       </c>
       <c r="I17" s="3">
-        <v>1067500</v>
+        <v>1019500</v>
       </c>
       <c r="J17" s="3">
-        <v>1246700</v>
+        <v>1190700</v>
       </c>
       <c r="K17" s="3">
         <v>1111900</v>
@@ -1287,25 +1287,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1318600</v>
+        <v>1259400</v>
       </c>
       <c r="E18" s="3">
-        <v>1203000</v>
+        <v>1149000</v>
       </c>
       <c r="F18" s="3">
-        <v>1189000</v>
+        <v>1135600</v>
       </c>
       <c r="G18" s="3">
-        <v>1030100</v>
+        <v>983800</v>
       </c>
       <c r="H18" s="3">
-        <v>1210900</v>
+        <v>1156500</v>
       </c>
       <c r="I18" s="3">
-        <v>1253200</v>
+        <v>1196900</v>
       </c>
       <c r="J18" s="3">
-        <v>1148700</v>
+        <v>1097100</v>
       </c>
       <c r="K18" s="3">
         <v>1241200</v>
@@ -1373,25 +1373,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-480500</v>
+        <v>-458900</v>
       </c>
       <c r="E20" s="3">
-        <v>-943700</v>
+        <v>-901300</v>
       </c>
       <c r="F20" s="3">
-        <v>-587400</v>
+        <v>-561000</v>
       </c>
       <c r="G20" s="3">
-        <v>-779800</v>
+        <v>-744700</v>
       </c>
       <c r="H20" s="3">
-        <v>-541100</v>
+        <v>-516800</v>
       </c>
       <c r="I20" s="3">
-        <v>-964300</v>
+        <v>-920900</v>
       </c>
       <c r="J20" s="3">
-        <v>-552200</v>
+        <v>-527400</v>
       </c>
       <c r="K20" s="3">
         <v>-447200</v>
@@ -1435,25 +1435,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>961900</v>
+        <v>918600</v>
       </c>
       <c r="E21" s="3">
-        <v>381100</v>
+        <v>364000</v>
       </c>
       <c r="F21" s="3">
-        <v>719000</v>
+        <v>686700</v>
       </c>
       <c r="G21" s="3">
-        <v>364400</v>
+        <v>348000</v>
       </c>
       <c r="H21" s="3">
-        <v>793200</v>
+        <v>757500</v>
       </c>
       <c r="I21" s="3">
-        <v>415000</v>
+        <v>396300</v>
       </c>
       <c r="J21" s="3">
-        <v>718900</v>
+        <v>686600</v>
       </c>
       <c r="K21" s="3">
         <v>902900</v>
@@ -1559,25 +1559,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>838200</v>
+        <v>800500</v>
       </c>
       <c r="E23" s="3">
-        <v>259400</v>
+        <v>247700</v>
       </c>
       <c r="F23" s="3">
-        <v>601600</v>
+        <v>574600</v>
       </c>
       <c r="G23" s="3">
-        <v>250300</v>
+        <v>239100</v>
       </c>
       <c r="H23" s="3">
-        <v>669800</v>
+        <v>639700</v>
       </c>
       <c r="I23" s="3">
-        <v>289000</v>
+        <v>276000</v>
       </c>
       <c r="J23" s="3">
-        <v>596500</v>
+        <v>569700</v>
       </c>
       <c r="K23" s="3">
         <v>794000</v>
@@ -1621,25 +1621,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>198400</v>
+        <v>189500</v>
       </c>
       <c r="E24" s="3">
-        <v>64000</v>
+        <v>61100</v>
       </c>
       <c r="F24" s="3">
-        <v>137300</v>
+        <v>131100</v>
       </c>
       <c r="G24" s="3">
-        <v>57800</v>
+        <v>55200</v>
       </c>
       <c r="H24" s="3">
-        <v>173400</v>
+        <v>165600</v>
       </c>
       <c r="I24" s="3">
-        <v>82900</v>
+        <v>79200</v>
       </c>
       <c r="J24" s="3">
-        <v>121200</v>
+        <v>115700</v>
       </c>
       <c r="K24" s="3">
         <v>215500</v>
@@ -1745,25 +1745,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>639800</v>
+        <v>611000</v>
       </c>
       <c r="E26" s="3">
-        <v>195400</v>
+        <v>186600</v>
       </c>
       <c r="F26" s="3">
-        <v>464300</v>
+        <v>443500</v>
       </c>
       <c r="G26" s="3">
-        <v>192500</v>
+        <v>183800</v>
       </c>
       <c r="H26" s="3">
-        <v>496400</v>
+        <v>474100</v>
       </c>
       <c r="I26" s="3">
-        <v>206100</v>
+        <v>196800</v>
       </c>
       <c r="J26" s="3">
-        <v>475400</v>
+        <v>454000</v>
       </c>
       <c r="K26" s="3">
         <v>578500</v>
@@ -1807,25 +1807,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>579700</v>
+        <v>553600</v>
       </c>
       <c r="E27" s="3">
-        <v>135500</v>
+        <v>129400</v>
       </c>
       <c r="F27" s="3">
-        <v>414700</v>
+        <v>396000</v>
       </c>
       <c r="G27" s="3">
-        <v>116100</v>
+        <v>110900</v>
       </c>
       <c r="H27" s="3">
-        <v>453600</v>
+        <v>433200</v>
       </c>
       <c r="I27" s="3">
-        <v>183100</v>
+        <v>174900</v>
       </c>
       <c r="J27" s="3">
-        <v>429400</v>
+        <v>410100</v>
       </c>
       <c r="K27" s="3">
         <v>537700</v>
@@ -2117,25 +2117,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>480500</v>
+        <v>458900</v>
       </c>
       <c r="E32" s="3">
-        <v>943700</v>
+        <v>901300</v>
       </c>
       <c r="F32" s="3">
-        <v>587400</v>
+        <v>561000</v>
       </c>
       <c r="G32" s="3">
-        <v>779800</v>
+        <v>744700</v>
       </c>
       <c r="H32" s="3">
-        <v>541100</v>
+        <v>516800</v>
       </c>
       <c r="I32" s="3">
-        <v>964300</v>
+        <v>920900</v>
       </c>
       <c r="J32" s="3">
-        <v>552200</v>
+        <v>527400</v>
       </c>
       <c r="K32" s="3">
         <v>447200</v>
@@ -2179,25 +2179,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>579700</v>
+        <v>553600</v>
       </c>
       <c r="E33" s="3">
-        <v>135500</v>
+        <v>129400</v>
       </c>
       <c r="F33" s="3">
-        <v>414700</v>
+        <v>396000</v>
       </c>
       <c r="G33" s="3">
-        <v>116100</v>
+        <v>110900</v>
       </c>
       <c r="H33" s="3">
-        <v>453600</v>
+        <v>433200</v>
       </c>
       <c r="I33" s="3">
-        <v>183100</v>
+        <v>174900</v>
       </c>
       <c r="J33" s="3">
-        <v>429400</v>
+        <v>410100</v>
       </c>
       <c r="K33" s="3">
         <v>537700</v>
@@ -2303,25 +2303,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>579700</v>
+        <v>553600</v>
       </c>
       <c r="E35" s="3">
-        <v>135500</v>
+        <v>129400</v>
       </c>
       <c r="F35" s="3">
-        <v>414700</v>
+        <v>396000</v>
       </c>
       <c r="G35" s="3">
-        <v>116100</v>
+        <v>110900</v>
       </c>
       <c r="H35" s="3">
-        <v>453600</v>
+        <v>433200</v>
       </c>
       <c r="I35" s="3">
-        <v>183100</v>
+        <v>174900</v>
       </c>
       <c r="J35" s="3">
-        <v>429400</v>
+        <v>410100</v>
       </c>
       <c r="K35" s="3">
         <v>537700</v>
@@ -2480,25 +2480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9617900</v>
+        <v>9185700</v>
       </c>
       <c r="E41" s="3">
-        <v>8401800</v>
+        <v>8024200</v>
       </c>
       <c r="F41" s="3">
-        <v>7457900</v>
+        <v>7122700</v>
       </c>
       <c r="G41" s="3">
-        <v>8015500</v>
+        <v>7655200</v>
       </c>
       <c r="H41" s="3">
-        <v>8582200</v>
+        <v>8196500</v>
       </c>
       <c r="I41" s="3">
-        <v>5578600</v>
+        <v>5327800</v>
       </c>
       <c r="J41" s="3">
-        <v>7402600</v>
+        <v>7069900</v>
       </c>
       <c r="K41" s="3">
         <v>5777500</v>
@@ -2542,25 +2542,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38503200</v>
+        <v>36772800</v>
       </c>
       <c r="E42" s="3">
-        <v>47110300</v>
+        <v>44993000</v>
       </c>
       <c r="F42" s="3">
-        <v>38459400</v>
+        <v>36730900</v>
       </c>
       <c r="G42" s="3">
-        <v>42068800</v>
+        <v>40178100</v>
       </c>
       <c r="H42" s="3">
-        <v>42419200</v>
+        <v>40512700</v>
       </c>
       <c r="I42" s="3">
-        <v>39454000</v>
+        <v>37680800</v>
       </c>
       <c r="J42" s="3">
-        <v>41078400</v>
+        <v>39232200</v>
       </c>
       <c r="K42" s="3">
         <v>36892000</v>
@@ -2852,25 +2852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>933000</v>
+        <v>891100</v>
       </c>
       <c r="E47" s="3">
-        <v>884000</v>
+        <v>844300</v>
       </c>
       <c r="F47" s="3">
-        <v>958400</v>
+        <v>915300</v>
       </c>
       <c r="G47" s="3">
-        <v>826100</v>
+        <v>788900</v>
       </c>
       <c r="H47" s="3">
-        <v>740900</v>
+        <v>707600</v>
       </c>
       <c r="I47" s="3">
-        <v>717700</v>
+        <v>685400</v>
       </c>
       <c r="J47" s="3">
-        <v>337300</v>
+        <v>322100</v>
       </c>
       <c r="K47" s="3">
         <v>311500</v>
@@ -2914,25 +2914,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3248000</v>
+        <v>3102000</v>
       </c>
       <c r="E48" s="3">
-        <v>3270400</v>
+        <v>3123500</v>
       </c>
       <c r="F48" s="3">
-        <v>3195100</v>
+        <v>3051500</v>
       </c>
       <c r="G48" s="3">
-        <v>3225200</v>
+        <v>3080200</v>
       </c>
       <c r="H48" s="3">
-        <v>3254200</v>
+        <v>3108000</v>
       </c>
       <c r="I48" s="3">
-        <v>3244000</v>
+        <v>3098200</v>
       </c>
       <c r="J48" s="3">
-        <v>3235200</v>
+        <v>3089800</v>
       </c>
       <c r="K48" s="3">
         <v>3058200</v>
@@ -2976,25 +2976,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>700700</v>
+        <v>669200</v>
       </c>
       <c r="E49" s="3">
-        <v>704900</v>
+        <v>673300</v>
       </c>
       <c r="F49" s="3">
-        <v>711800</v>
+        <v>679800</v>
       </c>
       <c r="G49" s="3">
-        <v>730100</v>
+        <v>697300</v>
       </c>
       <c r="H49" s="3">
-        <v>734000</v>
+        <v>701000</v>
       </c>
       <c r="I49" s="3">
-        <v>751300</v>
+        <v>717500</v>
       </c>
       <c r="J49" s="3">
-        <v>617900</v>
+        <v>590200</v>
       </c>
       <c r="K49" s="3">
         <v>565800</v>
@@ -3162,25 +3162,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>88600</v>
+        <v>84600</v>
       </c>
       <c r="E52" s="3">
-        <v>99500</v>
+        <v>95000</v>
       </c>
       <c r="F52" s="3">
-        <v>86100</v>
+        <v>82200</v>
       </c>
       <c r="G52" s="3">
-        <v>43700</v>
+        <v>41700</v>
       </c>
       <c r="H52" s="3">
-        <v>42000</v>
+        <v>40100</v>
       </c>
       <c r="I52" s="3">
-        <v>46900</v>
+        <v>44800</v>
       </c>
       <c r="J52" s="3">
-        <v>86200</v>
+        <v>82300</v>
       </c>
       <c r="K52" s="3">
         <v>69500</v>
@@ -3286,25 +3286,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>370332900</v>
+        <v>353688700</v>
       </c>
       <c r="E54" s="3">
-        <v>355182100</v>
+        <v>339218900</v>
       </c>
       <c r="F54" s="3">
-        <v>338946600</v>
+        <v>323713100</v>
       </c>
       <c r="G54" s="3">
-        <v>338268900</v>
+        <v>323065800</v>
       </c>
       <c r="H54" s="3">
-        <v>336610600</v>
+        <v>321482000</v>
       </c>
       <c r="I54" s="3">
-        <v>322162800</v>
+        <v>307683600</v>
       </c>
       <c r="J54" s="3">
-        <v>329819900</v>
+        <v>314996600</v>
       </c>
       <c r="K54" s="3">
         <v>316273500</v>
@@ -3396,25 +3396,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9616500</v>
+        <v>9184300</v>
       </c>
       <c r="E57" s="3">
-        <v>4448300</v>
+        <v>4248400</v>
       </c>
       <c r="F57" s="3">
-        <v>8704500</v>
+        <v>8313200</v>
       </c>
       <c r="G57" s="3">
-        <v>9786500</v>
+        <v>9346700</v>
       </c>
       <c r="H57" s="3">
-        <v>10480700</v>
+        <v>10009600</v>
       </c>
       <c r="I57" s="3">
-        <v>7606600</v>
+        <v>7264700</v>
       </c>
       <c r="J57" s="3">
-        <v>13967400</v>
+        <v>13339700</v>
       </c>
       <c r="K57" s="3">
         <v>15138200</v>
@@ -3520,25 +3520,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1925300</v>
+        <v>1838800</v>
       </c>
       <c r="E59" s="3">
-        <v>2153900</v>
+        <v>2057100</v>
       </c>
       <c r="F59" s="3">
-        <v>1758900</v>
+        <v>1679800</v>
       </c>
       <c r="G59" s="3">
-        <v>1786200</v>
+        <v>1705900</v>
       </c>
       <c r="H59" s="3">
-        <v>2078800</v>
+        <v>1985400</v>
       </c>
       <c r="I59" s="3">
-        <v>2402000</v>
+        <v>2294100</v>
       </c>
       <c r="J59" s="3">
-        <v>2303300</v>
+        <v>2199800</v>
       </c>
       <c r="K59" s="3">
         <v>2064700</v>
@@ -3644,25 +3644,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>52113000</v>
+        <v>49770900</v>
       </c>
       <c r="E61" s="3">
-        <v>51218700</v>
+        <v>48916800</v>
       </c>
       <c r="F61" s="3">
-        <v>44188600</v>
+        <v>42202600</v>
       </c>
       <c r="G61" s="3">
-        <v>45326200</v>
+        <v>43289100</v>
       </c>
       <c r="H61" s="3">
-        <v>47335700</v>
+        <v>45208300</v>
       </c>
       <c r="I61" s="3">
-        <v>44112100</v>
+        <v>42129500</v>
       </c>
       <c r="J61" s="3">
-        <v>46264300</v>
+        <v>44185000</v>
       </c>
       <c r="K61" s="3">
         <v>43142100</v>
@@ -3706,25 +3706,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>652200</v>
+        <v>622900</v>
       </c>
       <c r="E62" s="3">
-        <v>635600</v>
+        <v>607000</v>
       </c>
       <c r="F62" s="3">
-        <v>833000</v>
+        <v>795600</v>
       </c>
       <c r="G62" s="3">
-        <v>799200</v>
+        <v>763300</v>
       </c>
       <c r="H62" s="3">
-        <v>747200</v>
+        <v>713600</v>
       </c>
       <c r="I62" s="3">
-        <v>597000</v>
+        <v>570200</v>
       </c>
       <c r="J62" s="3">
-        <v>748300</v>
+        <v>714600</v>
       </c>
       <c r="K62" s="3">
         <v>648100</v>
@@ -3954,25 +3954,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>349406400</v>
+        <v>333702800</v>
       </c>
       <c r="E66" s="3">
-        <v>334664400</v>
+        <v>319623300</v>
       </c>
       <c r="F66" s="3">
-        <v>318696300</v>
+        <v>304372900</v>
       </c>
       <c r="G66" s="3">
-        <v>318420800</v>
+        <v>304109800</v>
       </c>
       <c r="H66" s="3">
-        <v>317187100</v>
+        <v>302931500</v>
       </c>
       <c r="I66" s="3">
-        <v>303018600</v>
+        <v>289399800</v>
       </c>
       <c r="J66" s="3">
-        <v>311268200</v>
+        <v>297278600</v>
       </c>
       <c r="K66" s="3">
         <v>299163500</v>
@@ -4288,25 +4288,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17468400</v>
+        <v>16683300</v>
       </c>
       <c r="E72" s="3">
-        <v>17148800</v>
+        <v>16378000</v>
       </c>
       <c r="F72" s="3">
-        <v>17013300</v>
+        <v>16248600</v>
       </c>
       <c r="G72" s="3">
-        <v>16600500</v>
+        <v>15854400</v>
       </c>
       <c r="H72" s="3">
-        <v>16484600</v>
+        <v>15743700</v>
       </c>
       <c r="I72" s="3">
-        <v>16486800</v>
+        <v>15745800</v>
       </c>
       <c r="J72" s="3">
-        <v>16306600</v>
+        <v>15573800</v>
       </c>
       <c r="K72" s="3">
         <v>15698600</v>
@@ -4536,25 +4536,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20926500</v>
+        <v>19986000</v>
       </c>
       <c r="E76" s="3">
-        <v>20517700</v>
+        <v>19595600</v>
       </c>
       <c r="F76" s="3">
-        <v>20250300</v>
+        <v>19340200</v>
       </c>
       <c r="G76" s="3">
-        <v>19848100</v>
+        <v>18956000</v>
       </c>
       <c r="H76" s="3">
-        <v>19423500</v>
+        <v>18550500</v>
       </c>
       <c r="I76" s="3">
-        <v>19144200</v>
+        <v>18283800</v>
       </c>
       <c r="J76" s="3">
-        <v>18551800</v>
+        <v>17718000</v>
       </c>
       <c r="K76" s="3">
         <v>17110000</v>
@@ -4727,25 +4727,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>579700</v>
+        <v>553600</v>
       </c>
       <c r="E81" s="3">
-        <v>135500</v>
+        <v>129400</v>
       </c>
       <c r="F81" s="3">
-        <v>414700</v>
+        <v>396000</v>
       </c>
       <c r="G81" s="3">
-        <v>116100</v>
+        <v>110900</v>
       </c>
       <c r="H81" s="3">
-        <v>453600</v>
+        <v>433200</v>
       </c>
       <c r="I81" s="3">
-        <v>183100</v>
+        <v>174900</v>
       </c>
       <c r="J81" s="3">
-        <v>429400</v>
+        <v>410100</v>
       </c>
       <c r="K81" s="3">
         <v>537700</v>
@@ -4813,25 +4813,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>123700</v>
+        <v>118100</v>
       </c>
       <c r="E83" s="3">
-        <v>121800</v>
+        <v>116300</v>
       </c>
       <c r="F83" s="3">
-        <v>117400</v>
+        <v>112100</v>
       </c>
       <c r="G83" s="3">
-        <v>114100</v>
+        <v>109000</v>
       </c>
       <c r="H83" s="3">
-        <v>123400</v>
+        <v>117800</v>
       </c>
       <c r="I83" s="3">
-        <v>126000</v>
+        <v>120400</v>
       </c>
       <c r="J83" s="3">
-        <v>122400</v>
+        <v>116900</v>
       </c>
       <c r="K83" s="3">
         <v>108900</v>
@@ -5185,25 +5185,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1000300</v>
+        <v>955400</v>
       </c>
       <c r="E89" s="3">
-        <v>1859300</v>
+        <v>1775700</v>
       </c>
       <c r="F89" s="3">
-        <v>-885900</v>
+        <v>-846100</v>
       </c>
       <c r="G89" s="3">
-        <v>3142200</v>
+        <v>3001000</v>
       </c>
       <c r="H89" s="3">
-        <v>-906200</v>
+        <v>-865500</v>
       </c>
       <c r="I89" s="3">
-        <v>-160500</v>
+        <v>-153300</v>
       </c>
       <c r="J89" s="3">
-        <v>-448800</v>
+        <v>-428600</v>
       </c>
       <c r="K89" s="3">
         <v>3501700</v>
@@ -5271,25 +5271,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17200</v>
+        <v>-16400</v>
       </c>
       <c r="E91" s="3">
-        <v>-52400</v>
+        <v>-50100</v>
       </c>
       <c r="F91" s="3">
-        <v>-29500</v>
+        <v>-28200</v>
       </c>
       <c r="G91" s="3">
-        <v>-28600</v>
+        <v>-27300</v>
       </c>
       <c r="H91" s="3">
-        <v>-22300</v>
+        <v>-21300</v>
       </c>
       <c r="I91" s="3">
-        <v>-199900</v>
+        <v>-190900</v>
       </c>
       <c r="J91" s="3">
-        <v>-95300</v>
+        <v>-91000</v>
       </c>
       <c r="K91" s="3">
         <v>-55400</v>
@@ -5457,25 +5457,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-870000</v>
+        <v>-830900</v>
       </c>
       <c r="E94" s="3">
-        <v>-439200</v>
+        <v>-419400</v>
       </c>
       <c r="F94" s="3">
-        <v>-143800</v>
+        <v>-137400</v>
       </c>
       <c r="G94" s="3">
-        <v>-515600</v>
+        <v>-492400</v>
       </c>
       <c r="H94" s="3">
-        <v>-197600</v>
+        <v>-188700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1007400</v>
+        <v>-962200</v>
       </c>
       <c r="J94" s="3">
-        <v>-956600</v>
+        <v>-913600</v>
       </c>
       <c r="K94" s="3">
         <v>-5520900</v>
@@ -5791,25 +5791,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>545000</v>
+        <v>520500</v>
       </c>
       <c r="E100" s="3">
-        <v>314800</v>
+        <v>300700</v>
       </c>
       <c r="F100" s="3">
-        <v>640100</v>
+        <v>611300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2723200</v>
+        <v>-2600800</v>
       </c>
       <c r="H100" s="3">
-        <v>3875100</v>
+        <v>3700900</v>
       </c>
       <c r="I100" s="3">
-        <v>-995500</v>
+        <v>-950700</v>
       </c>
       <c r="J100" s="3">
-        <v>3141700</v>
+        <v>3000500</v>
       </c>
       <c r="K100" s="3">
         <v>3588600</v>
@@ -5853,25 +5853,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>355400</v>
+        <v>339400</v>
       </c>
       <c r="E101" s="3">
-        <v>-687600</v>
+        <v>-656700</v>
       </c>
       <c r="F101" s="3">
-        <v>-165100</v>
+        <v>-157700</v>
       </c>
       <c r="G101" s="3">
-        <v>-184800</v>
+        <v>-176500</v>
       </c>
       <c r="H101" s="3">
-        <v>220200</v>
+        <v>210300</v>
       </c>
       <c r="I101" s="3">
-        <v>386800</v>
+        <v>369400</v>
       </c>
       <c r="J101" s="3">
-        <v>-356700</v>
+        <v>-340600</v>
       </c>
       <c r="K101" s="3">
         <v>51200</v>
@@ -5915,25 +5915,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1030700</v>
+        <v>984400</v>
       </c>
       <c r="E102" s="3">
-        <v>1047300</v>
+        <v>1000200</v>
       </c>
       <c r="F102" s="3">
-        <v>-554800</v>
+        <v>-529900</v>
       </c>
       <c r="G102" s="3">
-        <v>-281400</v>
+        <v>-268800</v>
       </c>
       <c r="H102" s="3">
-        <v>2991500</v>
+        <v>2857100</v>
       </c>
       <c r="I102" s="3">
-        <v>-1776700</v>
+        <v>-1696800</v>
       </c>
       <c r="J102" s="3">
-        <v>1379700</v>
+        <v>1317700</v>
       </c>
       <c r="K102" s="3">
         <v>1620600</v>

--- a/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>WF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,157 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1978100</v>
+        <v>2085700</v>
       </c>
       <c r="E8" s="3">
-        <v>1985100</v>
+        <v>2002000</v>
       </c>
       <c r="F8" s="3">
-        <v>1931600</v>
+        <v>1954800</v>
       </c>
       <c r="G8" s="3">
-        <v>2050400</v>
+        <v>1961700</v>
       </c>
       <c r="H8" s="3">
-        <v>2128200</v>
+        <v>1908800</v>
       </c>
       <c r="I8" s="3">
+        <v>2026200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2103200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2216400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2287800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2353100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2369400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2154000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2006200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1989700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1910800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1912500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1925300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1853100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1833700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1898800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,8 +876,14 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +944,14 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +974,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,8 +1038,14 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,8 +1106,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,70 +1174,82 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-115600</v>
+        <v>-109300</v>
       </c>
       <c r="E15" s="3">
+        <v>-109100</v>
+      </c>
+      <c r="F15" s="3">
         <v>-114200</v>
       </c>
-      <c r="F15" s="3">
-        <v>-109900</v>
-      </c>
       <c r="G15" s="3">
-        <v>-106100</v>
+        <v>-112800</v>
       </c>
       <c r="H15" s="3">
-        <v>-114900</v>
+        <v>-108600</v>
       </c>
       <c r="I15" s="3">
+        <v>-104900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-113600</v>
+      </c>
+      <c r="K15" s="3">
         <v>-115200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-112100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-104100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-88900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-50500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-47800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-44700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-40700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-39500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-40300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-40800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>-44500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>-54800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>-53700</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1269,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>718700</v>
+        <v>690900</v>
       </c>
       <c r="E17" s="3">
-        <v>836100</v>
+        <v>642400</v>
       </c>
       <c r="F17" s="3">
-        <v>796000</v>
+        <v>710300</v>
       </c>
       <c r="G17" s="3">
-        <v>1066600</v>
+        <v>826300</v>
       </c>
       <c r="H17" s="3">
-        <v>971800</v>
+        <v>786600</v>
       </c>
       <c r="I17" s="3">
+        <v>1054000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>960300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1019500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1190700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1111900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1098300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1157200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>918800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>752200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>877900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1026000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>926800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>906500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>830000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>903100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>963600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1259400</v>
+        <v>1394800</v>
       </c>
       <c r="E18" s="3">
-        <v>1149000</v>
+        <v>1359500</v>
       </c>
       <c r="F18" s="3">
-        <v>1135600</v>
+        <v>1244600</v>
       </c>
       <c r="G18" s="3">
-        <v>983800</v>
+        <v>1135500</v>
       </c>
       <c r="H18" s="3">
-        <v>1156500</v>
+        <v>1122200</v>
       </c>
       <c r="I18" s="3">
+        <v>972200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1142900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1196900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1097100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1241200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1271100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>996800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1087400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1237400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1032900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>886500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>998500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>946600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1003700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>995700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>934400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,132 +1431,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-458900</v>
+        <v>-441500</v>
       </c>
       <c r="E20" s="3">
-        <v>-901300</v>
+        <v>-455700</v>
       </c>
       <c r="F20" s="3">
-        <v>-561000</v>
+        <v>-453500</v>
       </c>
       <c r="G20" s="3">
-        <v>-744700</v>
+        <v>-890700</v>
       </c>
       <c r="H20" s="3">
-        <v>-516800</v>
+        <v>-554400</v>
       </c>
       <c r="I20" s="3">
+        <v>-736000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-510700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-920900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-527400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-447200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-519600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-847700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-418500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-401200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-355800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-756300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-671500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-417500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-274500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-821100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-531000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>918600</v>
+        <v>1120500</v>
       </c>
       <c r="E21" s="3">
-        <v>364000</v>
+        <v>1110500</v>
       </c>
       <c r="F21" s="3">
-        <v>686700</v>
+        <v>907800</v>
       </c>
       <c r="G21" s="3">
-        <v>348000</v>
+        <v>359700</v>
       </c>
       <c r="H21" s="3">
-        <v>757500</v>
+        <v>678600</v>
       </c>
       <c r="I21" s="3">
+        <v>344000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>748600</v>
+      </c>
+      <c r="K21" s="3">
         <v>396300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>686600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>902900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>845100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>210800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>727400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>892200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>727700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>180100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>377800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>580800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>784400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>229400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>457200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,132 +1631,150 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>800500</v>
+        <v>953400</v>
       </c>
       <c r="E23" s="3">
-        <v>247700</v>
+        <v>903800</v>
       </c>
       <c r="F23" s="3">
-        <v>574600</v>
+        <v>791100</v>
       </c>
       <c r="G23" s="3">
-        <v>239100</v>
+        <v>244800</v>
       </c>
       <c r="H23" s="3">
-        <v>639700</v>
+        <v>567800</v>
       </c>
       <c r="I23" s="3">
+        <v>236200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>632200</v>
+      </c>
+      <c r="K23" s="3">
         <v>276000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>569700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>794000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>751500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>149100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>668900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>836200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>677100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>130200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>327000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>529200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>729200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>174600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>403400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>189500</v>
+        <v>260900</v>
       </c>
       <c r="E24" s="3">
-        <v>61100</v>
+        <v>216400</v>
       </c>
       <c r="F24" s="3">
-        <v>131100</v>
+        <v>187200</v>
       </c>
       <c r="G24" s="3">
-        <v>55200</v>
+        <v>60400</v>
       </c>
       <c r="H24" s="3">
-        <v>165600</v>
+        <v>129600</v>
       </c>
       <c r="I24" s="3">
+        <v>54600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>163700</v>
+      </c>
+      <c r="K24" s="3">
         <v>79200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>115700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>215500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>192300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>39300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>179200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>229900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>177700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>9000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>77600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>118800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>163600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>30300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1835,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>611000</v>
+        <v>692500</v>
       </c>
       <c r="E26" s="3">
-        <v>186600</v>
+        <v>687400</v>
       </c>
       <c r="F26" s="3">
-        <v>443500</v>
+        <v>603800</v>
       </c>
       <c r="G26" s="3">
-        <v>183800</v>
+        <v>184400</v>
       </c>
       <c r="H26" s="3">
-        <v>474100</v>
+        <v>438200</v>
       </c>
       <c r="I26" s="3">
+        <v>181700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>468500</v>
+      </c>
+      <c r="K26" s="3">
         <v>196800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>454000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>578500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>559200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>109900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>489700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>606300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>499400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>121100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>249400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>410300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>565600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>144300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>323500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>553600</v>
+        <v>639100</v>
       </c>
       <c r="E27" s="3">
-        <v>129400</v>
+        <v>618900</v>
       </c>
       <c r="F27" s="3">
-        <v>396000</v>
+        <v>547100</v>
       </c>
       <c r="G27" s="3">
-        <v>110900</v>
+        <v>127900</v>
       </c>
       <c r="H27" s="3">
-        <v>433200</v>
+        <v>391400</v>
       </c>
       <c r="I27" s="3">
+        <v>109600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>428200</v>
+      </c>
+      <c r="K27" s="3">
         <v>174900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>410100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>537700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>517500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>76800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>453900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>569900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>463600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>84900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>212100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>369000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>517600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>88500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,8 +2039,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1987,8 +2107,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2175,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2243,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>458900</v>
+        <v>441500</v>
       </c>
       <c r="E32" s="3">
-        <v>901300</v>
+        <v>455700</v>
       </c>
       <c r="F32" s="3">
-        <v>561000</v>
+        <v>453500</v>
       </c>
       <c r="G32" s="3">
-        <v>744700</v>
+        <v>890700</v>
       </c>
       <c r="H32" s="3">
-        <v>516800</v>
+        <v>554400</v>
       </c>
       <c r="I32" s="3">
+        <v>736000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>510700</v>
+      </c>
+      <c r="K32" s="3">
         <v>920900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>527400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>447200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>519600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>847700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>418500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>401200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>355800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>756300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>671500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>417500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>274500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>821100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>553600</v>
+        <v>639100</v>
       </c>
       <c r="E33" s="3">
-        <v>129400</v>
+        <v>618900</v>
       </c>
       <c r="F33" s="3">
-        <v>396000</v>
+        <v>547100</v>
       </c>
       <c r="G33" s="3">
-        <v>110900</v>
+        <v>127900</v>
       </c>
       <c r="H33" s="3">
-        <v>433200</v>
+        <v>391400</v>
       </c>
       <c r="I33" s="3">
+        <v>109600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>428200</v>
+      </c>
+      <c r="K33" s="3">
         <v>174900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>410100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>537700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>517500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>76800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>453900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>569900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>463600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>84900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>212100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>369000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>517600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>88500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2447,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>553600</v>
+        <v>639100</v>
       </c>
       <c r="E35" s="3">
-        <v>129400</v>
+        <v>618900</v>
       </c>
       <c r="F35" s="3">
-        <v>396000</v>
+        <v>547100</v>
       </c>
       <c r="G35" s="3">
-        <v>110900</v>
+        <v>127900</v>
       </c>
       <c r="H35" s="3">
-        <v>433200</v>
+        <v>391400</v>
       </c>
       <c r="I35" s="3">
+        <v>109600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>428200</v>
+      </c>
+      <c r="K35" s="3">
         <v>174900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>410100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>537700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>517500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>76800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>453900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>569900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>463600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>84900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>212100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>369000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>517600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>88500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2618,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,132 +2644,146 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9185700</v>
+        <v>8840800</v>
       </c>
       <c r="E41" s="3">
-        <v>8024200</v>
+        <v>8180400</v>
       </c>
       <c r="F41" s="3">
-        <v>7122700</v>
+        <v>9077600</v>
       </c>
       <c r="G41" s="3">
-        <v>7655200</v>
+        <v>7929800</v>
       </c>
       <c r="H41" s="3">
-        <v>8196500</v>
+        <v>7038900</v>
       </c>
       <c r="I41" s="3">
+        <v>7565200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>8100100</v>
+      </c>
+      <c r="K41" s="3">
         <v>5327800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>7069900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5777500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4361000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5329900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4608100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4589200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4387400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>5323900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>5337600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5780800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>6495200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>6385500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>7024600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>36772800</v>
+        <v>42925200</v>
       </c>
       <c r="E42" s="3">
-        <v>44993000</v>
+        <v>37856700</v>
       </c>
       <c r="F42" s="3">
-        <v>36730900</v>
+        <v>36340100</v>
       </c>
       <c r="G42" s="3">
-        <v>40178100</v>
+        <v>44463600</v>
       </c>
       <c r="H42" s="3">
-        <v>40512700</v>
+        <v>36298700</v>
       </c>
       <c r="I42" s="3">
+        <v>39705400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>40036100</v>
+      </c>
+      <c r="K42" s="3">
         <v>37680800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>39232200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>36892000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>30905300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>29776700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>20883600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>22286700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>21840100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>20932300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>12488600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>14955900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>13350900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>14204100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>16154100</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2660,8 +2844,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2722,8 +2912,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2784,8 +2980,14 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2846,194 +3048,218 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>891100</v>
+        <v>1003500</v>
       </c>
       <c r="E47" s="3">
-        <v>844300</v>
+        <v>987200</v>
       </c>
       <c r="F47" s="3">
-        <v>915300</v>
+        <v>880600</v>
       </c>
       <c r="G47" s="3">
-        <v>788900</v>
+        <v>834400</v>
       </c>
       <c r="H47" s="3">
-        <v>707600</v>
+        <v>904600</v>
       </c>
       <c r="I47" s="3">
+        <v>779700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>699300</v>
+      </c>
+      <c r="K47" s="3">
         <v>685400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>322100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>311500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>316200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>303600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>276700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>346900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>348200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>367000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>490900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>326300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>351100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>395100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3102000</v>
+        <v>3025100</v>
       </c>
       <c r="E48" s="3">
-        <v>3123500</v>
+        <v>3004500</v>
       </c>
       <c r="F48" s="3">
-        <v>3051500</v>
+        <v>3065500</v>
       </c>
       <c r="G48" s="3">
-        <v>3080200</v>
+        <v>3086700</v>
       </c>
       <c r="H48" s="3">
-        <v>3108000</v>
+        <v>3015600</v>
       </c>
       <c r="I48" s="3">
+        <v>3044000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3071400</v>
+      </c>
+      <c r="K48" s="3">
         <v>3098200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3089800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3058200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3080600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2368100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2284800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2378800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2384000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2507000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2509800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2480800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2470200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2534900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2525400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>669200</v>
+        <v>656700</v>
       </c>
       <c r="E49" s="3">
-        <v>673300</v>
+        <v>651500</v>
       </c>
       <c r="F49" s="3">
-        <v>679800</v>
+        <v>661400</v>
       </c>
       <c r="G49" s="3">
-        <v>697300</v>
+        <v>665300</v>
       </c>
       <c r="H49" s="3">
-        <v>701000</v>
+        <v>671800</v>
       </c>
       <c r="I49" s="3">
+        <v>689100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>692800</v>
+      </c>
+      <c r="K49" s="3">
         <v>717500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>590200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>565800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>588900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>493300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>502400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>549000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>452700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>456400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>461900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>446100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>415100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>435400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>376700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3320,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3388,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>84600</v>
+        <v>46000</v>
       </c>
       <c r="E52" s="3">
-        <v>95000</v>
+        <v>62700</v>
       </c>
       <c r="F52" s="3">
-        <v>82200</v>
+        <v>83600</v>
       </c>
       <c r="G52" s="3">
-        <v>41700</v>
+        <v>93900</v>
       </c>
       <c r="H52" s="3">
-        <v>40100</v>
+        <v>81300</v>
       </c>
       <c r="I52" s="3">
+        <v>41200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K52" s="3">
         <v>44800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>82300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>69500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>68200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>120400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>36800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>91100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>177600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>289300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>234800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>221100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>262700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>274800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>143800</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3524,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>353688700</v>
+        <v>368075300</v>
       </c>
       <c r="E54" s="3">
-        <v>339218900</v>
+        <v>353867300</v>
       </c>
       <c r="F54" s="3">
-        <v>323713100</v>
+        <v>349527700</v>
       </c>
       <c r="G54" s="3">
-        <v>323065800</v>
+        <v>335228100</v>
       </c>
       <c r="H54" s="3">
-        <v>321482000</v>
+        <v>319904700</v>
       </c>
       <c r="I54" s="3">
+        <v>319265000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>317699900</v>
+      </c>
+      <c r="K54" s="3">
         <v>307683600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>314996600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>316273500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>314085600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>285975600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>267139300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>274311500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>273668600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>278340000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>279730100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>278137400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>273600800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>279614500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>281548700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3622,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,70 +3648,78 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9184300</v>
+        <v>8912300</v>
       </c>
       <c r="E57" s="3">
-        <v>4248400</v>
+        <v>10605200</v>
       </c>
       <c r="F57" s="3">
-        <v>8313200</v>
+        <v>9076300</v>
       </c>
       <c r="G57" s="3">
-        <v>9346700</v>
+        <v>4198400</v>
       </c>
       <c r="H57" s="3">
-        <v>10009600</v>
+        <v>8215400</v>
       </c>
       <c r="I57" s="3">
+        <v>9236700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>9891900</v>
+      </c>
+      <c r="K57" s="3">
         <v>7264700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>13339700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>15138200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>14778600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>10988500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>12068900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>11638400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>12317300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>5801500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>13814400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>14756900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>10823000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>13329400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>15356600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3514,70 +3780,82 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1838800</v>
+        <v>1723300</v>
       </c>
       <c r="E59" s="3">
-        <v>2057100</v>
+        <v>1620100</v>
       </c>
       <c r="F59" s="3">
-        <v>1679800</v>
+        <v>1817200</v>
       </c>
       <c r="G59" s="3">
-        <v>1705900</v>
+        <v>2032900</v>
       </c>
       <c r="H59" s="3">
-        <v>1985400</v>
+        <v>1660100</v>
       </c>
       <c r="I59" s="3">
+        <v>1685800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1962000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2294100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2199800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2064700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2149400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1989900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1798500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1649500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1642100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2008600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2057400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1681400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1880000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2004400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1813400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3638,132 +3916,150 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>49770900</v>
+        <v>55255500</v>
       </c>
       <c r="E61" s="3">
-        <v>48916800</v>
+        <v>52639200</v>
       </c>
       <c r="F61" s="3">
-        <v>42202600</v>
+        <v>49185300</v>
       </c>
       <c r="G61" s="3">
-        <v>43289100</v>
+        <v>48341300</v>
       </c>
       <c r="H61" s="3">
-        <v>45208300</v>
+        <v>41706100</v>
       </c>
       <c r="I61" s="3">
+        <v>42779800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>44676400</v>
+      </c>
+      <c r="K61" s="3">
         <v>42129500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>44185000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>43142100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>40307800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>36868700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>34955700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>35115500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>34009900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>36941800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>37408900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>35000000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>33280700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>34538700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>33926000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>622900</v>
+        <v>742900</v>
       </c>
       <c r="E62" s="3">
-        <v>607000</v>
+        <v>694700</v>
       </c>
       <c r="F62" s="3">
-        <v>795600</v>
+        <v>615500</v>
       </c>
       <c r="G62" s="3">
-        <v>763300</v>
+        <v>599900</v>
       </c>
       <c r="H62" s="3">
-        <v>713600</v>
+        <v>786200</v>
       </c>
       <c r="I62" s="3">
+        <v>754300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>705200</v>
+      </c>
+      <c r="K62" s="3">
         <v>570200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>714600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>648100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>618700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>520300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>418500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>420800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>527700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>419200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>395900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>382900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>400700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>463600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>459900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +4120,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4188,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4256,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>333702800</v>
+        <v>346809900</v>
       </c>
       <c r="E66" s="3">
-        <v>319623300</v>
+        <v>333237600</v>
       </c>
       <c r="F66" s="3">
-        <v>304372900</v>
+        <v>329776900</v>
       </c>
       <c r="G66" s="3">
-        <v>304109800</v>
+        <v>315863000</v>
       </c>
       <c r="H66" s="3">
-        <v>302931500</v>
+        <v>300792000</v>
       </c>
       <c r="I66" s="3">
+        <v>300532000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>299367600</v>
+      </c>
+      <c r="K66" s="3">
         <v>289399800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>297278600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>299163500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>296968200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>267714100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>249559900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>256847800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>256582900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>260418000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>261733600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>260311800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>255640700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>261266900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>263136400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4354,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4418,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4486,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4554,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4622,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16683300</v>
+        <v>17656000</v>
       </c>
       <c r="E72" s="3">
-        <v>16378000</v>
+        <v>17134600</v>
       </c>
       <c r="F72" s="3">
-        <v>16248600</v>
+        <v>16487000</v>
       </c>
       <c r="G72" s="3">
-        <v>15854400</v>
+        <v>16185300</v>
       </c>
       <c r="H72" s="3">
-        <v>15743700</v>
+        <v>16057500</v>
       </c>
       <c r="I72" s="3">
+        <v>15667800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>15558500</v>
+      </c>
+      <c r="K72" s="3">
         <v>15745800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>15573800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>15698600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>15678000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>14384700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>13795900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>13837700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>13273900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>13745600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>13660700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>13507800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>13138800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>13150400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>13062800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4758,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4826,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4894,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19986000</v>
+        <v>21265400</v>
       </c>
       <c r="E76" s="3">
-        <v>19595600</v>
+        <v>20629700</v>
       </c>
       <c r="F76" s="3">
-        <v>19340200</v>
+        <v>19750800</v>
       </c>
       <c r="G76" s="3">
-        <v>18956000</v>
+        <v>19365000</v>
       </c>
       <c r="H76" s="3">
-        <v>18550500</v>
+        <v>19112700</v>
       </c>
       <c r="I76" s="3">
+        <v>18733000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>18332300</v>
+      </c>
+      <c r="K76" s="3">
         <v>18283800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>17718000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>17110000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>17117400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>18261500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>17579400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>17463800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>17085700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>17922000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>17996500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>17825600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>17960100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>18347500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>18412300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +5030,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>553600</v>
+        <v>639100</v>
       </c>
       <c r="E81" s="3">
-        <v>129400</v>
+        <v>618900</v>
       </c>
       <c r="F81" s="3">
-        <v>396000</v>
+        <v>547100</v>
       </c>
       <c r="G81" s="3">
-        <v>110900</v>
+        <v>127900</v>
       </c>
       <c r="H81" s="3">
-        <v>433200</v>
+        <v>391400</v>
       </c>
       <c r="I81" s="3">
+        <v>109600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>428200</v>
+      </c>
+      <c r="K81" s="3">
         <v>174900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>410100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>537700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>517500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>76800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>453900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>569900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>463600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>84900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>212100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>369000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>517600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>88500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5201,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>118100</v>
+        <v>167200</v>
       </c>
       <c r="E83" s="3">
-        <v>116300</v>
+        <v>206700</v>
       </c>
       <c r="F83" s="3">
-        <v>112100</v>
+        <v>116700</v>
       </c>
       <c r="G83" s="3">
-        <v>109000</v>
+        <v>114900</v>
       </c>
       <c r="H83" s="3">
-        <v>117800</v>
+        <v>110800</v>
       </c>
       <c r="I83" s="3">
+        <v>107700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>116400</v>
+      </c>
+      <c r="K83" s="3">
         <v>120400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>116900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>108900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>93600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>61600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>58600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>56000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>50600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>49900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>50800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>51600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>55200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>54800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5333,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5401,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5469,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5537,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5605,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>955400</v>
+        <v>2897100</v>
       </c>
       <c r="E89" s="3">
-        <v>1775700</v>
+        <v>-5160200</v>
       </c>
       <c r="F89" s="3">
-        <v>-846100</v>
+        <v>944100</v>
       </c>
       <c r="G89" s="3">
-        <v>3001000</v>
+        <v>1754800</v>
       </c>
       <c r="H89" s="3">
-        <v>-865500</v>
+        <v>-836200</v>
       </c>
       <c r="I89" s="3">
+        <v>2965700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-855300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-153300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-428600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3501700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1296100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>5231600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>908000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>643600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>877700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-506300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2456000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-340700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1561500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>108800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>3807600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5703,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16400</v>
+        <v>-34300</v>
       </c>
       <c r="E91" s="3">
-        <v>-50100</v>
+        <v>-17800</v>
       </c>
       <c r="F91" s="3">
-        <v>-28200</v>
+        <v>-16200</v>
       </c>
       <c r="G91" s="3">
-        <v>-27300</v>
+        <v>-49500</v>
       </c>
       <c r="H91" s="3">
-        <v>-21300</v>
+        <v>-27900</v>
       </c>
       <c r="I91" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-190900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-91000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-55400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-31700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-43000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-20100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-18000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-25100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-57300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-37900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-22400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-111600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-90400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5835,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5903,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-830900</v>
+        <v>-4370500</v>
       </c>
       <c r="E94" s="3">
-        <v>-419400</v>
+        <v>1259900</v>
       </c>
       <c r="F94" s="3">
-        <v>-137400</v>
+        <v>-821100</v>
       </c>
       <c r="G94" s="3">
-        <v>-492400</v>
+        <v>-414500</v>
       </c>
       <c r="H94" s="3">
-        <v>-188700</v>
+        <v>-135800</v>
       </c>
       <c r="I94" s="3">
+        <v>-486700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-186500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-962200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-913600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5520900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-97900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-5105000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-2452600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1063800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-587600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>1277600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-195600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>183200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>392500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-2371700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>694800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,13 +6001,15 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-91000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5585,22 +6051,28 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-59200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-237000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-38100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-22800</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +6133,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +6201,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,190 +6269,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>520500</v>
+        <v>1573200</v>
       </c>
       <c r="E100" s="3">
-        <v>300700</v>
+        <v>3260300</v>
       </c>
       <c r="F100" s="3">
-        <v>611300</v>
+        <v>514400</v>
       </c>
       <c r="G100" s="3">
-        <v>-2600800</v>
+        <v>297100</v>
       </c>
       <c r="H100" s="3">
-        <v>3700900</v>
+        <v>604200</v>
       </c>
       <c r="I100" s="3">
+        <v>-2570200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>3657400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-950700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3000500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>3588600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-289800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>491400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1689200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>354700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1323700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-309500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>2140800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-384900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1500100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1503800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-1778900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>339400</v>
+        <v>458600</v>
       </c>
       <c r="E101" s="3">
-        <v>-656700</v>
+        <v>20300</v>
       </c>
       <c r="F101" s="3">
-        <v>-157700</v>
+        <v>335400</v>
       </c>
       <c r="G101" s="3">
-        <v>-176500</v>
+        <v>-649000</v>
       </c>
       <c r="H101" s="3">
-        <v>210300</v>
+        <v>-155900</v>
       </c>
       <c r="I101" s="3">
+        <v>-174400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>207800</v>
+      </c>
+      <c r="K101" s="3">
         <v>369400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-340600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>51200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>90500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>6400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-76600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>218900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>50500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-377500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>14000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>8400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-108300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>138000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-105900</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>984400</v>
+        <v>558400</v>
       </c>
       <c r="E102" s="3">
-        <v>1000200</v>
+        <v>-619700</v>
       </c>
       <c r="F102" s="3">
-        <v>-529900</v>
+        <v>972800</v>
       </c>
       <c r="G102" s="3">
-        <v>-268800</v>
+        <v>988500</v>
       </c>
       <c r="H102" s="3">
-        <v>2857100</v>
+        <v>-523600</v>
       </c>
       <c r="I102" s="3">
+        <v>-265600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2823500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1696800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1317700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1620600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1593300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>624400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>68000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>153400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-983000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>84300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-496900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-534100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>345600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-621200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>2617600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2085700</v>
+        <v>2011200</v>
       </c>
       <c r="E8" s="3">
-        <v>2002000</v>
+        <v>1930500</v>
       </c>
       <c r="F8" s="3">
-        <v>1954800</v>
+        <v>1885000</v>
       </c>
       <c r="G8" s="3">
-        <v>1961700</v>
+        <v>1891700</v>
       </c>
       <c r="H8" s="3">
-        <v>1908800</v>
+        <v>1840700</v>
       </c>
       <c r="I8" s="3">
-        <v>2026200</v>
+        <v>1953900</v>
       </c>
       <c r="J8" s="3">
-        <v>2103200</v>
+        <v>2028100</v>
       </c>
       <c r="K8" s="3">
         <v>2216400</v>
@@ -1186,25 +1186,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-109300</v>
+        <v>-105400</v>
       </c>
       <c r="E15" s="3">
-        <v>-109100</v>
+        <v>-105200</v>
       </c>
       <c r="F15" s="3">
-        <v>-114200</v>
+        <v>-110200</v>
       </c>
       <c r="G15" s="3">
-        <v>-112800</v>
+        <v>-108800</v>
       </c>
       <c r="H15" s="3">
-        <v>-108600</v>
+        <v>-104700</v>
       </c>
       <c r="I15" s="3">
-        <v>-104900</v>
+        <v>-101100</v>
       </c>
       <c r="J15" s="3">
-        <v>-113600</v>
+        <v>-109500</v>
       </c>
       <c r="K15" s="3">
         <v>-115200</v>
@@ -1277,25 +1277,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>690900</v>
+        <v>666200</v>
       </c>
       <c r="E17" s="3">
-        <v>642400</v>
+        <v>619500</v>
       </c>
       <c r="F17" s="3">
-        <v>710300</v>
+        <v>684900</v>
       </c>
       <c r="G17" s="3">
-        <v>826300</v>
+        <v>796800</v>
       </c>
       <c r="H17" s="3">
-        <v>786600</v>
+        <v>758500</v>
       </c>
       <c r="I17" s="3">
-        <v>1054000</v>
+        <v>1016400</v>
       </c>
       <c r="J17" s="3">
-        <v>960300</v>
+        <v>926000</v>
       </c>
       <c r="K17" s="3">
         <v>1019500</v>
@@ -1345,25 +1345,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1394800</v>
+        <v>1345000</v>
       </c>
       <c r="E18" s="3">
-        <v>1359500</v>
+        <v>1311000</v>
       </c>
       <c r="F18" s="3">
-        <v>1244600</v>
+        <v>1200100</v>
       </c>
       <c r="G18" s="3">
-        <v>1135500</v>
+        <v>1094900</v>
       </c>
       <c r="H18" s="3">
-        <v>1122200</v>
+        <v>1082100</v>
       </c>
       <c r="I18" s="3">
-        <v>972200</v>
+        <v>937500</v>
       </c>
       <c r="J18" s="3">
-        <v>1142900</v>
+        <v>1102100</v>
       </c>
       <c r="K18" s="3">
         <v>1196900</v>
@@ -1439,25 +1439,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-441500</v>
+        <v>-425700</v>
       </c>
       <c r="E20" s="3">
-        <v>-455700</v>
+        <v>-439400</v>
       </c>
       <c r="F20" s="3">
-        <v>-453500</v>
+        <v>-437300</v>
       </c>
       <c r="G20" s="3">
-        <v>-890700</v>
+        <v>-858900</v>
       </c>
       <c r="H20" s="3">
-        <v>-554400</v>
+        <v>-534600</v>
       </c>
       <c r="I20" s="3">
-        <v>-736000</v>
+        <v>-709700</v>
       </c>
       <c r="J20" s="3">
-        <v>-510700</v>
+        <v>-492400</v>
       </c>
       <c r="K20" s="3">
         <v>-920900</v>
@@ -1507,25 +1507,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1120500</v>
+        <v>1080500</v>
       </c>
       <c r="E21" s="3">
-        <v>1110500</v>
+        <v>1070800</v>
       </c>
       <c r="F21" s="3">
-        <v>907800</v>
+        <v>875400</v>
       </c>
       <c r="G21" s="3">
-        <v>359700</v>
+        <v>346900</v>
       </c>
       <c r="H21" s="3">
-        <v>678600</v>
+        <v>654400</v>
       </c>
       <c r="I21" s="3">
-        <v>344000</v>
+        <v>331700</v>
       </c>
       <c r="J21" s="3">
-        <v>748600</v>
+        <v>721900</v>
       </c>
       <c r="K21" s="3">
         <v>396300</v>
@@ -1643,25 +1643,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>953400</v>
+        <v>919300</v>
       </c>
       <c r="E23" s="3">
-        <v>903800</v>
+        <v>871500</v>
       </c>
       <c r="F23" s="3">
-        <v>791100</v>
+        <v>762800</v>
       </c>
       <c r="G23" s="3">
-        <v>244800</v>
+        <v>236100</v>
       </c>
       <c r="H23" s="3">
-        <v>567800</v>
+        <v>547500</v>
       </c>
       <c r="I23" s="3">
-        <v>236200</v>
+        <v>227800</v>
       </c>
       <c r="J23" s="3">
-        <v>632200</v>
+        <v>609600</v>
       </c>
       <c r="K23" s="3">
         <v>276000</v>
@@ -1711,25 +1711,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>260900</v>
+        <v>251600</v>
       </c>
       <c r="E24" s="3">
-        <v>216400</v>
+        <v>208700</v>
       </c>
       <c r="F24" s="3">
-        <v>187200</v>
+        <v>180500</v>
       </c>
       <c r="G24" s="3">
-        <v>60400</v>
+        <v>58300</v>
       </c>
       <c r="H24" s="3">
-        <v>129600</v>
+        <v>125000</v>
       </c>
       <c r="I24" s="3">
-        <v>54600</v>
+        <v>52600</v>
       </c>
       <c r="J24" s="3">
-        <v>163700</v>
+        <v>157800</v>
       </c>
       <c r="K24" s="3">
         <v>79200</v>
@@ -1847,25 +1847,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>692500</v>
+        <v>667800</v>
       </c>
       <c r="E26" s="3">
-        <v>687400</v>
+        <v>662900</v>
       </c>
       <c r="F26" s="3">
-        <v>603800</v>
+        <v>582300</v>
       </c>
       <c r="G26" s="3">
-        <v>184400</v>
+        <v>177800</v>
       </c>
       <c r="H26" s="3">
-        <v>438200</v>
+        <v>422600</v>
       </c>
       <c r="I26" s="3">
-        <v>181700</v>
+        <v>175200</v>
       </c>
       <c r="J26" s="3">
-        <v>468500</v>
+        <v>451800</v>
       </c>
       <c r="K26" s="3">
         <v>196800</v>
@@ -1915,25 +1915,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>639100</v>
+        <v>616300</v>
       </c>
       <c r="E27" s="3">
-        <v>618900</v>
+        <v>596800</v>
       </c>
       <c r="F27" s="3">
-        <v>547100</v>
+        <v>527600</v>
       </c>
       <c r="G27" s="3">
-        <v>127900</v>
+        <v>123300</v>
       </c>
       <c r="H27" s="3">
-        <v>391400</v>
+        <v>377400</v>
       </c>
       <c r="I27" s="3">
-        <v>109600</v>
+        <v>105700</v>
       </c>
       <c r="J27" s="3">
-        <v>428200</v>
+        <v>412900</v>
       </c>
       <c r="K27" s="3">
         <v>174900</v>
@@ -2255,25 +2255,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>441500</v>
+        <v>425700</v>
       </c>
       <c r="E32" s="3">
-        <v>455700</v>
+        <v>439400</v>
       </c>
       <c r="F32" s="3">
-        <v>453500</v>
+        <v>437300</v>
       </c>
       <c r="G32" s="3">
-        <v>890700</v>
+        <v>858900</v>
       </c>
       <c r="H32" s="3">
-        <v>554400</v>
+        <v>534600</v>
       </c>
       <c r="I32" s="3">
-        <v>736000</v>
+        <v>709700</v>
       </c>
       <c r="J32" s="3">
-        <v>510700</v>
+        <v>492400</v>
       </c>
       <c r="K32" s="3">
         <v>920900</v>
@@ -2323,25 +2323,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>639100</v>
+        <v>616300</v>
       </c>
       <c r="E33" s="3">
-        <v>618900</v>
+        <v>596800</v>
       </c>
       <c r="F33" s="3">
-        <v>547100</v>
+        <v>527600</v>
       </c>
       <c r="G33" s="3">
-        <v>127900</v>
+        <v>123300</v>
       </c>
       <c r="H33" s="3">
-        <v>391400</v>
+        <v>377400</v>
       </c>
       <c r="I33" s="3">
-        <v>109600</v>
+        <v>105700</v>
       </c>
       <c r="J33" s="3">
-        <v>428200</v>
+        <v>412900</v>
       </c>
       <c r="K33" s="3">
         <v>174900</v>
@@ -2459,25 +2459,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>639100</v>
+        <v>616300</v>
       </c>
       <c r="E35" s="3">
-        <v>618900</v>
+        <v>596800</v>
       </c>
       <c r="F35" s="3">
-        <v>547100</v>
+        <v>527600</v>
       </c>
       <c r="G35" s="3">
-        <v>127900</v>
+        <v>123300</v>
       </c>
       <c r="H35" s="3">
-        <v>391400</v>
+        <v>377400</v>
       </c>
       <c r="I35" s="3">
-        <v>109600</v>
+        <v>105700</v>
       </c>
       <c r="J35" s="3">
-        <v>428200</v>
+        <v>412900</v>
       </c>
       <c r="K35" s="3">
         <v>174900</v>
@@ -2652,25 +2652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8840800</v>
+        <v>8525000</v>
       </c>
       <c r="E41" s="3">
-        <v>8180400</v>
+        <v>7888200</v>
       </c>
       <c r="F41" s="3">
-        <v>9077600</v>
+        <v>8753400</v>
       </c>
       <c r="G41" s="3">
-        <v>7929800</v>
+        <v>7646600</v>
       </c>
       <c r="H41" s="3">
-        <v>7038900</v>
+        <v>6787500</v>
       </c>
       <c r="I41" s="3">
-        <v>7565200</v>
+        <v>7295000</v>
       </c>
       <c r="J41" s="3">
-        <v>8100100</v>
+        <v>7810800</v>
       </c>
       <c r="K41" s="3">
         <v>5327800</v>
@@ -2720,25 +2720,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>42925200</v>
+        <v>41392200</v>
       </c>
       <c r="E42" s="3">
-        <v>37856700</v>
+        <v>36504600</v>
       </c>
       <c r="F42" s="3">
-        <v>36340100</v>
+        <v>35042300</v>
       </c>
       <c r="G42" s="3">
-        <v>44463600</v>
+        <v>42875600</v>
       </c>
       <c r="H42" s="3">
-        <v>36298700</v>
+        <v>35002300</v>
       </c>
       <c r="I42" s="3">
-        <v>39705400</v>
+        <v>38287300</v>
       </c>
       <c r="J42" s="3">
-        <v>40036100</v>
+        <v>38606200</v>
       </c>
       <c r="K42" s="3">
         <v>37680800</v>
@@ -3060,25 +3060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1003500</v>
+        <v>967700</v>
       </c>
       <c r="E47" s="3">
-        <v>987200</v>
+        <v>952000</v>
       </c>
       <c r="F47" s="3">
-        <v>880600</v>
+        <v>849100</v>
       </c>
       <c r="G47" s="3">
-        <v>834400</v>
+        <v>804600</v>
       </c>
       <c r="H47" s="3">
-        <v>904600</v>
+        <v>872300</v>
       </c>
       <c r="I47" s="3">
-        <v>779700</v>
+        <v>751800</v>
       </c>
       <c r="J47" s="3">
-        <v>699300</v>
+        <v>674300</v>
       </c>
       <c r="K47" s="3">
         <v>685400</v>
@@ -3128,25 +3128,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3025100</v>
+        <v>2917100</v>
       </c>
       <c r="E48" s="3">
-        <v>3004500</v>
+        <v>2897200</v>
       </c>
       <c r="F48" s="3">
-        <v>3065500</v>
+        <v>2956000</v>
       </c>
       <c r="G48" s="3">
-        <v>3086700</v>
+        <v>2976500</v>
       </c>
       <c r="H48" s="3">
-        <v>3015600</v>
+        <v>2907900</v>
       </c>
       <c r="I48" s="3">
-        <v>3044000</v>
+        <v>2935300</v>
       </c>
       <c r="J48" s="3">
-        <v>3071400</v>
+        <v>2961700</v>
       </c>
       <c r="K48" s="3">
         <v>3098200</v>
@@ -3196,25 +3196,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>656700</v>
+        <v>633300</v>
       </c>
       <c r="E49" s="3">
-        <v>651500</v>
+        <v>628200</v>
       </c>
       <c r="F49" s="3">
-        <v>661400</v>
+        <v>637700</v>
       </c>
       <c r="G49" s="3">
-        <v>665300</v>
+        <v>641600</v>
       </c>
       <c r="H49" s="3">
-        <v>671800</v>
+        <v>647800</v>
       </c>
       <c r="I49" s="3">
-        <v>689100</v>
+        <v>664500</v>
       </c>
       <c r="J49" s="3">
-        <v>692800</v>
+        <v>668000</v>
       </c>
       <c r="K49" s="3">
         <v>717500</v>
@@ -3400,25 +3400,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>46000</v>
+        <v>44300</v>
       </c>
       <c r="E52" s="3">
-        <v>62700</v>
+        <v>60500</v>
       </c>
       <c r="F52" s="3">
-        <v>83600</v>
+        <v>80600</v>
       </c>
       <c r="G52" s="3">
-        <v>93900</v>
+        <v>90500</v>
       </c>
       <c r="H52" s="3">
-        <v>81300</v>
+        <v>78400</v>
       </c>
       <c r="I52" s="3">
-        <v>41200</v>
+        <v>39700</v>
       </c>
       <c r="J52" s="3">
-        <v>39600</v>
+        <v>38200</v>
       </c>
       <c r="K52" s="3">
         <v>44800</v>
@@ -3536,25 +3536,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>368075300</v>
+        <v>354929800</v>
       </c>
       <c r="E54" s="3">
-        <v>353867300</v>
+        <v>341229200</v>
       </c>
       <c r="F54" s="3">
-        <v>349527700</v>
+        <v>337044600</v>
       </c>
       <c r="G54" s="3">
-        <v>335228100</v>
+        <v>323255600</v>
       </c>
       <c r="H54" s="3">
-        <v>319904700</v>
+        <v>308479500</v>
       </c>
       <c r="I54" s="3">
-        <v>319265000</v>
+        <v>307862700</v>
       </c>
       <c r="J54" s="3">
-        <v>317699900</v>
+        <v>306353500</v>
       </c>
       <c r="K54" s="3">
         <v>307683600</v>
@@ -3656,25 +3656,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8912300</v>
+        <v>8594100</v>
       </c>
       <c r="E57" s="3">
-        <v>10605200</v>
+        <v>10226400</v>
       </c>
       <c r="F57" s="3">
-        <v>9076300</v>
+        <v>8752100</v>
       </c>
       <c r="G57" s="3">
-        <v>4198400</v>
+        <v>4048400</v>
       </c>
       <c r="H57" s="3">
-        <v>8215400</v>
+        <v>7922000</v>
       </c>
       <c r="I57" s="3">
-        <v>9236700</v>
+        <v>8906800</v>
       </c>
       <c r="J57" s="3">
-        <v>9891900</v>
+        <v>9538600</v>
       </c>
       <c r="K57" s="3">
         <v>7264700</v>
@@ -3792,25 +3792,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1723300</v>
+        <v>1661700</v>
       </c>
       <c r="E59" s="3">
-        <v>1620100</v>
+        <v>1562300</v>
       </c>
       <c r="F59" s="3">
-        <v>1817200</v>
+        <v>1752300</v>
       </c>
       <c r="G59" s="3">
-        <v>2032900</v>
+        <v>1960300</v>
       </c>
       <c r="H59" s="3">
-        <v>1660100</v>
+        <v>1600800</v>
       </c>
       <c r="I59" s="3">
-        <v>1685800</v>
+        <v>1625600</v>
       </c>
       <c r="J59" s="3">
-        <v>1962000</v>
+        <v>1892000</v>
       </c>
       <c r="K59" s="3">
         <v>2294100</v>
@@ -3928,25 +3928,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>55255500</v>
+        <v>53282100</v>
       </c>
       <c r="E61" s="3">
-        <v>52639200</v>
+        <v>50759200</v>
       </c>
       <c r="F61" s="3">
-        <v>49185300</v>
+        <v>47428700</v>
       </c>
       <c r="G61" s="3">
-        <v>48341300</v>
+        <v>46614800</v>
       </c>
       <c r="H61" s="3">
-        <v>41706100</v>
+        <v>40216600</v>
       </c>
       <c r="I61" s="3">
-        <v>42779800</v>
+        <v>41251900</v>
       </c>
       <c r="J61" s="3">
-        <v>44676400</v>
+        <v>43080800</v>
       </c>
       <c r="K61" s="3">
         <v>42129500</v>
@@ -3996,25 +3996,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>742900</v>
+        <v>716400</v>
       </c>
       <c r="E62" s="3">
-        <v>694700</v>
+        <v>669900</v>
       </c>
       <c r="F62" s="3">
-        <v>615500</v>
+        <v>593600</v>
       </c>
       <c r="G62" s="3">
-        <v>599900</v>
+        <v>578400</v>
       </c>
       <c r="H62" s="3">
-        <v>786200</v>
+        <v>758100</v>
       </c>
       <c r="I62" s="3">
-        <v>754300</v>
+        <v>727400</v>
       </c>
       <c r="J62" s="3">
-        <v>705200</v>
+        <v>680000</v>
       </c>
       <c r="K62" s="3">
         <v>570200</v>
@@ -4268,25 +4268,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>346809900</v>
+        <v>334423900</v>
       </c>
       <c r="E66" s="3">
-        <v>333237600</v>
+        <v>321336300</v>
       </c>
       <c r="F66" s="3">
-        <v>329776900</v>
+        <v>317999100</v>
       </c>
       <c r="G66" s="3">
-        <v>315863000</v>
+        <v>304582200</v>
       </c>
       <c r="H66" s="3">
-        <v>300792000</v>
+        <v>290049500</v>
       </c>
       <c r="I66" s="3">
-        <v>300532000</v>
+        <v>289798700</v>
       </c>
       <c r="J66" s="3">
-        <v>299367600</v>
+        <v>288675900</v>
       </c>
       <c r="K66" s="3">
         <v>289399800</v>
@@ -4634,25 +4634,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17656000</v>
+        <v>17025400</v>
       </c>
       <c r="E72" s="3">
-        <v>17134600</v>
+        <v>16522700</v>
       </c>
       <c r="F72" s="3">
-        <v>16487000</v>
+        <v>15898200</v>
       </c>
       <c r="G72" s="3">
-        <v>16185300</v>
+        <v>15607300</v>
       </c>
       <c r="H72" s="3">
-        <v>16057500</v>
+        <v>15484000</v>
       </c>
       <c r="I72" s="3">
-        <v>15667800</v>
+        <v>15108300</v>
       </c>
       <c r="J72" s="3">
-        <v>15558500</v>
+        <v>15002800</v>
       </c>
       <c r="K72" s="3">
         <v>15745800</v>
@@ -4906,25 +4906,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21265400</v>
+        <v>20505900</v>
       </c>
       <c r="E76" s="3">
-        <v>20629700</v>
+        <v>19892900</v>
       </c>
       <c r="F76" s="3">
-        <v>19750800</v>
+        <v>19045400</v>
       </c>
       <c r="G76" s="3">
-        <v>19365000</v>
+        <v>18673400</v>
       </c>
       <c r="H76" s="3">
-        <v>19112700</v>
+        <v>18430100</v>
       </c>
       <c r="I76" s="3">
-        <v>18733000</v>
+        <v>18064000</v>
       </c>
       <c r="J76" s="3">
-        <v>18332300</v>
+        <v>17677500</v>
       </c>
       <c r="K76" s="3">
         <v>18283800</v>
@@ -5115,25 +5115,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>639100</v>
+        <v>616300</v>
       </c>
       <c r="E81" s="3">
-        <v>618900</v>
+        <v>596800</v>
       </c>
       <c r="F81" s="3">
-        <v>547100</v>
+        <v>527600</v>
       </c>
       <c r="G81" s="3">
-        <v>127900</v>
+        <v>123300</v>
       </c>
       <c r="H81" s="3">
-        <v>391400</v>
+        <v>377400</v>
       </c>
       <c r="I81" s="3">
-        <v>109600</v>
+        <v>105700</v>
       </c>
       <c r="J81" s="3">
-        <v>428200</v>
+        <v>412900</v>
       </c>
       <c r="K81" s="3">
         <v>174900</v>
@@ -5209,25 +5209,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>167200</v>
+        <v>161200</v>
       </c>
       <c r="E83" s="3">
-        <v>206700</v>
+        <v>199300</v>
       </c>
       <c r="F83" s="3">
-        <v>116700</v>
+        <v>112600</v>
       </c>
       <c r="G83" s="3">
-        <v>114900</v>
+        <v>110800</v>
       </c>
       <c r="H83" s="3">
-        <v>110800</v>
+        <v>106800</v>
       </c>
       <c r="I83" s="3">
-        <v>107700</v>
+        <v>103900</v>
       </c>
       <c r="J83" s="3">
-        <v>116400</v>
+        <v>112300</v>
       </c>
       <c r="K83" s="3">
         <v>120400</v>
@@ -5617,25 +5617,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2897100</v>
+        <v>2793700</v>
       </c>
       <c r="E89" s="3">
-        <v>-5160200</v>
+        <v>-4975900</v>
       </c>
       <c r="F89" s="3">
-        <v>944100</v>
+        <v>910400</v>
       </c>
       <c r="G89" s="3">
-        <v>1754800</v>
+        <v>1692100</v>
       </c>
       <c r="H89" s="3">
-        <v>-836200</v>
+        <v>-806300</v>
       </c>
       <c r="I89" s="3">
-        <v>2965700</v>
+        <v>2859800</v>
       </c>
       <c r="J89" s="3">
-        <v>-855300</v>
+        <v>-824700</v>
       </c>
       <c r="K89" s="3">
         <v>-153300</v>
@@ -5711,25 +5711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34300</v>
+        <v>-33100</v>
       </c>
       <c r="E91" s="3">
-        <v>-17800</v>
+        <v>-17200</v>
       </c>
       <c r="F91" s="3">
-        <v>-16200</v>
+        <v>-15600</v>
       </c>
       <c r="G91" s="3">
-        <v>-49500</v>
+        <v>-47700</v>
       </c>
       <c r="H91" s="3">
-        <v>-27900</v>
+        <v>-26900</v>
       </c>
       <c r="I91" s="3">
-        <v>-27000</v>
+        <v>-26000</v>
       </c>
       <c r="J91" s="3">
-        <v>-21100</v>
+        <v>-20300</v>
       </c>
       <c r="K91" s="3">
         <v>-190900</v>
@@ -5915,25 +5915,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4370500</v>
+        <v>-4214400</v>
       </c>
       <c r="E94" s="3">
-        <v>1259900</v>
+        <v>1214900</v>
       </c>
       <c r="F94" s="3">
-        <v>-821100</v>
+        <v>-791800</v>
       </c>
       <c r="G94" s="3">
-        <v>-414500</v>
+        <v>-399700</v>
       </c>
       <c r="H94" s="3">
-        <v>-135800</v>
+        <v>-130900</v>
       </c>
       <c r="I94" s="3">
-        <v>-486700</v>
+        <v>-469300</v>
       </c>
       <c r="J94" s="3">
-        <v>-186500</v>
+        <v>-179800</v>
       </c>
       <c r="K94" s="3">
         <v>-962200</v>
@@ -6009,7 +6009,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-91000</v>
+        <v>-87800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6281,25 +6281,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1573200</v>
+        <v>1517000</v>
       </c>
       <c r="E100" s="3">
-        <v>3260300</v>
+        <v>3143900</v>
       </c>
       <c r="F100" s="3">
-        <v>514400</v>
+        <v>496000</v>
       </c>
       <c r="G100" s="3">
-        <v>297100</v>
+        <v>286500</v>
       </c>
       <c r="H100" s="3">
-        <v>604200</v>
+        <v>582600</v>
       </c>
       <c r="I100" s="3">
-        <v>-2570200</v>
+        <v>-2478400</v>
       </c>
       <c r="J100" s="3">
-        <v>3657400</v>
+        <v>3526800</v>
       </c>
       <c r="K100" s="3">
         <v>-950700</v>
@@ -6349,25 +6349,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>458600</v>
+        <v>442200</v>
       </c>
       <c r="E101" s="3">
-        <v>20300</v>
+        <v>19500</v>
       </c>
       <c r="F101" s="3">
-        <v>335400</v>
+        <v>323400</v>
       </c>
       <c r="G101" s="3">
-        <v>-649000</v>
+        <v>-625800</v>
       </c>
       <c r="H101" s="3">
-        <v>-155900</v>
+        <v>-150300</v>
       </c>
       <c r="I101" s="3">
-        <v>-174400</v>
+        <v>-168200</v>
       </c>
       <c r="J101" s="3">
-        <v>207800</v>
+        <v>200400</v>
       </c>
       <c r="K101" s="3">
         <v>369400</v>
@@ -6417,25 +6417,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>558400</v>
+        <v>538400</v>
       </c>
       <c r="E102" s="3">
-        <v>-619700</v>
+        <v>-597600</v>
       </c>
       <c r="F102" s="3">
-        <v>972800</v>
+        <v>938100</v>
       </c>
       <c r="G102" s="3">
-        <v>988500</v>
+        <v>953200</v>
       </c>
       <c r="H102" s="3">
-        <v>-523600</v>
+        <v>-504900</v>
       </c>
       <c r="I102" s="3">
-        <v>-265600</v>
+        <v>-256100</v>
       </c>
       <c r="J102" s="3">
-        <v>2823500</v>
+        <v>2722600</v>
       </c>
       <c r="K102" s="3">
         <v>-1696800</v>

--- a/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>WF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,163 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2011200</v>
+        <v>2080000</v>
       </c>
       <c r="E8" s="3">
-        <v>1930500</v>
+        <v>1911900</v>
       </c>
       <c r="F8" s="3">
-        <v>1885000</v>
+        <v>1835100</v>
       </c>
       <c r="G8" s="3">
-        <v>1891700</v>
+        <v>1791900</v>
       </c>
       <c r="H8" s="3">
-        <v>1840700</v>
+        <v>1798300</v>
       </c>
       <c r="I8" s="3">
-        <v>1953900</v>
+        <v>1749800</v>
       </c>
       <c r="J8" s="3">
+        <v>1857400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2028100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2216400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2287800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2353100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2369400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2154000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2006200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1989700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1910800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1912500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1925300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1853100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1833700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1898800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -882,8 +888,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +959,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1044,8 +1057,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,8 +1128,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1180,76 +1199,82 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-105400</v>
+        <v>-100800</v>
       </c>
       <c r="E15" s="3">
-        <v>-105200</v>
+        <v>-100200</v>
       </c>
       <c r="F15" s="3">
-        <v>-110200</v>
+        <v>-100000</v>
       </c>
       <c r="G15" s="3">
-        <v>-108800</v>
+        <v>-104700</v>
       </c>
       <c r="H15" s="3">
-        <v>-104700</v>
+        <v>-103400</v>
       </c>
       <c r="I15" s="3">
-        <v>-101100</v>
+        <v>-99600</v>
       </c>
       <c r="J15" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-109500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-115200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-112100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-104100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-88900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-50500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-47800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-44700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-40700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-39500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-40300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-40800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-44500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-54800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-53700</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>666200</v>
+        <v>796000</v>
       </c>
       <c r="E17" s="3">
-        <v>619500</v>
+        <v>633300</v>
       </c>
       <c r="F17" s="3">
-        <v>684900</v>
+        <v>588900</v>
       </c>
       <c r="G17" s="3">
-        <v>796800</v>
+        <v>651100</v>
       </c>
       <c r="H17" s="3">
-        <v>758500</v>
+        <v>757400</v>
       </c>
       <c r="I17" s="3">
-        <v>1016400</v>
+        <v>721100</v>
       </c>
       <c r="J17" s="3">
+        <v>966200</v>
+      </c>
+      <c r="K17" s="3">
         <v>926000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1019500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1190700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1111900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1098300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1157200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>918800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>752200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>877900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1026000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>926800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>906500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>830000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>903100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>963600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1345000</v>
+        <v>1284000</v>
       </c>
       <c r="E18" s="3">
-        <v>1311000</v>
+        <v>1278600</v>
       </c>
       <c r="F18" s="3">
-        <v>1200100</v>
+        <v>1246200</v>
       </c>
       <c r="G18" s="3">
-        <v>1094900</v>
+        <v>1140900</v>
       </c>
       <c r="H18" s="3">
-        <v>1082100</v>
+        <v>1040800</v>
       </c>
       <c r="I18" s="3">
-        <v>937500</v>
+        <v>1028700</v>
       </c>
       <c r="J18" s="3">
+        <v>891200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1102100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1196900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1097100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1241200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1271100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>996800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1087400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1237400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1032900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>886500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>998500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>946600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1003700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>995700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>934400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,144 +1465,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-425700</v>
+        <v>-824700</v>
       </c>
       <c r="E20" s="3">
-        <v>-439400</v>
+        <v>-404700</v>
       </c>
       <c r="F20" s="3">
-        <v>-437300</v>
+        <v>-417700</v>
       </c>
       <c r="G20" s="3">
-        <v>-858900</v>
+        <v>-415700</v>
       </c>
       <c r="H20" s="3">
-        <v>-534600</v>
+        <v>-816400</v>
       </c>
       <c r="I20" s="3">
-        <v>-709700</v>
+        <v>-508200</v>
       </c>
       <c r="J20" s="3">
+        <v>-674600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-492400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-920900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-527400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-447200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-519600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-847700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-418500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-401200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-355800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-756300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-671500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-417500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-274500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-821100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-531000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1080500</v>
+        <v>619400</v>
       </c>
       <c r="E21" s="3">
-        <v>1070800</v>
+        <v>1027200</v>
       </c>
       <c r="F21" s="3">
-        <v>875400</v>
+        <v>1017900</v>
       </c>
       <c r="G21" s="3">
-        <v>346900</v>
+        <v>832200</v>
       </c>
       <c r="H21" s="3">
-        <v>654400</v>
+        <v>329800</v>
       </c>
       <c r="I21" s="3">
-        <v>331700</v>
+        <v>622000</v>
       </c>
       <c r="J21" s="3">
+        <v>315300</v>
+      </c>
+      <c r="K21" s="3">
         <v>721900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>396300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>686600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>902900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>845100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>210800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>727400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>892200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>727700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>180100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>377800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>580800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>784400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>229400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>457200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1637,144 +1676,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>919300</v>
+        <v>459300</v>
       </c>
       <c r="E23" s="3">
-        <v>871500</v>
+        <v>873900</v>
       </c>
       <c r="F23" s="3">
-        <v>762800</v>
+        <v>828500</v>
       </c>
       <c r="G23" s="3">
-        <v>236100</v>
+        <v>725200</v>
       </c>
       <c r="H23" s="3">
-        <v>547500</v>
+        <v>224400</v>
       </c>
       <c r="I23" s="3">
-        <v>227800</v>
+        <v>520500</v>
       </c>
       <c r="J23" s="3">
+        <v>216600</v>
+      </c>
+      <c r="K23" s="3">
         <v>609600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>276000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>569700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>794000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>751500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>149100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>668900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>836200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>677100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>130200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>327000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>529200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>729200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>174600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>403400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>251600</v>
+        <v>116100</v>
       </c>
       <c r="E24" s="3">
-        <v>208700</v>
+        <v>239200</v>
       </c>
       <c r="F24" s="3">
-        <v>180500</v>
+        <v>198400</v>
       </c>
       <c r="G24" s="3">
-        <v>58300</v>
+        <v>171600</v>
       </c>
       <c r="H24" s="3">
-        <v>125000</v>
+        <v>55400</v>
       </c>
       <c r="I24" s="3">
-        <v>52600</v>
+        <v>118800</v>
       </c>
       <c r="J24" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K24" s="3">
         <v>157800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>79200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>115700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>215500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>192300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>39300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>179200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>229900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>177700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>77600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>118800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>163600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>30300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>667800</v>
+        <v>343200</v>
       </c>
       <c r="E26" s="3">
-        <v>662900</v>
+        <v>634800</v>
       </c>
       <c r="F26" s="3">
-        <v>582300</v>
+        <v>630200</v>
       </c>
       <c r="G26" s="3">
-        <v>177800</v>
+        <v>553500</v>
       </c>
       <c r="H26" s="3">
-        <v>422600</v>
+        <v>169000</v>
       </c>
       <c r="I26" s="3">
-        <v>175200</v>
+        <v>401700</v>
       </c>
       <c r="J26" s="3">
+        <v>166500</v>
+      </c>
+      <c r="K26" s="3">
         <v>451800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>196800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>454000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>578500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>559200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>109900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>489700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>606300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>499400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>121100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>249400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>410300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>565600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>144300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>323500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>616300</v>
+        <v>286900</v>
       </c>
       <c r="E27" s="3">
-        <v>596800</v>
+        <v>585900</v>
       </c>
       <c r="F27" s="3">
-        <v>527600</v>
+        <v>567400</v>
       </c>
       <c r="G27" s="3">
-        <v>123300</v>
+        <v>501500</v>
       </c>
       <c r="H27" s="3">
-        <v>377400</v>
+        <v>117200</v>
       </c>
       <c r="I27" s="3">
-        <v>105700</v>
+        <v>358800</v>
       </c>
       <c r="J27" s="3">
+        <v>100500</v>
+      </c>
+      <c r="K27" s="3">
         <v>412900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>174900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>410100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>537700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>517500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>76800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>453900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>569900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>463600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>84900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>212100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>369000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>517600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>88500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,8 +2102,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2113,8 +2173,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,144 +2315,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>425700</v>
+        <v>824700</v>
       </c>
       <c r="E32" s="3">
-        <v>439400</v>
+        <v>404700</v>
       </c>
       <c r="F32" s="3">
-        <v>437300</v>
+        <v>417700</v>
       </c>
       <c r="G32" s="3">
-        <v>858900</v>
+        <v>415700</v>
       </c>
       <c r="H32" s="3">
-        <v>534600</v>
+        <v>816400</v>
       </c>
       <c r="I32" s="3">
-        <v>709700</v>
+        <v>508200</v>
       </c>
       <c r="J32" s="3">
+        <v>674600</v>
+      </c>
+      <c r="K32" s="3">
         <v>492400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>920900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>527400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>447200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>519600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>847700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>418500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>401200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>355800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>756300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>671500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>417500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>274500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>821100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>616300</v>
+        <v>286900</v>
       </c>
       <c r="E33" s="3">
-        <v>596800</v>
+        <v>585900</v>
       </c>
       <c r="F33" s="3">
-        <v>527600</v>
+        <v>567400</v>
       </c>
       <c r="G33" s="3">
-        <v>123300</v>
+        <v>501500</v>
       </c>
       <c r="H33" s="3">
-        <v>377400</v>
+        <v>117200</v>
       </c>
       <c r="I33" s="3">
-        <v>105700</v>
+        <v>358800</v>
       </c>
       <c r="J33" s="3">
+        <v>100500</v>
+      </c>
+      <c r="K33" s="3">
         <v>412900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>174900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>410100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>537700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>517500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>76800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>453900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>569900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>463600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>84900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>212100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>369000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>517600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>88500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>616300</v>
+        <v>286900</v>
       </c>
       <c r="E35" s="3">
-        <v>596800</v>
+        <v>585900</v>
       </c>
       <c r="F35" s="3">
-        <v>527600</v>
+        <v>567400</v>
       </c>
       <c r="G35" s="3">
-        <v>123300</v>
+        <v>501500</v>
       </c>
       <c r="H35" s="3">
-        <v>377400</v>
+        <v>117200</v>
       </c>
       <c r="I35" s="3">
-        <v>105700</v>
+        <v>358800</v>
       </c>
       <c r="J35" s="3">
+        <v>100500</v>
+      </c>
+      <c r="K35" s="3">
         <v>412900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>174900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>410100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>537700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>517500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>76800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>453900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>569900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>463600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>84900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>212100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>369000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>517600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>88500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,144 +2731,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8525000</v>
+        <v>5703500</v>
       </c>
       <c r="E41" s="3">
-        <v>7888200</v>
+        <v>8104000</v>
       </c>
       <c r="F41" s="3">
-        <v>8753400</v>
+        <v>7498700</v>
       </c>
       <c r="G41" s="3">
-        <v>7646600</v>
+        <v>8321100</v>
       </c>
       <c r="H41" s="3">
-        <v>6787500</v>
+        <v>7269000</v>
       </c>
       <c r="I41" s="3">
-        <v>7295000</v>
+        <v>6452400</v>
       </c>
       <c r="J41" s="3">
+        <v>6934700</v>
+      </c>
+      <c r="K41" s="3">
         <v>7810800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5327800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7069900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5777500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4361000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5329900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4608100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4589200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4387400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5323900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5337600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5780800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6495200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6385500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7024600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>41392200</v>
+        <v>45259000</v>
       </c>
       <c r="E42" s="3">
-        <v>36504600</v>
+        <v>39348100</v>
       </c>
       <c r="F42" s="3">
-        <v>35042300</v>
+        <v>34702000</v>
       </c>
       <c r="G42" s="3">
-        <v>42875600</v>
+        <v>33311800</v>
       </c>
       <c r="H42" s="3">
-        <v>35002300</v>
+        <v>40758300</v>
       </c>
       <c r="I42" s="3">
-        <v>38287300</v>
+        <v>33273800</v>
       </c>
       <c r="J42" s="3">
+        <v>36396600</v>
+      </c>
+      <c r="K42" s="3">
         <v>38606200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>37680800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>39232200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>36892000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>30905300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>29776700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>20883600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>22286700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>21840100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>20932300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>12488600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>14955900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>13350900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>14204100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>16154100</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2850,8 +2942,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2918,8 +3013,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2986,8 +3084,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3054,212 +3155,224 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>967700</v>
+        <v>1028100</v>
       </c>
       <c r="E47" s="3">
-        <v>952000</v>
+        <v>919900</v>
       </c>
       <c r="F47" s="3">
-        <v>849100</v>
+        <v>905000</v>
       </c>
       <c r="G47" s="3">
-        <v>804600</v>
+        <v>807200</v>
       </c>
       <c r="H47" s="3">
-        <v>872300</v>
+        <v>764800</v>
       </c>
       <c r="I47" s="3">
-        <v>751800</v>
+        <v>829200</v>
       </c>
       <c r="J47" s="3">
+        <v>714700</v>
+      </c>
+      <c r="K47" s="3">
         <v>674300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>685400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>322100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>311500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>316200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>303600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>276700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>346900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>348200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>367000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>490900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>326300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>351100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>395100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2917100</v>
+        <v>2744400</v>
       </c>
       <c r="E48" s="3">
-        <v>2897200</v>
+        <v>2773000</v>
       </c>
       <c r="F48" s="3">
-        <v>2956000</v>
+        <v>2754200</v>
       </c>
       <c r="G48" s="3">
-        <v>2976500</v>
+        <v>2810100</v>
       </c>
       <c r="H48" s="3">
-        <v>2907900</v>
+        <v>2829500</v>
       </c>
       <c r="I48" s="3">
-        <v>2935300</v>
+        <v>2764300</v>
       </c>
       <c r="J48" s="3">
+        <v>2790300</v>
+      </c>
+      <c r="K48" s="3">
         <v>2961700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3098200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3089800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3058200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3080600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2368100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2284800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2378800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2384000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2507000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2509800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2480800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2470200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2534900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2525400</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>633300</v>
+        <v>604700</v>
       </c>
       <c r="E49" s="3">
-        <v>628200</v>
+        <v>602000</v>
       </c>
       <c r="F49" s="3">
-        <v>637700</v>
+        <v>597200</v>
       </c>
       <c r="G49" s="3">
-        <v>641600</v>
+        <v>606300</v>
       </c>
       <c r="H49" s="3">
-        <v>647800</v>
+        <v>609900</v>
       </c>
       <c r="I49" s="3">
-        <v>664500</v>
+        <v>615800</v>
       </c>
       <c r="J49" s="3">
+        <v>631700</v>
+      </c>
+      <c r="K49" s="3">
         <v>668000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>717500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>590200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>565800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>588900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>493300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>502400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>549000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>452700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>456400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>461900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>446100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>415100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>435400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>376700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,76 +3510,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>44300</v>
+        <v>60700</v>
       </c>
       <c r="E52" s="3">
-        <v>60500</v>
+        <v>42200</v>
       </c>
       <c r="F52" s="3">
-        <v>80600</v>
+        <v>57500</v>
       </c>
       <c r="G52" s="3">
-        <v>90500</v>
+        <v>76600</v>
       </c>
       <c r="H52" s="3">
-        <v>78400</v>
+        <v>86000</v>
       </c>
       <c r="I52" s="3">
-        <v>39700</v>
+        <v>74500</v>
       </c>
       <c r="J52" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K52" s="3">
         <v>38200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>44800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>82300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>69500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>68200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>120400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>36800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>91100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>177600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>289300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>234800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>221100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>262700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>274800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>143800</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>354929800</v>
+        <v>344331600</v>
       </c>
       <c r="E54" s="3">
-        <v>341229200</v>
+        <v>337402400</v>
       </c>
       <c r="F54" s="3">
-        <v>337044600</v>
+        <v>324378400</v>
       </c>
       <c r="G54" s="3">
-        <v>323255600</v>
+        <v>320400400</v>
       </c>
       <c r="H54" s="3">
-        <v>308479500</v>
+        <v>307292400</v>
       </c>
       <c r="I54" s="3">
-        <v>307862700</v>
+        <v>293246000</v>
       </c>
       <c r="J54" s="3">
+        <v>292659600</v>
+      </c>
+      <c r="K54" s="3">
         <v>306353500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>307683600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>314996600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>316273500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>314085600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>285975600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>267139300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>274311500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>273668600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>278340000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>279730100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>278137400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>273600800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>279614500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>281548700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,76 +3779,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8594100</v>
+        <v>11133900</v>
       </c>
       <c r="E57" s="3">
-        <v>10226400</v>
+        <v>8169700</v>
       </c>
       <c r="F57" s="3">
-        <v>8752100</v>
+        <v>9721400</v>
       </c>
       <c r="G57" s="3">
-        <v>4048400</v>
+        <v>8319900</v>
       </c>
       <c r="H57" s="3">
-        <v>7922000</v>
+        <v>3848500</v>
       </c>
       <c r="I57" s="3">
-        <v>8906800</v>
+        <v>7530800</v>
       </c>
       <c r="J57" s="3">
+        <v>8467000</v>
+      </c>
+      <c r="K57" s="3">
         <v>9538600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7264700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13339700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15138200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14778600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10988500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12068900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11638400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12317300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5801500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13814400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>14756900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10823000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>13329400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>15356600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3786,76 +3919,82 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1661700</v>
+        <v>2044500</v>
       </c>
       <c r="E59" s="3">
-        <v>1562300</v>
+        <v>1579700</v>
       </c>
       <c r="F59" s="3">
-        <v>1752300</v>
+        <v>1485100</v>
       </c>
       <c r="G59" s="3">
-        <v>1960300</v>
+        <v>1665700</v>
       </c>
       <c r="H59" s="3">
-        <v>1600800</v>
+        <v>1863500</v>
       </c>
       <c r="I59" s="3">
-        <v>1625600</v>
+        <v>1521700</v>
       </c>
       <c r="J59" s="3">
+        <v>1545300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1892000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2294100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2199800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2064700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2149400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1989900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1798500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1649500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1642100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2008600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2057400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1681400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1880000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2004400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1813400</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3922,144 +4061,153 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>53282100</v>
+        <v>52880100</v>
       </c>
       <c r="E61" s="3">
-        <v>50759200</v>
+        <v>50650900</v>
       </c>
       <c r="F61" s="3">
-        <v>47428700</v>
+        <v>48252600</v>
       </c>
       <c r="G61" s="3">
-        <v>46614800</v>
+        <v>45086600</v>
       </c>
       <c r="H61" s="3">
-        <v>40216600</v>
+        <v>44312800</v>
       </c>
       <c r="I61" s="3">
-        <v>41251900</v>
+        <v>38230600</v>
       </c>
       <c r="J61" s="3">
+        <v>39214800</v>
+      </c>
+      <c r="K61" s="3">
         <v>43080800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>42129500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>44185000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>43142100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>40307800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>36868700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>34955700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>35115500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>34009900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>36941800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>37408900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>35000000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>33280700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>34538700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>33926000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>716400</v>
+        <v>624500</v>
       </c>
       <c r="E62" s="3">
-        <v>669900</v>
+        <v>681000</v>
       </c>
       <c r="F62" s="3">
-        <v>593600</v>
+        <v>636800</v>
       </c>
       <c r="G62" s="3">
-        <v>578400</v>
+        <v>564200</v>
       </c>
       <c r="H62" s="3">
-        <v>758100</v>
+        <v>549900</v>
       </c>
       <c r="I62" s="3">
-        <v>727400</v>
+        <v>720700</v>
       </c>
       <c r="J62" s="3">
+        <v>691400</v>
+      </c>
+      <c r="K62" s="3">
         <v>680000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>570200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>714600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>648100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>618700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>520300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>418500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>420800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>527700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>419200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>395900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>382900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>400700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>463600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>459900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>334423900</v>
+        <v>324433200</v>
       </c>
       <c r="E66" s="3">
-        <v>321336300</v>
+        <v>317909100</v>
       </c>
       <c r="F66" s="3">
-        <v>317999100</v>
+        <v>305467800</v>
       </c>
       <c r="G66" s="3">
-        <v>304582200</v>
+        <v>302295400</v>
       </c>
       <c r="H66" s="3">
-        <v>290049500</v>
+        <v>289541100</v>
       </c>
       <c r="I66" s="3">
-        <v>289798700</v>
+        <v>275726000</v>
       </c>
       <c r="J66" s="3">
+        <v>275487700</v>
+      </c>
+      <c r="K66" s="3">
         <v>288675900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>289399800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>297278600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>299163500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>296968200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>267714100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>249559900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>256847800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>256582900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>260418000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>261733600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>260311800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>255640700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>261266900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>263136400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4656,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4560,8 +4727,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4798,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17025400</v>
+        <v>16472300</v>
       </c>
       <c r="E72" s="3">
-        <v>16522700</v>
+        <v>16184700</v>
       </c>
       <c r="F72" s="3">
-        <v>15898200</v>
+        <v>15706700</v>
       </c>
       <c r="G72" s="3">
-        <v>15607300</v>
+        <v>15113100</v>
       </c>
       <c r="H72" s="3">
-        <v>15484000</v>
+        <v>14836600</v>
       </c>
       <c r="I72" s="3">
-        <v>15108300</v>
+        <v>14719300</v>
       </c>
       <c r="J72" s="3">
+        <v>14362200</v>
+      </c>
+      <c r="K72" s="3">
         <v>15002800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15745800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15573800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15698600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15678000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14384700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13795900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13837700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13273900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13745600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13660700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13507800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13138800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13150400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13062800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20505900</v>
+        <v>19898400</v>
       </c>
       <c r="E76" s="3">
-        <v>19892900</v>
+        <v>19493300</v>
       </c>
       <c r="F76" s="3">
-        <v>19045400</v>
+        <v>18910500</v>
       </c>
       <c r="G76" s="3">
-        <v>18673400</v>
+        <v>18104900</v>
       </c>
       <c r="H76" s="3">
-        <v>18430100</v>
+        <v>17751300</v>
       </c>
       <c r="I76" s="3">
-        <v>18064000</v>
+        <v>17519900</v>
       </c>
       <c r="J76" s="3">
+        <v>17171900</v>
+      </c>
+      <c r="K76" s="3">
         <v>17677500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18283800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17718000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17110000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17117400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18261500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17579400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17463800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17085700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17922000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>17996500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17825600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>17960100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18347500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18412300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>616300</v>
+        <v>286900</v>
       </c>
       <c r="E81" s="3">
-        <v>596800</v>
+        <v>585900</v>
       </c>
       <c r="F81" s="3">
-        <v>527600</v>
+        <v>567400</v>
       </c>
       <c r="G81" s="3">
-        <v>123300</v>
+        <v>501500</v>
       </c>
       <c r="H81" s="3">
-        <v>377400</v>
+        <v>117200</v>
       </c>
       <c r="I81" s="3">
-        <v>105700</v>
+        <v>358800</v>
       </c>
       <c r="J81" s="3">
+        <v>100500</v>
+      </c>
+      <c r="K81" s="3">
         <v>412900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>174900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>410100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>537700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>517500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>76800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>453900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>569900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>463600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>84900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>212100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>369000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>517600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>88500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,76 +5400,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>161200</v>
+        <v>160100</v>
       </c>
       <c r="E83" s="3">
-        <v>199300</v>
+        <v>153200</v>
       </c>
       <c r="F83" s="3">
-        <v>112600</v>
+        <v>189400</v>
       </c>
       <c r="G83" s="3">
-        <v>110800</v>
+        <v>107000</v>
       </c>
       <c r="H83" s="3">
-        <v>106800</v>
+        <v>105400</v>
       </c>
       <c r="I83" s="3">
-        <v>103900</v>
+        <v>101500</v>
       </c>
       <c r="J83" s="3">
+        <v>98700</v>
+      </c>
+      <c r="K83" s="3">
         <v>112300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>120400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>116900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>108900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>93600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>61600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>58600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>56000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>50600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>49900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>50800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>51600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>55200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>54800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2793700</v>
+        <v>-177700</v>
       </c>
       <c r="E89" s="3">
-        <v>-4975900</v>
+        <v>2655700</v>
       </c>
       <c r="F89" s="3">
-        <v>910400</v>
+        <v>-4730200</v>
       </c>
       <c r="G89" s="3">
-        <v>1692100</v>
+        <v>865500</v>
       </c>
       <c r="H89" s="3">
-        <v>-806300</v>
+        <v>1608600</v>
       </c>
       <c r="I89" s="3">
-        <v>2859800</v>
+        <v>-766500</v>
       </c>
       <c r="J89" s="3">
+        <v>2718500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-824700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-153300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-428600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3501700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1296100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5231600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>908000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>643600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>877700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-506300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2456000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-340700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1561500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>108800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3807600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,76 +5924,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-33100</v>
+        <v>-29200</v>
       </c>
       <c r="E91" s="3">
-        <v>-17200</v>
+        <v>-31500</v>
       </c>
       <c r="F91" s="3">
-        <v>-15600</v>
+        <v>-16300</v>
       </c>
       <c r="G91" s="3">
-        <v>-47700</v>
+        <v>-14800</v>
       </c>
       <c r="H91" s="3">
-        <v>-26900</v>
+        <v>-45300</v>
       </c>
       <c r="I91" s="3">
-        <v>-26000</v>
+        <v>-25600</v>
       </c>
       <c r="J91" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-20300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-190900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-91000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-55400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-43000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-25100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-57300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-37900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-22400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-111600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-90400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4214400</v>
+        <v>-4609400</v>
       </c>
       <c r="E94" s="3">
-        <v>1214900</v>
+        <v>-4006300</v>
       </c>
       <c r="F94" s="3">
-        <v>-791800</v>
+        <v>1154900</v>
       </c>
       <c r="G94" s="3">
-        <v>-399700</v>
+        <v>-752700</v>
       </c>
       <c r="H94" s="3">
-        <v>-130900</v>
+        <v>-380000</v>
       </c>
       <c r="I94" s="3">
-        <v>-469300</v>
+        <v>-124500</v>
       </c>
       <c r="J94" s="3">
+        <v>-446100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-179800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-962200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-913600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5520900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-97900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5105000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2452600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1063800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-587600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1277600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-195600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>183200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>392500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2371700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>694800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,16 +6235,17 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-87800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-83400</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -6057,22 +6290,25 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-59200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-237000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-38100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-22800</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,208 +6517,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1517000</v>
+        <v>2086000</v>
       </c>
       <c r="E100" s="3">
-        <v>3143900</v>
+        <v>1442100</v>
       </c>
       <c r="F100" s="3">
-        <v>496000</v>
+        <v>2988600</v>
       </c>
       <c r="G100" s="3">
-        <v>286500</v>
+        <v>471500</v>
       </c>
       <c r="H100" s="3">
-        <v>582600</v>
+        <v>272400</v>
       </c>
       <c r="I100" s="3">
-        <v>-2478400</v>
+        <v>553800</v>
       </c>
       <c r="J100" s="3">
+        <v>-2356000</v>
+      </c>
+      <c r="K100" s="3">
         <v>3526800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-950700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3000500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3588600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-289800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>491400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1689200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>354700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1323700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-309500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2140800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-384900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1500100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1503800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1778900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>442200</v>
+        <v>-1800</v>
       </c>
       <c r="E101" s="3">
-        <v>19500</v>
+        <v>420400</v>
       </c>
       <c r="F101" s="3">
-        <v>323400</v>
+        <v>18600</v>
       </c>
       <c r="G101" s="3">
-        <v>-625800</v>
+        <v>307500</v>
       </c>
       <c r="H101" s="3">
-        <v>-150300</v>
+        <v>-594900</v>
       </c>
       <c r="I101" s="3">
-        <v>-168200</v>
+        <v>-142900</v>
       </c>
       <c r="J101" s="3">
+        <v>-159900</v>
+      </c>
+      <c r="K101" s="3">
         <v>200400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>369400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-340600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>51200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>90500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-76600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>218900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>50500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-377500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>14000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>8400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-108300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>138000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-105900</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>538400</v>
+        <v>-2702900</v>
       </c>
       <c r="E102" s="3">
-        <v>-597600</v>
+        <v>511800</v>
       </c>
       <c r="F102" s="3">
-        <v>938100</v>
+        <v>-568100</v>
       </c>
       <c r="G102" s="3">
-        <v>953200</v>
+        <v>891700</v>
       </c>
       <c r="H102" s="3">
-        <v>-504900</v>
+        <v>906100</v>
       </c>
       <c r="I102" s="3">
-        <v>-256100</v>
+        <v>-480000</v>
       </c>
       <c r="J102" s="3">
+        <v>-243500</v>
+      </c>
+      <c r="K102" s="3">
         <v>2722600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1696800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1317700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1620600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1593300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>624400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>68000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>153400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-983000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>84300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-496900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-534100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>345600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-621200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2617600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>WF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,175 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2080000</v>
+        <v>2454500</v>
       </c>
       <c r="E8" s="3">
-        <v>1911900</v>
+        <v>2205600</v>
       </c>
       <c r="F8" s="3">
-        <v>1835100</v>
+        <v>2026000</v>
       </c>
       <c r="G8" s="3">
-        <v>1791900</v>
+        <v>1862200</v>
       </c>
       <c r="H8" s="3">
-        <v>1798300</v>
+        <v>1787500</v>
       </c>
       <c r="I8" s="3">
+        <v>1745400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1751600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1749800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1857400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2028100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2216400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2287800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2353100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2369400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2154000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2006200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1989700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1910800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1912500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1925300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1853100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1833700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1898800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -891,8 +903,14 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,8 +980,14 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,8 +1013,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1086,14 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,8 +1163,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1202,79 +1240,91 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-100800</v>
+        <v>-99400</v>
       </c>
       <c r="E15" s="3">
-        <v>-100200</v>
+        <v>-98800</v>
       </c>
       <c r="F15" s="3">
-        <v>-100000</v>
+        <v>-98200</v>
       </c>
       <c r="G15" s="3">
-        <v>-104700</v>
+        <v>-97600</v>
       </c>
       <c r="H15" s="3">
-        <v>-103400</v>
+        <v>-97400</v>
       </c>
       <c r="I15" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-100700</v>
+      </c>
+      <c r="K15" s="3">
         <v>-99600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-96100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-109500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-115200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-112100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-104100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-88900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-50500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-47800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-44700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-40700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>-39500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>-40300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>-40800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>-44500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>-54800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>-53700</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1347,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>796000</v>
+        <v>1106700</v>
       </c>
       <c r="E17" s="3">
-        <v>633300</v>
+        <v>839000</v>
       </c>
       <c r="F17" s="3">
-        <v>588900</v>
+        <v>775300</v>
       </c>
       <c r="G17" s="3">
-        <v>651100</v>
+        <v>616800</v>
       </c>
       <c r="H17" s="3">
-        <v>757400</v>
+        <v>573600</v>
       </c>
       <c r="I17" s="3">
+        <v>634200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>737800</v>
+      </c>
+      <c r="K17" s="3">
         <v>721100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>966200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>926000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1019500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1190700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1111900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1098300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1157200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>918800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>752200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>877900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1026000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>926800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>906500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>830000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>903100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>963600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1284000</v>
+        <v>1347800</v>
       </c>
       <c r="E18" s="3">
-        <v>1278600</v>
+        <v>1366600</v>
       </c>
       <c r="F18" s="3">
-        <v>1246200</v>
+        <v>1250700</v>
       </c>
       <c r="G18" s="3">
-        <v>1140900</v>
+        <v>1245400</v>
       </c>
       <c r="H18" s="3">
-        <v>1040800</v>
+        <v>1213900</v>
       </c>
       <c r="I18" s="3">
+        <v>1111200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1013800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1028700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>891200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1102100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1196900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1097100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1241200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1271100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>996800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1087400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1237400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1032900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>886500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>998500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>946600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1003700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>995700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>934400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,150 +1530,164 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-824700</v>
+        <v>-370700</v>
       </c>
       <c r="E20" s="3">
-        <v>-404700</v>
+        <v>-492800</v>
       </c>
       <c r="F20" s="3">
-        <v>-417700</v>
+        <v>-803300</v>
       </c>
       <c r="G20" s="3">
-        <v>-415700</v>
+        <v>-394200</v>
       </c>
       <c r="H20" s="3">
-        <v>-816400</v>
+        <v>-406900</v>
       </c>
       <c r="I20" s="3">
+        <v>-404900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-795200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-508200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-674600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-492400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-920900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-527400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-447200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-519600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-847700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-418500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-401200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-355800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-756300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-671500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-417500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-274500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-821100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-531000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>619400</v>
+        <v>1150400</v>
       </c>
       <c r="E21" s="3">
-        <v>1027200</v>
+        <v>1038000</v>
       </c>
       <c r="F21" s="3">
-        <v>1017900</v>
+        <v>603300</v>
       </c>
       <c r="G21" s="3">
-        <v>832200</v>
+        <v>1000500</v>
       </c>
       <c r="H21" s="3">
-        <v>329800</v>
+        <v>991500</v>
       </c>
       <c r="I21" s="3">
+        <v>810600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>321200</v>
+      </c>
+      <c r="K21" s="3">
         <v>622000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>315300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>721900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>396300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>686600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>902900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>845100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>210800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>727400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>892200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>727700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>180100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>377800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>580800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>784400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>229400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>457200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1679,150 +1757,168 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>459300</v>
+        <v>977100</v>
       </c>
       <c r="E23" s="3">
-        <v>873900</v>
+        <v>873800</v>
       </c>
       <c r="F23" s="3">
-        <v>828500</v>
+        <v>447400</v>
       </c>
       <c r="G23" s="3">
-        <v>725200</v>
+        <v>851200</v>
       </c>
       <c r="H23" s="3">
-        <v>224400</v>
+        <v>807000</v>
       </c>
       <c r="I23" s="3">
+        <v>706300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>218600</v>
+      </c>
+      <c r="K23" s="3">
         <v>520500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>216600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>609600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>276000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>569700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>794000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>751500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>149100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>668900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>836200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>677100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>130200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>327000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>529200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>729200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>174600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>403400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>116100</v>
+        <v>237000</v>
       </c>
       <c r="E24" s="3">
-        <v>239200</v>
+        <v>219500</v>
       </c>
       <c r="F24" s="3">
-        <v>198400</v>
+        <v>113100</v>
       </c>
       <c r="G24" s="3">
-        <v>171600</v>
+        <v>232900</v>
       </c>
       <c r="H24" s="3">
-        <v>55400</v>
+        <v>193200</v>
       </c>
       <c r="I24" s="3">
+        <v>167200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>53900</v>
+      </c>
+      <c r="K24" s="3">
         <v>118800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>50000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>157800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>79200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>115700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>215500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>192300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>39300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>179200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>229900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>177700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>9000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>77600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>118800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>163600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>30300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,150 +1988,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>343200</v>
+        <v>740100</v>
       </c>
       <c r="E26" s="3">
-        <v>634800</v>
+        <v>654400</v>
       </c>
       <c r="F26" s="3">
-        <v>630200</v>
+        <v>334300</v>
       </c>
       <c r="G26" s="3">
-        <v>553500</v>
+        <v>618300</v>
       </c>
       <c r="H26" s="3">
-        <v>169000</v>
+        <v>613800</v>
       </c>
       <c r="I26" s="3">
+        <v>539200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>164600</v>
+      </c>
+      <c r="K26" s="3">
         <v>401700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>166500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>451800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>196800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>454000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>578500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>559200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>109900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>489700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>606300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>499400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>121100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>249400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>410300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>565600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>144300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>323500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>286900</v>
+        <v>675400</v>
       </c>
       <c r="E27" s="3">
-        <v>585900</v>
+        <v>615000</v>
       </c>
       <c r="F27" s="3">
-        <v>567400</v>
+        <v>279500</v>
       </c>
       <c r="G27" s="3">
-        <v>501500</v>
+        <v>570700</v>
       </c>
       <c r="H27" s="3">
-        <v>117200</v>
+        <v>552600</v>
       </c>
       <c r="I27" s="3">
+        <v>488500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>114200</v>
+      </c>
+      <c r="K27" s="3">
         <v>358800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>100500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>412900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>174900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>410100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>537700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>517500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>76800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>453900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>569900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>463600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>84900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>212100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>369000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>517600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>88500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2105,8 +2219,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2176,8 +2296,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2373,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,150 +2450,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>824700</v>
+        <v>370700</v>
       </c>
       <c r="E32" s="3">
-        <v>404700</v>
+        <v>492800</v>
       </c>
       <c r="F32" s="3">
-        <v>417700</v>
+        <v>803300</v>
       </c>
       <c r="G32" s="3">
-        <v>415700</v>
+        <v>394200</v>
       </c>
       <c r="H32" s="3">
-        <v>816400</v>
+        <v>406900</v>
       </c>
       <c r="I32" s="3">
+        <v>404900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>795200</v>
+      </c>
+      <c r="K32" s="3">
         <v>508200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>674600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>492400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>920900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>527400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>447200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>519600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>847700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>418500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>401200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>355800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>756300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>671500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>417500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>274500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>821100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>286900</v>
+        <v>675400</v>
       </c>
       <c r="E33" s="3">
-        <v>585900</v>
+        <v>615000</v>
       </c>
       <c r="F33" s="3">
-        <v>567400</v>
+        <v>279500</v>
       </c>
       <c r="G33" s="3">
-        <v>501500</v>
+        <v>570700</v>
       </c>
       <c r="H33" s="3">
-        <v>117200</v>
+        <v>552600</v>
       </c>
       <c r="I33" s="3">
+        <v>488500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>114200</v>
+      </c>
+      <c r="K33" s="3">
         <v>358800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>100500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>412900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>174900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>410100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>537700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>517500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>76800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>453900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>569900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>463600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>84900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>212100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>369000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>517600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>88500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2681,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>286900</v>
+        <v>675400</v>
       </c>
       <c r="E35" s="3">
-        <v>585900</v>
+        <v>615000</v>
       </c>
       <c r="F35" s="3">
-        <v>567400</v>
+        <v>279500</v>
       </c>
       <c r="G35" s="3">
-        <v>501500</v>
+        <v>570700</v>
       </c>
       <c r="H35" s="3">
-        <v>117200</v>
+        <v>552600</v>
       </c>
       <c r="I35" s="3">
+        <v>488500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>114200</v>
+      </c>
+      <c r="K35" s="3">
         <v>358800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>100500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>412900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>174900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>410100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>537700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>517500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>76800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>453900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>569900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>463600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>84900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>212100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>369000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>517600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>88500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2873,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,150 +2902,164 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5703500</v>
+        <v>7280000</v>
       </c>
       <c r="E41" s="3">
-        <v>8104000</v>
+        <v>9531300</v>
       </c>
       <c r="F41" s="3">
-        <v>7498700</v>
+        <v>5555400</v>
       </c>
       <c r="G41" s="3">
-        <v>8321100</v>
+        <v>7893500</v>
       </c>
       <c r="H41" s="3">
-        <v>7269000</v>
+        <v>7303900</v>
       </c>
       <c r="I41" s="3">
+        <v>8105000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>7080200</v>
+      </c>
+      <c r="K41" s="3">
         <v>6452400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6934700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7810800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5327800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>7069900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5777500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4361000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5329900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4608100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4589200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4387400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>5323900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>5337600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>5780800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>6495200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>6385500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>7024600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>45259000</v>
+        <v>44316800</v>
       </c>
       <c r="E42" s="3">
-        <v>39348100</v>
+        <v>43457800</v>
       </c>
       <c r="F42" s="3">
-        <v>34702000</v>
+        <v>44083500</v>
       </c>
       <c r="G42" s="3">
-        <v>33311800</v>
+        <v>38326100</v>
       </c>
       <c r="H42" s="3">
-        <v>40758300</v>
+        <v>33800600</v>
       </c>
       <c r="I42" s="3">
+        <v>32446500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>39699700</v>
+      </c>
+      <c r="K42" s="3">
         <v>33273800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>36396600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>38606200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>37680800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>39232200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>36892000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>30905300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>29776700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>20883600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>22286700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>21840100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>20932300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>12488600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>14955900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>13350900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>14204100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>16154100</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2945,8 +3129,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3016,8 +3206,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3087,8 +3283,14 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3158,221 +3360,245 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1028100</v>
+        <v>1021400</v>
       </c>
       <c r="E47" s="3">
-        <v>919900</v>
+        <v>985000</v>
       </c>
       <c r="F47" s="3">
-        <v>905000</v>
+        <v>1001400</v>
       </c>
       <c r="G47" s="3">
-        <v>807200</v>
+        <v>896000</v>
       </c>
       <c r="H47" s="3">
-        <v>764800</v>
+        <v>881500</v>
       </c>
       <c r="I47" s="3">
+        <v>786200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>745000</v>
+      </c>
+      <c r="K47" s="3">
         <v>829200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>714700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>674300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>685400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>322100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>311500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>316200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>303600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>276700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>346900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>348200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>367000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>490900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>326300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>351100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>395100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2744400</v>
+        <v>2653800</v>
       </c>
       <c r="E48" s="3">
-        <v>2773000</v>
+        <v>2659000</v>
       </c>
       <c r="F48" s="3">
-        <v>2754200</v>
+        <v>2673200</v>
       </c>
       <c r="G48" s="3">
-        <v>2810100</v>
+        <v>2701000</v>
       </c>
       <c r="H48" s="3">
-        <v>2829500</v>
+        <v>2682600</v>
       </c>
       <c r="I48" s="3">
+        <v>2737100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2756000</v>
+      </c>
+      <c r="K48" s="3">
         <v>2764300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2790300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2961700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3098200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3089800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3058200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3080600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2368100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2284800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2378800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2384000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2507000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2509800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2480800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2470200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>2534900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>2525400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>604700</v>
+        <v>588700</v>
       </c>
       <c r="E49" s="3">
-        <v>602000</v>
+        <v>592900</v>
       </c>
       <c r="F49" s="3">
-        <v>597200</v>
+        <v>589000</v>
       </c>
       <c r="G49" s="3">
-        <v>606300</v>
+        <v>586400</v>
       </c>
       <c r="H49" s="3">
-        <v>609900</v>
+        <v>581700</v>
       </c>
       <c r="I49" s="3">
+        <v>590500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>594100</v>
+      </c>
+      <c r="K49" s="3">
         <v>615800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>631700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>668000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>717500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>590200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>565800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>588900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>493300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>502400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>549000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>452700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>456400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>461900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>446100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>415100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>435400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>376700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3668,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,79 +3745,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>60700</v>
+        <v>164300</v>
       </c>
       <c r="E52" s="3">
-        <v>42200</v>
+        <v>56900</v>
       </c>
       <c r="F52" s="3">
-        <v>57500</v>
+        <v>59100</v>
       </c>
       <c r="G52" s="3">
-        <v>76600</v>
+        <v>41100</v>
       </c>
       <c r="H52" s="3">
-        <v>86000</v>
+        <v>56000</v>
       </c>
       <c r="I52" s="3">
+        <v>74600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>83800</v>
+      </c>
+      <c r="K52" s="3">
         <v>74500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>37800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>38200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>44800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>82300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>69500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>68200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>120400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>36800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>91100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>177600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>289300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>234800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>221100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>262700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>274800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>143800</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3899,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>344331600</v>
+        <v>363709300</v>
       </c>
       <c r="E54" s="3">
-        <v>337402400</v>
+        <v>349278200</v>
       </c>
       <c r="F54" s="3">
-        <v>324378400</v>
+        <v>335387900</v>
       </c>
       <c r="G54" s="3">
-        <v>320400400</v>
+        <v>328638700</v>
       </c>
       <c r="H54" s="3">
-        <v>307292400</v>
+        <v>315953000</v>
       </c>
       <c r="I54" s="3">
+        <v>312078300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>299310800</v>
+      </c>
+      <c r="K54" s="3">
         <v>293246000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>292659600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>306353500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>307683600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>314996600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>316273500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>314085600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>285975600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>267139300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>274311500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>273668600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>278340000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>279730100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>278137400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>273600800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>279614500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>281548700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +4009,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,79 +4038,87 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11133900</v>
+        <v>12373100</v>
       </c>
       <c r="E57" s="3">
-        <v>8169700</v>
+        <v>10815600</v>
       </c>
       <c r="F57" s="3">
-        <v>9721400</v>
+        <v>10844700</v>
       </c>
       <c r="G57" s="3">
-        <v>8319900</v>
+        <v>7957500</v>
       </c>
       <c r="H57" s="3">
-        <v>3848500</v>
+        <v>9468900</v>
       </c>
       <c r="I57" s="3">
+        <v>8103800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3748600</v>
+      </c>
+      <c r="K57" s="3">
         <v>7530800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8467000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>9538600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7264700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>13339700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>15138200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>14778600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>10988500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>12068900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>11638400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>12317300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>5801500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>13814400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>14756900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>10823000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>13329400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>15356600</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3922,79 +4188,91 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2044500</v>
+        <v>1942400</v>
       </c>
       <c r="E59" s="3">
-        <v>1579700</v>
+        <v>2038700</v>
       </c>
       <c r="F59" s="3">
-        <v>1485100</v>
+        <v>1991300</v>
       </c>
       <c r="G59" s="3">
-        <v>1665700</v>
+        <v>1538600</v>
       </c>
       <c r="H59" s="3">
-        <v>1863500</v>
+        <v>1446500</v>
       </c>
       <c r="I59" s="3">
+        <v>1622500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1815100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1521700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1545300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1892000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2294100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2199800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2064700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2149400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1989900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1798500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1649500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1642100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2008600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2057400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1681400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1880000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2004400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1813400</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4064,150 +4342,168 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>52880100</v>
+        <v>57644800</v>
       </c>
       <c r="E61" s="3">
-        <v>50650900</v>
+        <v>53096200</v>
       </c>
       <c r="F61" s="3">
-        <v>48252600</v>
+        <v>51506600</v>
       </c>
       <c r="G61" s="3">
-        <v>45086600</v>
+        <v>49335300</v>
       </c>
       <c r="H61" s="3">
-        <v>44312800</v>
+        <v>46999300</v>
       </c>
       <c r="I61" s="3">
+        <v>43915500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>43161900</v>
+      </c>
+      <c r="K61" s="3">
         <v>38230600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>39214800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>43080800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>42129500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>44185000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>43142100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>40307800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>36868700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>34955700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>35115500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>34009900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>36941800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>37408900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>35000000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>33280700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>34538700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>33926000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>624500</v>
+        <v>463700</v>
       </c>
       <c r="E62" s="3">
-        <v>681000</v>
+        <v>509900</v>
       </c>
       <c r="F62" s="3">
-        <v>636800</v>
+        <v>608300</v>
       </c>
       <c r="G62" s="3">
-        <v>564200</v>
+        <v>663300</v>
       </c>
       <c r="H62" s="3">
-        <v>549900</v>
+        <v>620300</v>
       </c>
       <c r="I62" s="3">
+        <v>549600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>535600</v>
+      </c>
+      <c r="K62" s="3">
         <v>720700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>691400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>680000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>570200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>714600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>648100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>618700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>520300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>418500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>420800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>527700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>419200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>395900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>382900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>400700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>463600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>459900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4573,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,8 +4650,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4727,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>324433200</v>
+        <v>343439700</v>
       </c>
       <c r="E66" s="3">
-        <v>317909100</v>
+        <v>329565800</v>
       </c>
       <c r="F66" s="3">
-        <v>305467800</v>
+        <v>316006400</v>
       </c>
       <c r="G66" s="3">
-        <v>302295400</v>
+        <v>309651700</v>
       </c>
       <c r="H66" s="3">
-        <v>289541100</v>
+        <v>297533600</v>
       </c>
       <c r="I66" s="3">
+        <v>294443600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>282020600</v>
+      </c>
+      <c r="K66" s="3">
         <v>275726000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>275487700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>288675900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>289399800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>297278600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>299163500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>296968200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>267714100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>249559900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>256847800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>256582900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>260418000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>261733600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>260311800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>255640700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>261266900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>263136400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4837,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4910,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,8 +4987,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4730,8 +5064,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +5141,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16472300</v>
+        <v>16905200</v>
       </c>
       <c r="E72" s="3">
-        <v>16184700</v>
+        <v>16229600</v>
       </c>
       <c r="F72" s="3">
-        <v>15706700</v>
+        <v>16044400</v>
       </c>
       <c r="G72" s="3">
-        <v>15113100</v>
+        <v>15764300</v>
       </c>
       <c r="H72" s="3">
-        <v>14836600</v>
+        <v>15298800</v>
       </c>
       <c r="I72" s="3">
+        <v>14720600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>14451200</v>
+      </c>
+      <c r="K72" s="3">
         <v>14719300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>14362200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>15002800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>15745800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>15573800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>15698600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>15678000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>14384700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>13795900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>13837700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>13273900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>13745600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>13660700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>13507800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>13138800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>13150400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>13062800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5295,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5372,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5449,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19898400</v>
+        <v>20269600</v>
       </c>
       <c r="E76" s="3">
-        <v>19493300</v>
+        <v>19712400</v>
       </c>
       <c r="F76" s="3">
-        <v>18910500</v>
+        <v>19381500</v>
       </c>
       <c r="G76" s="3">
-        <v>18104900</v>
+        <v>18987000</v>
       </c>
       <c r="H76" s="3">
-        <v>17751300</v>
+        <v>18419400</v>
       </c>
       <c r="I76" s="3">
+        <v>17634700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>17290200</v>
+      </c>
+      <c r="K76" s="3">
         <v>17519900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>17171900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>17677500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>18283800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>17718000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>17110000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>17117400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>18261500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>17579400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>17463800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>17085700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>17922000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>17996500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>17825600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>17960100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>18347500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>18412300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5603,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>286900</v>
+        <v>675400</v>
       </c>
       <c r="E81" s="3">
-        <v>585900</v>
+        <v>615000</v>
       </c>
       <c r="F81" s="3">
-        <v>567400</v>
+        <v>279500</v>
       </c>
       <c r="G81" s="3">
-        <v>501500</v>
+        <v>570700</v>
       </c>
       <c r="H81" s="3">
-        <v>117200</v>
+        <v>552600</v>
       </c>
       <c r="I81" s="3">
+        <v>488500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>114200</v>
+      </c>
+      <c r="K81" s="3">
         <v>358800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>100500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>412900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>174900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>410100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>537700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>517500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>76800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>453900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>569900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>463600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>84900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>212100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>369000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>517600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>88500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,79 +5795,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>160100</v>
+        <v>173300</v>
       </c>
       <c r="E83" s="3">
-        <v>153200</v>
+        <v>164200</v>
       </c>
       <c r="F83" s="3">
-        <v>189400</v>
+        <v>155900</v>
       </c>
       <c r="G83" s="3">
-        <v>107000</v>
+        <v>149200</v>
       </c>
       <c r="H83" s="3">
-        <v>105400</v>
+        <v>184500</v>
       </c>
       <c r="I83" s="3">
+        <v>104200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>102600</v>
+      </c>
+      <c r="K83" s="3">
         <v>101500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>98700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>112300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>120400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>116900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>108900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>93600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>61600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>58600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>56000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>50600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>49900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>50800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>51600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>55200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>54800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5945,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +6022,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +6099,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +6176,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6253,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-177700</v>
+        <v>-8170400</v>
       </c>
       <c r="E89" s="3">
-        <v>2655700</v>
+        <v>4275300</v>
       </c>
       <c r="F89" s="3">
-        <v>-4730200</v>
+        <v>-173100</v>
       </c>
       <c r="G89" s="3">
-        <v>865500</v>
+        <v>2586700</v>
       </c>
       <c r="H89" s="3">
-        <v>1608600</v>
+        <v>-4607300</v>
       </c>
       <c r="I89" s="3">
+        <v>843000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1566800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-766500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2718500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-824700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-153300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-428600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3501700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1296100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>5231600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>908000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>643600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>877700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-506300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-2456000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-340700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1561500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>108800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>3807600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,79 +6363,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-29200</v>
+        <v>-46600</v>
       </c>
       <c r="E91" s="3">
-        <v>-31500</v>
+        <v>-15200</v>
       </c>
       <c r="F91" s="3">
-        <v>-16300</v>
+        <v>-28500</v>
       </c>
       <c r="G91" s="3">
-        <v>-14800</v>
+        <v>-30600</v>
       </c>
       <c r="H91" s="3">
-        <v>-45300</v>
+        <v>-15900</v>
       </c>
       <c r="I91" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-25600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-24800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-20300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-190900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-91000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-55400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-31700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-43000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-20100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-18000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-17800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-25100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-57300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-37900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-22400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-111600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-90400</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6513,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6590,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4609400</v>
+        <v>2322900</v>
       </c>
       <c r="E94" s="3">
-        <v>-4006300</v>
+        <v>-2219600</v>
       </c>
       <c r="F94" s="3">
-        <v>1154900</v>
+        <v>-4489600</v>
       </c>
       <c r="G94" s="3">
-        <v>-752700</v>
+        <v>-3902300</v>
       </c>
       <c r="H94" s="3">
-        <v>-380000</v>
+        <v>1124900</v>
       </c>
       <c r="I94" s="3">
+        <v>-733200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-370100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-124500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-446100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-179800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-962200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-913600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-5520900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-97900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-5105000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-2452600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1063800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-587600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>1277600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-195600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>183200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>392500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-2371700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>694800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,8 +6700,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6245,13 +6711,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-83400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-81300</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -6293,22 +6759,28 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-59200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-237000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-38100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-22800</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6850,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6927,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,217 +7004,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2086000</v>
+        <v>2960900</v>
       </c>
       <c r="E100" s="3">
-        <v>1442100</v>
+        <v>1882500</v>
       </c>
       <c r="F100" s="3">
-        <v>2988600</v>
+        <v>2031800</v>
       </c>
       <c r="G100" s="3">
-        <v>471500</v>
+        <v>1404600</v>
       </c>
       <c r="H100" s="3">
-        <v>272400</v>
+        <v>2911000</v>
       </c>
       <c r="I100" s="3">
+        <v>459300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>265300</v>
+      </c>
+      <c r="K100" s="3">
         <v>553800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2356000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>3526800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-950700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3000500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>3588600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-289800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>491400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1689200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>354700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1323700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-309500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>2140800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-384900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-1500100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>1503800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-1778900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>604600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>181300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1800</v>
       </c>
-      <c r="E101" s="3">
-        <v>420400</v>
-      </c>
-      <c r="F101" s="3">
-        <v>18600</v>
-      </c>
       <c r="G101" s="3">
-        <v>307500</v>
+        <v>409500</v>
       </c>
       <c r="H101" s="3">
-        <v>-594900</v>
+        <v>18100</v>
       </c>
       <c r="I101" s="3">
+        <v>299500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-579400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-142900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-159900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>200400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>369400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-340600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>51200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>90500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>6400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-76600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>218900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>50500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-377500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>14000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>8400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-108300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>138000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-105900</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2702900</v>
+        <v>-2282000</v>
       </c>
       <c r="E102" s="3">
-        <v>511800</v>
+        <v>4119500</v>
       </c>
       <c r="F102" s="3">
-        <v>-568100</v>
+        <v>-2632700</v>
       </c>
       <c r="G102" s="3">
-        <v>891700</v>
+        <v>498500</v>
       </c>
       <c r="H102" s="3">
-        <v>906100</v>
+        <v>-553300</v>
       </c>
       <c r="I102" s="3">
+        <v>868600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>882600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-480000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-243500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2722600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1696800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1317700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1620600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1593300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>624400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>68000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>153400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-983000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>84300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-496900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-534100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>345600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-621200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>2617600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
@@ -761,25 +761,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2454500</v>
+        <v>2421800</v>
       </c>
       <c r="E8" s="3">
-        <v>2205600</v>
+        <v>2176200</v>
       </c>
       <c r="F8" s="3">
-        <v>2026000</v>
+        <v>1999000</v>
       </c>
       <c r="G8" s="3">
-        <v>1862200</v>
+        <v>1837400</v>
       </c>
       <c r="H8" s="3">
-        <v>1787500</v>
+        <v>1763600</v>
       </c>
       <c r="I8" s="3">
-        <v>1745400</v>
+        <v>1722100</v>
       </c>
       <c r="J8" s="3">
-        <v>1751600</v>
+        <v>1728200</v>
       </c>
       <c r="K8" s="3">
         <v>1749800</v>
@@ -1252,25 +1252,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-98100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-97500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-96900</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-96300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-100600</v>
+      </c>
+      <c r="J15" s="3">
         <v>-99400</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-98800</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-98200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-97600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-97400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-102000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-100700</v>
       </c>
       <c r="K15" s="3">
         <v>-99600</v>
@@ -1355,25 +1355,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1106700</v>
+        <v>1091900</v>
       </c>
       <c r="E17" s="3">
-        <v>839000</v>
+        <v>827800</v>
       </c>
       <c r="F17" s="3">
-        <v>775300</v>
+        <v>765000</v>
       </c>
       <c r="G17" s="3">
-        <v>616800</v>
+        <v>608600</v>
       </c>
       <c r="H17" s="3">
-        <v>573600</v>
+        <v>566000</v>
       </c>
       <c r="I17" s="3">
-        <v>634200</v>
+        <v>625700</v>
       </c>
       <c r="J17" s="3">
-        <v>737800</v>
+        <v>727900</v>
       </c>
       <c r="K17" s="3">
         <v>721100</v>
@@ -1432,25 +1432,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1347800</v>
+        <v>1329800</v>
       </c>
       <c r="E18" s="3">
-        <v>1366600</v>
+        <v>1348400</v>
       </c>
       <c r="F18" s="3">
-        <v>1250700</v>
+        <v>1234000</v>
       </c>
       <c r="G18" s="3">
-        <v>1245400</v>
+        <v>1228800</v>
       </c>
       <c r="H18" s="3">
-        <v>1213900</v>
+        <v>1197700</v>
       </c>
       <c r="I18" s="3">
-        <v>1111200</v>
+        <v>1096400</v>
       </c>
       <c r="J18" s="3">
-        <v>1013800</v>
+        <v>1000300</v>
       </c>
       <c r="K18" s="3">
         <v>1028700</v>
@@ -1538,25 +1538,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-370700</v>
+        <v>-365700</v>
       </c>
       <c r="E20" s="3">
-        <v>-492800</v>
+        <v>-486200</v>
       </c>
       <c r="F20" s="3">
-        <v>-803300</v>
+        <v>-792600</v>
       </c>
       <c r="G20" s="3">
-        <v>-394200</v>
+        <v>-388900</v>
       </c>
       <c r="H20" s="3">
-        <v>-406900</v>
+        <v>-401400</v>
       </c>
       <c r="I20" s="3">
-        <v>-404900</v>
+        <v>-399500</v>
       </c>
       <c r="J20" s="3">
-        <v>-795200</v>
+        <v>-784600</v>
       </c>
       <c r="K20" s="3">
         <v>-508200</v>
@@ -1615,25 +1615,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1150400</v>
+        <v>1135100</v>
       </c>
       <c r="E21" s="3">
-        <v>1038000</v>
+        <v>1024100</v>
       </c>
       <c r="F21" s="3">
-        <v>603300</v>
+        <v>595300</v>
       </c>
       <c r="G21" s="3">
-        <v>1000500</v>
+        <v>987100</v>
       </c>
       <c r="H21" s="3">
-        <v>991500</v>
+        <v>978300</v>
       </c>
       <c r="I21" s="3">
-        <v>810600</v>
+        <v>799800</v>
       </c>
       <c r="J21" s="3">
-        <v>321200</v>
+        <v>316900</v>
       </c>
       <c r="K21" s="3">
         <v>622000</v>
@@ -1769,25 +1769,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>977100</v>
+        <v>964100</v>
       </c>
       <c r="E23" s="3">
-        <v>873800</v>
+        <v>862200</v>
       </c>
       <c r="F23" s="3">
-        <v>447400</v>
+        <v>441400</v>
       </c>
       <c r="G23" s="3">
-        <v>851200</v>
+        <v>839900</v>
       </c>
       <c r="H23" s="3">
-        <v>807000</v>
+        <v>796200</v>
       </c>
       <c r="I23" s="3">
-        <v>706300</v>
+        <v>696900</v>
       </c>
       <c r="J23" s="3">
-        <v>218600</v>
+        <v>215700</v>
       </c>
       <c r="K23" s="3">
         <v>520500</v>
@@ -1846,25 +1846,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>237000</v>
+        <v>233800</v>
       </c>
       <c r="E24" s="3">
-        <v>219500</v>
+        <v>216500</v>
       </c>
       <c r="F24" s="3">
-        <v>113100</v>
+        <v>111600</v>
       </c>
       <c r="G24" s="3">
-        <v>232900</v>
+        <v>229800</v>
       </c>
       <c r="H24" s="3">
-        <v>193200</v>
+        <v>190600</v>
       </c>
       <c r="I24" s="3">
-        <v>167200</v>
+        <v>164900</v>
       </c>
       <c r="J24" s="3">
-        <v>53900</v>
+        <v>53200</v>
       </c>
       <c r="K24" s="3">
         <v>118800</v>
@@ -2000,25 +2000,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>740100</v>
+        <v>730300</v>
       </c>
       <c r="E26" s="3">
-        <v>654400</v>
+        <v>645600</v>
       </c>
       <c r="F26" s="3">
-        <v>334300</v>
+        <v>329800</v>
       </c>
       <c r="G26" s="3">
-        <v>618300</v>
+        <v>610100</v>
       </c>
       <c r="H26" s="3">
-        <v>613800</v>
+        <v>605600</v>
       </c>
       <c r="I26" s="3">
-        <v>539200</v>
+        <v>532000</v>
       </c>
       <c r="J26" s="3">
-        <v>164600</v>
+        <v>162400</v>
       </c>
       <c r="K26" s="3">
         <v>401700</v>
@@ -2077,25 +2077,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>675400</v>
+        <v>666400</v>
       </c>
       <c r="E27" s="3">
-        <v>615000</v>
+        <v>606800</v>
       </c>
       <c r="F27" s="3">
-        <v>279500</v>
+        <v>275800</v>
       </c>
       <c r="G27" s="3">
-        <v>570700</v>
+        <v>563100</v>
       </c>
       <c r="H27" s="3">
-        <v>552600</v>
+        <v>545200</v>
       </c>
       <c r="I27" s="3">
-        <v>488500</v>
+        <v>482000</v>
       </c>
       <c r="J27" s="3">
-        <v>114200</v>
+        <v>112600</v>
       </c>
       <c r="K27" s="3">
         <v>358800</v>
@@ -2462,25 +2462,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>370700</v>
+        <v>365700</v>
       </c>
       <c r="E32" s="3">
-        <v>492800</v>
+        <v>486200</v>
       </c>
       <c r="F32" s="3">
-        <v>803300</v>
+        <v>792600</v>
       </c>
       <c r="G32" s="3">
-        <v>394200</v>
+        <v>388900</v>
       </c>
       <c r="H32" s="3">
-        <v>406900</v>
+        <v>401400</v>
       </c>
       <c r="I32" s="3">
-        <v>404900</v>
+        <v>399500</v>
       </c>
       <c r="J32" s="3">
-        <v>795200</v>
+        <v>784600</v>
       </c>
       <c r="K32" s="3">
         <v>508200</v>
@@ -2539,25 +2539,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>675400</v>
+        <v>666400</v>
       </c>
       <c r="E33" s="3">
-        <v>615000</v>
+        <v>606800</v>
       </c>
       <c r="F33" s="3">
-        <v>279500</v>
+        <v>275800</v>
       </c>
       <c r="G33" s="3">
-        <v>570700</v>
+        <v>563100</v>
       </c>
       <c r="H33" s="3">
-        <v>552600</v>
+        <v>545200</v>
       </c>
       <c r="I33" s="3">
-        <v>488500</v>
+        <v>482000</v>
       </c>
       <c r="J33" s="3">
-        <v>114200</v>
+        <v>112600</v>
       </c>
       <c r="K33" s="3">
         <v>358800</v>
@@ -2693,25 +2693,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>675400</v>
+        <v>666400</v>
       </c>
       <c r="E35" s="3">
-        <v>615000</v>
+        <v>606800</v>
       </c>
       <c r="F35" s="3">
-        <v>279500</v>
+        <v>275800</v>
       </c>
       <c r="G35" s="3">
-        <v>570700</v>
+        <v>563100</v>
       </c>
       <c r="H35" s="3">
-        <v>552600</v>
+        <v>545200</v>
       </c>
       <c r="I35" s="3">
-        <v>488500</v>
+        <v>482000</v>
       </c>
       <c r="J35" s="3">
-        <v>114200</v>
+        <v>112600</v>
       </c>
       <c r="K35" s="3">
         <v>358800</v>
@@ -2910,25 +2910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7280000</v>
+        <v>7183000</v>
       </c>
       <c r="E41" s="3">
-        <v>9531300</v>
+        <v>9404200</v>
       </c>
       <c r="F41" s="3">
-        <v>5555400</v>
+        <v>5481300</v>
       </c>
       <c r="G41" s="3">
-        <v>7893500</v>
+        <v>7788300</v>
       </c>
       <c r="H41" s="3">
-        <v>7303900</v>
+        <v>7206500</v>
       </c>
       <c r="I41" s="3">
-        <v>8105000</v>
+        <v>7996900</v>
       </c>
       <c r="J41" s="3">
-        <v>7080200</v>
+        <v>6985700</v>
       </c>
       <c r="K41" s="3">
         <v>6452400</v>
@@ -2987,25 +2987,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>44316800</v>
+        <v>43726000</v>
       </c>
       <c r="E42" s="3">
-        <v>43457800</v>
+        <v>42878400</v>
       </c>
       <c r="F42" s="3">
-        <v>44083500</v>
+        <v>43495700</v>
       </c>
       <c r="G42" s="3">
-        <v>38326100</v>
+        <v>37815100</v>
       </c>
       <c r="H42" s="3">
-        <v>33800600</v>
+        <v>33349900</v>
       </c>
       <c r="I42" s="3">
-        <v>32446500</v>
+        <v>32013900</v>
       </c>
       <c r="J42" s="3">
-        <v>39699700</v>
+        <v>39170300</v>
       </c>
       <c r="K42" s="3">
         <v>33273800</v>
@@ -3372,25 +3372,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1021400</v>
+        <v>1007800</v>
       </c>
       <c r="E47" s="3">
-        <v>985000</v>
+        <v>971900</v>
       </c>
       <c r="F47" s="3">
-        <v>1001400</v>
+        <v>988000</v>
       </c>
       <c r="G47" s="3">
-        <v>896000</v>
+        <v>884000</v>
       </c>
       <c r="H47" s="3">
-        <v>881500</v>
+        <v>869700</v>
       </c>
       <c r="I47" s="3">
-        <v>786200</v>
+        <v>775800</v>
       </c>
       <c r="J47" s="3">
-        <v>745000</v>
+        <v>735000</v>
       </c>
       <c r="K47" s="3">
         <v>829200</v>
@@ -3449,25 +3449,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2653800</v>
+        <v>2618400</v>
       </c>
       <c r="E48" s="3">
-        <v>2659000</v>
+        <v>2623500</v>
       </c>
       <c r="F48" s="3">
-        <v>2673200</v>
+        <v>2637500</v>
       </c>
       <c r="G48" s="3">
-        <v>2701000</v>
+        <v>2665000</v>
       </c>
       <c r="H48" s="3">
-        <v>2682600</v>
+        <v>2646900</v>
       </c>
       <c r="I48" s="3">
-        <v>2737100</v>
+        <v>2700600</v>
       </c>
       <c r="J48" s="3">
-        <v>2756000</v>
+        <v>2719200</v>
       </c>
       <c r="K48" s="3">
         <v>2764300</v>
@@ -3526,25 +3526,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>588700</v>
+        <v>580800</v>
       </c>
       <c r="E49" s="3">
-        <v>592900</v>
+        <v>585000</v>
       </c>
       <c r="F49" s="3">
-        <v>589000</v>
+        <v>581200</v>
       </c>
       <c r="G49" s="3">
-        <v>586400</v>
+        <v>578600</v>
       </c>
       <c r="H49" s="3">
-        <v>581700</v>
+        <v>574000</v>
       </c>
       <c r="I49" s="3">
-        <v>590500</v>
+        <v>582600</v>
       </c>
       <c r="J49" s="3">
-        <v>594100</v>
+        <v>586100</v>
       </c>
       <c r="K49" s="3">
         <v>615800</v>
@@ -3757,25 +3757,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>164300</v>
+        <v>162100</v>
       </c>
       <c r="E52" s="3">
-        <v>56900</v>
+        <v>56100</v>
       </c>
       <c r="F52" s="3">
-        <v>59100</v>
+        <v>58300</v>
       </c>
       <c r="G52" s="3">
-        <v>41100</v>
+        <v>40500</v>
       </c>
       <c r="H52" s="3">
-        <v>56000</v>
+        <v>55300</v>
       </c>
       <c r="I52" s="3">
-        <v>74600</v>
+        <v>73700</v>
       </c>
       <c r="J52" s="3">
-        <v>83800</v>
+        <v>82700</v>
       </c>
       <c r="K52" s="3">
         <v>74500</v>
@@ -3911,25 +3911,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>363709300</v>
+        <v>358859800</v>
       </c>
       <c r="E54" s="3">
-        <v>349278200</v>
+        <v>344621200</v>
       </c>
       <c r="F54" s="3">
-        <v>335387900</v>
+        <v>330916100</v>
       </c>
       <c r="G54" s="3">
-        <v>328638700</v>
+        <v>324256800</v>
       </c>
       <c r="H54" s="3">
-        <v>315953000</v>
+        <v>311740200</v>
       </c>
       <c r="I54" s="3">
-        <v>312078300</v>
+        <v>307917200</v>
       </c>
       <c r="J54" s="3">
-        <v>299310800</v>
+        <v>295320000</v>
       </c>
       <c r="K54" s="3">
         <v>293246000</v>
@@ -4046,25 +4046,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12373100</v>
+        <v>12208100</v>
       </c>
       <c r="E57" s="3">
-        <v>10815600</v>
+        <v>10671400</v>
       </c>
       <c r="F57" s="3">
-        <v>10844700</v>
+        <v>10700100</v>
       </c>
       <c r="G57" s="3">
-        <v>7957500</v>
+        <v>7851400</v>
       </c>
       <c r="H57" s="3">
-        <v>9468900</v>
+        <v>9342600</v>
       </c>
       <c r="I57" s="3">
-        <v>8103800</v>
+        <v>7995800</v>
       </c>
       <c r="J57" s="3">
-        <v>3748600</v>
+        <v>3698600</v>
       </c>
       <c r="K57" s="3">
         <v>7530800</v>
@@ -4200,25 +4200,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1942400</v>
+        <v>1916500</v>
       </c>
       <c r="E59" s="3">
-        <v>2038700</v>
+        <v>2011500</v>
       </c>
       <c r="F59" s="3">
-        <v>1991300</v>
+        <v>1964800</v>
       </c>
       <c r="G59" s="3">
-        <v>1538600</v>
+        <v>1518100</v>
       </c>
       <c r="H59" s="3">
-        <v>1446500</v>
+        <v>1427300</v>
       </c>
       <c r="I59" s="3">
-        <v>1622500</v>
+        <v>1600800</v>
       </c>
       <c r="J59" s="3">
-        <v>1815100</v>
+        <v>1790900</v>
       </c>
       <c r="K59" s="3">
         <v>1521700</v>
@@ -4354,25 +4354,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>57644800</v>
+        <v>56876200</v>
       </c>
       <c r="E61" s="3">
-        <v>53096200</v>
+        <v>52388300</v>
       </c>
       <c r="F61" s="3">
-        <v>51506600</v>
+        <v>50819900</v>
       </c>
       <c r="G61" s="3">
-        <v>49335300</v>
+        <v>48677500</v>
       </c>
       <c r="H61" s="3">
-        <v>46999300</v>
+        <v>46372600</v>
       </c>
       <c r="I61" s="3">
-        <v>43915500</v>
+        <v>43329900</v>
       </c>
       <c r="J61" s="3">
-        <v>43161900</v>
+        <v>42586400</v>
       </c>
       <c r="K61" s="3">
         <v>38230600</v>
@@ -4431,25 +4431,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>463700</v>
+        <v>457500</v>
       </c>
       <c r="E62" s="3">
-        <v>509900</v>
+        <v>503100</v>
       </c>
       <c r="F62" s="3">
-        <v>608300</v>
+        <v>600200</v>
       </c>
       <c r="G62" s="3">
-        <v>663300</v>
+        <v>654500</v>
       </c>
       <c r="H62" s="3">
-        <v>620300</v>
+        <v>612000</v>
       </c>
       <c r="I62" s="3">
-        <v>549600</v>
+        <v>542300</v>
       </c>
       <c r="J62" s="3">
-        <v>535600</v>
+        <v>528500</v>
       </c>
       <c r="K62" s="3">
         <v>720700</v>
@@ -4739,25 +4739,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>343439700</v>
+        <v>338860500</v>
       </c>
       <c r="E66" s="3">
-        <v>329565800</v>
+        <v>325171600</v>
       </c>
       <c r="F66" s="3">
-        <v>316006400</v>
+        <v>311793000</v>
       </c>
       <c r="G66" s="3">
-        <v>309651700</v>
+        <v>305523000</v>
       </c>
       <c r="H66" s="3">
-        <v>297533600</v>
+        <v>293566500</v>
       </c>
       <c r="I66" s="3">
-        <v>294443600</v>
+        <v>290517700</v>
       </c>
       <c r="J66" s="3">
-        <v>282020600</v>
+        <v>278260300</v>
       </c>
       <c r="K66" s="3">
         <v>275726000</v>
@@ -5153,25 +5153,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16905200</v>
+        <v>16679800</v>
       </c>
       <c r="E72" s="3">
-        <v>16229600</v>
+        <v>16013200</v>
       </c>
       <c r="F72" s="3">
-        <v>16044400</v>
+        <v>15830500</v>
       </c>
       <c r="G72" s="3">
-        <v>15764300</v>
+        <v>15554100</v>
       </c>
       <c r="H72" s="3">
-        <v>15298800</v>
+        <v>15094800</v>
       </c>
       <c r="I72" s="3">
-        <v>14720600</v>
+        <v>14524300</v>
       </c>
       <c r="J72" s="3">
-        <v>14451200</v>
+        <v>14258500</v>
       </c>
       <c r="K72" s="3">
         <v>14719300</v>
@@ -5461,25 +5461,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20269600</v>
+        <v>19999300</v>
       </c>
       <c r="E76" s="3">
-        <v>19712400</v>
+        <v>19449600</v>
       </c>
       <c r="F76" s="3">
-        <v>19381500</v>
+        <v>19123100</v>
       </c>
       <c r="G76" s="3">
-        <v>18987000</v>
+        <v>18733800</v>
       </c>
       <c r="H76" s="3">
-        <v>18419400</v>
+        <v>18173800</v>
       </c>
       <c r="I76" s="3">
-        <v>17634700</v>
+        <v>17399500</v>
       </c>
       <c r="J76" s="3">
-        <v>17290200</v>
+        <v>17059700</v>
       </c>
       <c r="K76" s="3">
         <v>17519900</v>
@@ -5697,25 +5697,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>675400</v>
+        <v>666400</v>
       </c>
       <c r="E81" s="3">
-        <v>615000</v>
+        <v>606800</v>
       </c>
       <c r="F81" s="3">
-        <v>279500</v>
+        <v>275800</v>
       </c>
       <c r="G81" s="3">
-        <v>570700</v>
+        <v>563100</v>
       </c>
       <c r="H81" s="3">
-        <v>552600</v>
+        <v>545200</v>
       </c>
       <c r="I81" s="3">
-        <v>488500</v>
+        <v>482000</v>
       </c>
       <c r="J81" s="3">
-        <v>114200</v>
+        <v>112600</v>
       </c>
       <c r="K81" s="3">
         <v>358800</v>
@@ -5803,25 +5803,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>173300</v>
+        <v>171000</v>
       </c>
       <c r="E83" s="3">
-        <v>164200</v>
+        <v>162000</v>
       </c>
       <c r="F83" s="3">
-        <v>155900</v>
+        <v>153800</v>
       </c>
       <c r="G83" s="3">
-        <v>149200</v>
+        <v>147300</v>
       </c>
       <c r="H83" s="3">
-        <v>184500</v>
+        <v>182100</v>
       </c>
       <c r="I83" s="3">
-        <v>104200</v>
+        <v>102900</v>
       </c>
       <c r="J83" s="3">
-        <v>102600</v>
+        <v>101300</v>
       </c>
       <c r="K83" s="3">
         <v>101500</v>
@@ -6265,25 +6265,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8170400</v>
+        <v>-8061400</v>
       </c>
       <c r="E89" s="3">
-        <v>4275300</v>
+        <v>4218300</v>
       </c>
       <c r="F89" s="3">
-        <v>-173100</v>
+        <v>-170800</v>
       </c>
       <c r="G89" s="3">
-        <v>2586700</v>
+        <v>2552200</v>
       </c>
       <c r="H89" s="3">
-        <v>-4607300</v>
+        <v>-4545900</v>
       </c>
       <c r="I89" s="3">
-        <v>843000</v>
+        <v>831700</v>
       </c>
       <c r="J89" s="3">
-        <v>1566800</v>
+        <v>1545900</v>
       </c>
       <c r="K89" s="3">
         <v>-766500</v>
@@ -6371,25 +6371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-46600</v>
+        <v>-46000</v>
       </c>
       <c r="E91" s="3">
-        <v>-15200</v>
+        <v>-15000</v>
       </c>
       <c r="F91" s="3">
-        <v>-28500</v>
+        <v>-28100</v>
       </c>
       <c r="G91" s="3">
-        <v>-30600</v>
+        <v>-30200</v>
       </c>
       <c r="H91" s="3">
-        <v>-15900</v>
+        <v>-15700</v>
       </c>
       <c r="I91" s="3">
-        <v>-14500</v>
+        <v>-14300</v>
       </c>
       <c r="J91" s="3">
-        <v>-44200</v>
+        <v>-43600</v>
       </c>
       <c r="K91" s="3">
         <v>-25600</v>
@@ -6602,25 +6602,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2322900</v>
+        <v>2291900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2219600</v>
+        <v>-2190000</v>
       </c>
       <c r="F94" s="3">
-        <v>-4489600</v>
+        <v>-4429800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3902300</v>
+        <v>-3850200</v>
       </c>
       <c r="H94" s="3">
-        <v>1124900</v>
+        <v>1109900</v>
       </c>
       <c r="I94" s="3">
-        <v>-733200</v>
+        <v>-723400</v>
       </c>
       <c r="J94" s="3">
-        <v>-370100</v>
+        <v>-365200</v>
       </c>
       <c r="K94" s="3">
         <v>-124500</v>
@@ -6717,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-81300</v>
+        <v>-80200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -7016,25 +7016,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2960900</v>
+        <v>2921400</v>
       </c>
       <c r="E100" s="3">
-        <v>1882500</v>
+        <v>1857400</v>
       </c>
       <c r="F100" s="3">
-        <v>2031800</v>
+        <v>2004700</v>
       </c>
       <c r="G100" s="3">
-        <v>1404600</v>
+        <v>1385900</v>
       </c>
       <c r="H100" s="3">
-        <v>2911000</v>
+        <v>2872200</v>
       </c>
       <c r="I100" s="3">
-        <v>459300</v>
+        <v>453200</v>
       </c>
       <c r="J100" s="3">
-        <v>265300</v>
+        <v>261800</v>
       </c>
       <c r="K100" s="3">
         <v>553800</v>
@@ -7093,25 +7093,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>604600</v>
+        <v>596600</v>
       </c>
       <c r="E101" s="3">
-        <v>181300</v>
+        <v>178900</v>
       </c>
       <c r="F101" s="3">
         <v>-1800</v>
       </c>
       <c r="G101" s="3">
-        <v>409500</v>
+        <v>404000</v>
       </c>
       <c r="H101" s="3">
-        <v>18100</v>
+        <v>17800</v>
       </c>
       <c r="I101" s="3">
-        <v>299500</v>
+        <v>295500</v>
       </c>
       <c r="J101" s="3">
-        <v>-579400</v>
+        <v>-571700</v>
       </c>
       <c r="K101" s="3">
         <v>-142900</v>
@@ -7170,25 +7170,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2282000</v>
+        <v>-2251600</v>
       </c>
       <c r="E102" s="3">
-        <v>4119500</v>
+        <v>4064500</v>
       </c>
       <c r="F102" s="3">
-        <v>-2632700</v>
+        <v>-2597600</v>
       </c>
       <c r="G102" s="3">
-        <v>498500</v>
+        <v>491900</v>
       </c>
       <c r="H102" s="3">
-        <v>-553300</v>
+        <v>-545900</v>
       </c>
       <c r="I102" s="3">
-        <v>868600</v>
+        <v>857000</v>
       </c>
       <c r="J102" s="3">
-        <v>882600</v>
+        <v>870800</v>
       </c>
       <c r="K102" s="3">
         <v>-480000</v>

--- a/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>WF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,175 +665,187 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2421800</v>
+        <v>3462200</v>
       </c>
       <c r="E8" s="3">
-        <v>2176200</v>
+        <v>2868700</v>
       </c>
       <c r="F8" s="3">
-        <v>1999000</v>
+        <v>2454500</v>
       </c>
       <c r="G8" s="3">
-        <v>1837400</v>
+        <v>2205600</v>
       </c>
       <c r="H8" s="3">
-        <v>1763600</v>
+        <v>2026000</v>
       </c>
       <c r="I8" s="3">
+        <v>1862200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1787500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1722100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1728200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1749800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1857400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2028100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2216400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2287800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2353100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2369400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2154000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2006200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1989700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1910800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1912500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1925300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1853100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1833700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1898800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -909,8 +921,14 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,8 +1004,14 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1015,8 +1039,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1118,14 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,8 +1201,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1246,85 +1284,97 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-98100</v>
+        <v>-101500</v>
       </c>
       <c r="E15" s="3">
-        <v>-97500</v>
+        <v>-94600</v>
       </c>
       <c r="F15" s="3">
-        <v>-96900</v>
+        <v>-99400</v>
       </c>
       <c r="G15" s="3">
-        <v>-96300</v>
+        <v>-98800</v>
       </c>
       <c r="H15" s="3">
+        <v>-98200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-97600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-97400</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-100600</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-99400</v>
+      </c>
+      <c r="M15" s="3">
+        <v>-99600</v>
+      </c>
+      <c r="N15" s="3">
         <v>-96100</v>
       </c>
-      <c r="I15" s="3">
-        <v>-100600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-99400</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-99600</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-96100</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-109500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-115200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-112100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-104100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-88900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-50500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-47800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>-44700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>-40700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>-39500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>-40300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>-40800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>-44500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>-54800</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>-53700</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1399,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1091900</v>
+        <v>1901100</v>
       </c>
       <c r="E17" s="3">
-        <v>827800</v>
+        <v>1284700</v>
       </c>
       <c r="F17" s="3">
-        <v>765000</v>
+        <v>1106700</v>
       </c>
       <c r="G17" s="3">
-        <v>608600</v>
+        <v>839000</v>
       </c>
       <c r="H17" s="3">
-        <v>566000</v>
+        <v>775300</v>
       </c>
       <c r="I17" s="3">
+        <v>616800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>573600</v>
+      </c>
+      <c r="K17" s="3">
         <v>625700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>727900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>721100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>966200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>926000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1019500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1190700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1111900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1098300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1157200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>918800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>752200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>877900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1026000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>926800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>906500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>830000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>903100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>963600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1329800</v>
+        <v>1561100</v>
       </c>
       <c r="E18" s="3">
-        <v>1348400</v>
+        <v>1584000</v>
       </c>
       <c r="F18" s="3">
-        <v>1234000</v>
+        <v>1347800</v>
       </c>
       <c r="G18" s="3">
-        <v>1228800</v>
+        <v>1366600</v>
       </c>
       <c r="H18" s="3">
-        <v>1197700</v>
+        <v>1250700</v>
       </c>
       <c r="I18" s="3">
+        <v>1245400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1213900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1096400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1000300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1028700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>891200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1102100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1196900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1097100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1241200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1271100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>996800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1087400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1237400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1032900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>886500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>998500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>946600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>1003700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>995700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>934400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,162 +1596,176 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-365700</v>
+        <v>-1014100</v>
       </c>
       <c r="E20" s="3">
-        <v>-486200</v>
+        <v>-617800</v>
       </c>
       <c r="F20" s="3">
-        <v>-792600</v>
+        <v>-370700</v>
       </c>
       <c r="G20" s="3">
-        <v>-388900</v>
+        <v>-492800</v>
       </c>
       <c r="H20" s="3">
-        <v>-401400</v>
+        <v>-803300</v>
       </c>
       <c r="I20" s="3">
+        <v>-394200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-406900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-399500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-784600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-508200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-674600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-492400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-920900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-527400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-447200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-519600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-847700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-418500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-401200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-355800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-756300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-671500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-417500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-274500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-821100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-531000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1135100</v>
+        <v>732200</v>
       </c>
       <c r="E21" s="3">
-        <v>1024100</v>
+        <v>1140500</v>
       </c>
       <c r="F21" s="3">
-        <v>595300</v>
+        <v>1150400</v>
       </c>
       <c r="G21" s="3">
-        <v>987100</v>
+        <v>1038000</v>
       </c>
       <c r="H21" s="3">
-        <v>978300</v>
+        <v>603300</v>
       </c>
       <c r="I21" s="3">
+        <v>1000500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>991500</v>
+      </c>
+      <c r="K21" s="3">
         <v>799800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>316900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>622000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>315300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>721900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>396300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>686600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>902900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>845100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>210800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>727400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>892200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>727700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>180100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>377800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>580800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>784400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>229400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>457200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1763,162 +1841,180 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>964100</v>
+        <v>546900</v>
       </c>
       <c r="E23" s="3">
-        <v>862200</v>
+        <v>966200</v>
       </c>
       <c r="F23" s="3">
-        <v>441400</v>
+        <v>977100</v>
       </c>
       <c r="G23" s="3">
-        <v>839900</v>
+        <v>873800</v>
       </c>
       <c r="H23" s="3">
-        <v>796200</v>
+        <v>447400</v>
       </c>
       <c r="I23" s="3">
+        <v>851200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>807000</v>
+      </c>
+      <c r="K23" s="3">
         <v>696900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>215700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>520500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>216600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>609600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>276000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>569700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>794000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>751500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>149100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>668900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>836200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>677100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>130200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>327000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>529200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>729200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>174600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>403400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>233800</v>
+        <v>148500</v>
       </c>
       <c r="E24" s="3">
-        <v>216500</v>
+        <v>266100</v>
       </c>
       <c r="F24" s="3">
-        <v>111600</v>
+        <v>237000</v>
       </c>
       <c r="G24" s="3">
-        <v>229800</v>
+        <v>219500</v>
       </c>
       <c r="H24" s="3">
-        <v>190600</v>
+        <v>113100</v>
       </c>
       <c r="I24" s="3">
+        <v>232900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>193200</v>
+      </c>
+      <c r="K24" s="3">
         <v>164900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>53200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>118800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>50000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>157800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>79200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>115700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>215500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>192300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>39300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>179200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>229900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>177700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>9000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>77600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>118800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>163600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>30300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1994,162 +2090,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>730300</v>
+        <v>398500</v>
       </c>
       <c r="E26" s="3">
-        <v>645600</v>
+        <v>700000</v>
       </c>
       <c r="F26" s="3">
-        <v>329800</v>
+        <v>740100</v>
       </c>
       <c r="G26" s="3">
-        <v>610100</v>
+        <v>654400</v>
       </c>
       <c r="H26" s="3">
-        <v>605600</v>
+        <v>334300</v>
       </c>
       <c r="I26" s="3">
+        <v>618300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>613800</v>
+      </c>
+      <c r="K26" s="3">
         <v>532000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>162400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>401700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>166500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>451800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>196800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>454000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>578500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>559200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>109900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>489700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>606300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>499400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>121100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>249400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>410300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>565600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>144300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>323500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>666400</v>
+        <v>338800</v>
       </c>
       <c r="E27" s="3">
-        <v>606800</v>
+        <v>658200</v>
       </c>
       <c r="F27" s="3">
-        <v>275800</v>
+        <v>675400</v>
       </c>
       <c r="G27" s="3">
-        <v>563100</v>
+        <v>615000</v>
       </c>
       <c r="H27" s="3">
-        <v>545200</v>
+        <v>279500</v>
       </c>
       <c r="I27" s="3">
+        <v>570700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>552600</v>
+      </c>
+      <c r="K27" s="3">
         <v>482000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>112600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>358800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>100500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>412900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>174900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>410100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>537700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>517500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>76800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>453900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>569900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>463600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>84900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>212100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>369000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>517600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>88500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2225,8 +2339,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2302,8 +2422,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2505,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,162 +2588,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>365700</v>
+        <v>1014100</v>
       </c>
       <c r="E32" s="3">
-        <v>486200</v>
+        <v>617800</v>
       </c>
       <c r="F32" s="3">
-        <v>792600</v>
+        <v>370700</v>
       </c>
       <c r="G32" s="3">
-        <v>388900</v>
+        <v>492800</v>
       </c>
       <c r="H32" s="3">
-        <v>401400</v>
+        <v>803300</v>
       </c>
       <c r="I32" s="3">
+        <v>394200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>406900</v>
+      </c>
+      <c r="K32" s="3">
         <v>399500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>784600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>508200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>674600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>492400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>920900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>527400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>447200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>519600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>847700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>418500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>401200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>355800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>756300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>671500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>417500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>274500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>821100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>666400</v>
+        <v>338800</v>
       </c>
       <c r="E33" s="3">
-        <v>606800</v>
+        <v>658200</v>
       </c>
       <c r="F33" s="3">
-        <v>275800</v>
+        <v>675400</v>
       </c>
       <c r="G33" s="3">
-        <v>563100</v>
+        <v>615000</v>
       </c>
       <c r="H33" s="3">
-        <v>545200</v>
+        <v>279500</v>
       </c>
       <c r="I33" s="3">
+        <v>570700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>552600</v>
+      </c>
+      <c r="K33" s="3">
         <v>482000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>112600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>358800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>100500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>412900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>174900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>410100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>537700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>517500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>76800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>453900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>569900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>463600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>84900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>212100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>369000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>517600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>88500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2837,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>666400</v>
+        <v>338800</v>
       </c>
       <c r="E35" s="3">
-        <v>606800</v>
+        <v>658200</v>
       </c>
       <c r="F35" s="3">
-        <v>275800</v>
+        <v>675400</v>
       </c>
       <c r="G35" s="3">
-        <v>563100</v>
+        <v>615000</v>
       </c>
       <c r="H35" s="3">
-        <v>545200</v>
+        <v>279500</v>
       </c>
       <c r="I35" s="3">
+        <v>570700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>552600</v>
+      </c>
+      <c r="K35" s="3">
         <v>482000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>112600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>358800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>100500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>412900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>174900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>410100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>537700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>517500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>76800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>453900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>569900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>463600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>84900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>212100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>369000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>517600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>88500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +3043,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,162 +3074,176 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7183000</v>
+        <v>25596900</v>
       </c>
       <c r="E41" s="3">
-        <v>9404200</v>
+        <v>6686000</v>
       </c>
       <c r="F41" s="3">
-        <v>5481300</v>
+        <v>7280000</v>
       </c>
       <c r="G41" s="3">
-        <v>7788300</v>
+        <v>9531300</v>
       </c>
       <c r="H41" s="3">
-        <v>7206500</v>
+        <v>5555400</v>
       </c>
       <c r="I41" s="3">
+        <v>7893500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>7303900</v>
+      </c>
+      <c r="K41" s="3">
         <v>7996900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6985700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6452400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6934700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>7810800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5327800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7069900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5777500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4361000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>5329900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4608100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4589200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>4387400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>5323900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>5337600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>5780800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>6495200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>6385500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>7024600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>43726000</v>
+        <v>41084100</v>
       </c>
       <c r="E42" s="3">
-        <v>42878400</v>
+        <v>49405400</v>
       </c>
       <c r="F42" s="3">
-        <v>43495700</v>
+        <v>44316800</v>
       </c>
       <c r="G42" s="3">
-        <v>37815100</v>
+        <v>43457800</v>
       </c>
       <c r="H42" s="3">
-        <v>33349900</v>
+        <v>44083500</v>
       </c>
       <c r="I42" s="3">
+        <v>38326100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>33800600</v>
+      </c>
+      <c r="K42" s="3">
         <v>32013900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>39170300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>33273800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>36396600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>38606200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>37680800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>39232200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>36892000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>30905300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>29776700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>20883600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>22286700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>21840100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>20932300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>12488600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>14955900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>13350900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>14204100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>16154100</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3135,8 +3319,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3212,8 +3402,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3289,8 +3485,14 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3366,239 +3568,263 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1007800</v>
+        <v>979200</v>
       </c>
       <c r="E47" s="3">
-        <v>971900</v>
+        <v>1003600</v>
       </c>
       <c r="F47" s="3">
-        <v>988000</v>
+        <v>1021400</v>
       </c>
       <c r="G47" s="3">
-        <v>884000</v>
+        <v>985000</v>
       </c>
       <c r="H47" s="3">
-        <v>869700</v>
+        <v>1001400</v>
       </c>
       <c r="I47" s="3">
+        <v>896000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>881500</v>
+      </c>
+      <c r="K47" s="3">
         <v>775800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>735000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>829200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>714700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>674300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>685400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>322100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>311500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>316200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>303600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>276700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>346900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>348200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>367000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>490900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>326300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>351100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>395100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2618400</v>
+        <v>2648000</v>
       </c>
       <c r="E48" s="3">
-        <v>2623500</v>
+        <v>2661200</v>
       </c>
       <c r="F48" s="3">
-        <v>2637500</v>
+        <v>2653800</v>
       </c>
       <c r="G48" s="3">
-        <v>2665000</v>
+        <v>2659000</v>
       </c>
       <c r="H48" s="3">
-        <v>2646900</v>
+        <v>2673200</v>
       </c>
       <c r="I48" s="3">
+        <v>2701000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2682600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2700600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2719200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2764300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2790300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2961700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3098200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3089800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3058200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3080600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2368100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2284800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2378800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2384000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2507000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2509800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>2480800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>2470200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>2534900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>2525400</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>580800</v>
+        <v>636800</v>
       </c>
       <c r="E49" s="3">
-        <v>585000</v>
+        <v>656700</v>
       </c>
       <c r="F49" s="3">
-        <v>581200</v>
+        <v>588700</v>
       </c>
       <c r="G49" s="3">
-        <v>578600</v>
+        <v>592900</v>
       </c>
       <c r="H49" s="3">
-        <v>574000</v>
+        <v>589000</v>
       </c>
       <c r="I49" s="3">
+        <v>586400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>581700</v>
+      </c>
+      <c r="K49" s="3">
         <v>582600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>586100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>615800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>631700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>668000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>717500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>590200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>565800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>588900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>493300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>502400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>549000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>452700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>456400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>461900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>446100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>415100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>435400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>376700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3900,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,85 +3983,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>162100</v>
+        <v>331800</v>
       </c>
       <c r="E52" s="3">
-        <v>56100</v>
+        <v>292300</v>
       </c>
       <c r="F52" s="3">
-        <v>58300</v>
+        <v>164300</v>
       </c>
       <c r="G52" s="3">
-        <v>40500</v>
+        <v>56900</v>
       </c>
       <c r="H52" s="3">
-        <v>55300</v>
+        <v>59100</v>
       </c>
       <c r="I52" s="3">
+        <v>41100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>56000</v>
+      </c>
+      <c r="K52" s="3">
         <v>73700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>82700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>74500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>37800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>38200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>44800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>82300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>69500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>68200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>120400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>36800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>91100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>177600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>289300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>234800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>221100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>262700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>274800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>143800</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4149,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>358859800</v>
+        <v>360355800</v>
       </c>
       <c r="E54" s="3">
-        <v>344621200</v>
+        <v>376551700</v>
       </c>
       <c r="F54" s="3">
-        <v>330916100</v>
+        <v>363709300</v>
       </c>
       <c r="G54" s="3">
-        <v>324256800</v>
+        <v>349278200</v>
       </c>
       <c r="H54" s="3">
-        <v>311740200</v>
+        <v>335387900</v>
       </c>
       <c r="I54" s="3">
+        <v>328638700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>315953000</v>
+      </c>
+      <c r="K54" s="3">
         <v>307917200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>295320000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>293246000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>292659600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>306353500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>307683600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>314996600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>316273500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>314085600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>285975600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>267139300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>274311500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>273668600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>278340000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>279730100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>278137400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>273600800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>279614500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>281548700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4267,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,85 +4298,93 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12208100</v>
+        <v>8592200</v>
       </c>
       <c r="E57" s="3">
-        <v>10671400</v>
+        <v>13085000</v>
       </c>
       <c r="F57" s="3">
-        <v>10700100</v>
+        <v>12373100</v>
       </c>
       <c r="G57" s="3">
-        <v>7851400</v>
+        <v>10815600</v>
       </c>
       <c r="H57" s="3">
-        <v>9342600</v>
+        <v>10844700</v>
       </c>
       <c r="I57" s="3">
+        <v>7957500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>9468900</v>
+      </c>
+      <c r="K57" s="3">
         <v>7995800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3698600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>7530800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>8467000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>9538600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>7264700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>13339700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>15138200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>14778600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>10988500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>12068900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>11638400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>12317300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>5801500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>13814400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>14756900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>10823000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>13329400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>15356600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4194,85 +4460,97 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1916500</v>
+        <v>3047200</v>
       </c>
       <c r="E59" s="3">
-        <v>2011500</v>
+        <v>2290800</v>
       </c>
       <c r="F59" s="3">
-        <v>1964800</v>
+        <v>1942400</v>
       </c>
       <c r="G59" s="3">
-        <v>1518100</v>
+        <v>2038700</v>
       </c>
       <c r="H59" s="3">
-        <v>1427300</v>
+        <v>1991300</v>
       </c>
       <c r="I59" s="3">
+        <v>1538600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1446500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1600800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1790900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1521700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1545300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1892000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2294100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2199800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2064700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2149400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1989900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1798500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1649500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1642100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2008600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2057400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1681400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1880000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>2004400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>1813400</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4348,162 +4626,180 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56876200</v>
+        <v>52670100</v>
       </c>
       <c r="E61" s="3">
-        <v>52388300</v>
+        <v>60429200</v>
       </c>
       <c r="F61" s="3">
-        <v>50819900</v>
+        <v>57644800</v>
       </c>
       <c r="G61" s="3">
-        <v>48677500</v>
+        <v>53096200</v>
       </c>
       <c r="H61" s="3">
-        <v>46372600</v>
+        <v>51506600</v>
       </c>
       <c r="I61" s="3">
+        <v>49335300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>46999300</v>
+      </c>
+      <c r="K61" s="3">
         <v>43329900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>42586400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>38230600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>39214800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>43080800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>42129500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>44185000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>43142100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>40307800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>36868700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>34955700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>35115500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>34009900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>36941800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>37408900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>35000000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>33280700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>34538700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>33926000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>457500</v>
+        <v>459600</v>
       </c>
       <c r="E62" s="3">
-        <v>503100</v>
+        <v>450100</v>
       </c>
       <c r="F62" s="3">
-        <v>600200</v>
+        <v>463700</v>
       </c>
       <c r="G62" s="3">
-        <v>654500</v>
+        <v>509900</v>
       </c>
       <c r="H62" s="3">
-        <v>612000</v>
+        <v>608300</v>
       </c>
       <c r="I62" s="3">
+        <v>663300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>620300</v>
+      </c>
+      <c r="K62" s="3">
         <v>542300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>528500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>720700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>691400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>680000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>570200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>714600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>648100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>618700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>520300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>418500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>420800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>527700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>419200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>395900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>382900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>400700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>463600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>459900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4875,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4656,8 +4958,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +5041,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>338860500</v>
+        <v>338784400</v>
       </c>
       <c r="E66" s="3">
-        <v>325171600</v>
+        <v>355362300</v>
       </c>
       <c r="F66" s="3">
-        <v>311793000</v>
+        <v>343439700</v>
       </c>
       <c r="G66" s="3">
-        <v>305523000</v>
+        <v>329565800</v>
       </c>
       <c r="H66" s="3">
-        <v>293566500</v>
+        <v>316006400</v>
       </c>
       <c r="I66" s="3">
+        <v>309651700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>297533600</v>
+      </c>
+      <c r="K66" s="3">
         <v>290517700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>278260300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>275726000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>275487700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>288675900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>289399800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>297278600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>299163500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>296968200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>267714100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>249559900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>256847800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>256582900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>260418000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>261733600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>260311800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>255640700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>261266900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>263136400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +5159,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5238,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,8 +5321,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5070,8 +5404,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,85 +5487,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16679800</v>
+        <v>17812600</v>
       </c>
       <c r="E72" s="3">
-        <v>16013200</v>
+        <v>17473700</v>
       </c>
       <c r="F72" s="3">
-        <v>15830500</v>
+        <v>16905200</v>
       </c>
       <c r="G72" s="3">
-        <v>15554100</v>
+        <v>16229600</v>
       </c>
       <c r="H72" s="3">
-        <v>15094800</v>
+        <v>16044400</v>
       </c>
       <c r="I72" s="3">
+        <v>15764300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>15298800</v>
+      </c>
+      <c r="K72" s="3">
         <v>14524300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>14258500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>14719300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>14362200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>15002800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>15745800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>15573800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>15698600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>15678000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>14384700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>13795900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>13837700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>13273900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>13745600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>13660700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>13507800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>13138800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>13150400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>13062800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5653,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5736,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5819,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19999300</v>
+        <v>21571400</v>
       </c>
       <c r="E76" s="3">
-        <v>19449600</v>
+        <v>21189400</v>
       </c>
       <c r="F76" s="3">
-        <v>19123100</v>
+        <v>20269600</v>
       </c>
       <c r="G76" s="3">
-        <v>18733800</v>
+        <v>19712400</v>
       </c>
       <c r="H76" s="3">
-        <v>18173800</v>
+        <v>19381500</v>
       </c>
       <c r="I76" s="3">
+        <v>18987000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>18419400</v>
+      </c>
+      <c r="K76" s="3">
         <v>17399500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>17059700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>17519900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>17171900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>17677500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>18283800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>17718000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>17110000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>17117400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>18261500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>17579400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>17463800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>17085700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>17922000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>17996500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>17825600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>17960100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>18347500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>18412300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5985,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>666400</v>
+        <v>338800</v>
       </c>
       <c r="E81" s="3">
-        <v>606800</v>
+        <v>658200</v>
       </c>
       <c r="F81" s="3">
-        <v>275800</v>
+        <v>675400</v>
       </c>
       <c r="G81" s="3">
-        <v>563100</v>
+        <v>615000</v>
       </c>
       <c r="H81" s="3">
-        <v>545200</v>
+        <v>279500</v>
       </c>
       <c r="I81" s="3">
+        <v>570700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>552600</v>
+      </c>
+      <c r="K81" s="3">
         <v>482000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>112600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>358800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>100500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>412900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>174900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>410100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>537700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>517500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>76800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>453900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>569900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>463600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>84900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>212100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>369000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>517600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>88500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,85 +6191,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>171000</v>
+        <v>185200</v>
       </c>
       <c r="E83" s="3">
-        <v>162000</v>
+        <v>174300</v>
       </c>
       <c r="F83" s="3">
-        <v>153800</v>
+        <v>173300</v>
       </c>
       <c r="G83" s="3">
-        <v>147300</v>
+        <v>164200</v>
       </c>
       <c r="H83" s="3">
-        <v>182100</v>
+        <v>155900</v>
       </c>
       <c r="I83" s="3">
+        <v>149200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>184500</v>
+      </c>
+      <c r="K83" s="3">
         <v>102900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>101300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>101500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>98700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>112300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>120400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>116900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>108900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>93600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>61600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>58600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>56000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>50600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>49900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>50800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>51600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>55200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>54800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6353,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6436,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6519,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6602,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6685,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8061400</v>
+        <v>18298800</v>
       </c>
       <c r="E89" s="3">
-        <v>4218300</v>
+        <v>-435600</v>
       </c>
       <c r="F89" s="3">
-        <v>-170800</v>
+        <v>-8170400</v>
       </c>
       <c r="G89" s="3">
-        <v>2552200</v>
+        <v>4275300</v>
       </c>
       <c r="H89" s="3">
-        <v>-4545900</v>
+        <v>4027400</v>
       </c>
       <c r="I89" s="3">
+        <v>2586700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-4607300</v>
+      </c>
+      <c r="K89" s="3">
         <v>831700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1545900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-766500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2718500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-824700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-153300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-428600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3501700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1296100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>5231600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>908000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>643600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>877700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-506300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-2456000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-340700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1561500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>108800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>3807600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,85 +6803,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-46000</v>
+        <v>-45500</v>
       </c>
       <c r="E91" s="3">
-        <v>-15000</v>
+        <v>-22400</v>
       </c>
       <c r="F91" s="3">
-        <v>-28100</v>
+        <v>-46600</v>
       </c>
       <c r="G91" s="3">
-        <v>-30200</v>
+        <v>-15200</v>
       </c>
       <c r="H91" s="3">
-        <v>-15700</v>
+        <v>-28500</v>
       </c>
       <c r="I91" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-14300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-43600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-25600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-24800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-20300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-190900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-91000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-55400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-31700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-43000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-20100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-18000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-17800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-25100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-57300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-37900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-22400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-111600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-90400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6965,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +7048,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2291900</v>
+        <v>-2910400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2190000</v>
+        <v>-2419400</v>
       </c>
       <c r="F94" s="3">
-        <v>-4429800</v>
+        <v>2322900</v>
       </c>
       <c r="G94" s="3">
-        <v>-3850200</v>
+        <v>-2219600</v>
       </c>
       <c r="H94" s="3">
-        <v>1109900</v>
+        <v>-4489600</v>
       </c>
       <c r="I94" s="3">
+        <v>-3902300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1124900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-723400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-365200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-124500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-446100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-179800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-962200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-913600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-5520900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-97900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-5105000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2452600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1063800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-587600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>1277600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-195600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>183200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>392500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-2371700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>694800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,8 +7166,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6711,19 +7177,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-81900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-80200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-81300</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6765,22 +7231,28 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-59200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-237000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-38100</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-22800</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7328,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7411,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,235 +7494,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2921400</v>
+        <v>-5147300</v>
       </c>
       <c r="E100" s="3">
-        <v>1857400</v>
+        <v>1743800</v>
       </c>
       <c r="F100" s="3">
-        <v>2004700</v>
+        <v>2960900</v>
       </c>
       <c r="G100" s="3">
-        <v>1385900</v>
+        <v>1882500</v>
       </c>
       <c r="H100" s="3">
-        <v>2872200</v>
+        <v>2031800</v>
       </c>
       <c r="I100" s="3">
+        <v>1404600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2911000</v>
+      </c>
+      <c r="K100" s="3">
         <v>453200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>261800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>553800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-2356000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3526800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-950700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>3000500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>3588600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-289800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>491400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1689200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>354700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1323700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-309500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>2140800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-384900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-1500100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>1503800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-1778900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>596600</v>
+        <v>-1319900</v>
       </c>
       <c r="E101" s="3">
-        <v>178900</v>
+        <v>557200</v>
       </c>
       <c r="F101" s="3">
-        <v>-1800</v>
+        <v>604600</v>
       </c>
       <c r="G101" s="3">
-        <v>404000</v>
+        <v>181300</v>
       </c>
       <c r="H101" s="3">
-        <v>17800</v>
+        <v>68900</v>
       </c>
       <c r="I101" s="3">
+        <v>409500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>18100</v>
+      </c>
+      <c r="K101" s="3">
         <v>295500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-571700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-142900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-159900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>200400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>369400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-340600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>51200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>90500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>6400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-76600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>218900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>50500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-377500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>14000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>8400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-108300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>138000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-105900</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2251600</v>
+        <v>8921200</v>
       </c>
       <c r="E102" s="3">
-        <v>4064500</v>
+        <v>-554100</v>
       </c>
       <c r="F102" s="3">
-        <v>-2597600</v>
+        <v>-2282000</v>
       </c>
       <c r="G102" s="3">
-        <v>491900</v>
+        <v>4119500</v>
       </c>
       <c r="H102" s="3">
-        <v>-545900</v>
+        <v>1638600</v>
       </c>
       <c r="I102" s="3">
+        <v>498500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-553300</v>
+      </c>
+      <c r="K102" s="3">
         <v>857000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>870800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-480000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-243500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>2722600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1696800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1317700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1620600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1593300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>624400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>68000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>153400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-983000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>84300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-496900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-534100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>345600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-621200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>2617600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>WF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,187 +665,197 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3696900</v>
+      </c>
+      <c r="E8" s="3">
         <v>3462200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2868700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2454500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2205600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2026000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1862200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1787500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1722100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1728200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1749800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1857400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2028100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2216400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2287800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2353100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2369400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2154000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2006200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1989700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1910800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1912500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1925300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1853100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1833700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1898800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1010,8 +1023,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,8 +1057,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,8 +1141,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,8 +1227,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1290,91 +1313,97 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-99600</v>
+      </c>
+      <c r="E15" s="3">
         <v>-101500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-94600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-99400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-98800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-98200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-97600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-97400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-100600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-99400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-99600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-96100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-109500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-115200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-112100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-104100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-88900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-50500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-47800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-44700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-40700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-39500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-40300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-40800</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-44500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>-54800</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>-53700</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1401,174 +1430,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2228900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1901100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1284700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1106700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>839000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>775300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>616800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>573600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>625700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>727900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>721100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>966200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>926000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1019500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1190700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1111900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1098300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1157200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>918800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>752200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>877900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1026000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>926800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>906500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>830000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>903100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>963600</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1467900</v>
+      </c>
+      <c r="E18" s="3">
         <v>1561100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1584000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1347800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1366600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1250700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1245400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1213900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1096400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1000300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1028700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>891200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1102100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1196900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1097100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1241200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1271100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>996800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1087400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1237400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1032900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>886500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>998500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>946600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1003700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>995700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>934400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1598,174 +1634,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-515200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1014100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-617800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-370700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-492800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-803300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-394200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-406900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-399500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-784600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-508200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-674600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-492400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-920900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-527400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-447200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-519600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-847700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-418500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-401200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-355800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-756300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-671500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-417500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-274500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-821100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-531000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1137200</v>
+      </c>
+      <c r="E21" s="3">
         <v>732200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1140500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1150400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1038000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>603300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1000500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>991500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>799800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>316900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>622000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>315300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>721900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>396300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>686600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>902900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>845100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>210800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>727400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>892200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>727700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>180100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>377800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>580800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>784400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>229400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>457200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1847,174 +1890,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>952700</v>
+      </c>
+      <c r="E23" s="3">
         <v>546900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>966200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>977100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>873800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>447400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>851200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>807000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>696900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>215700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>520500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>216600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>609600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>276000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>569700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>794000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>751500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>149100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>668900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>836200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>677100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>130200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>327000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>529200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>729200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>174600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>403400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>242800</v>
+      </c>
+      <c r="E24" s="3">
         <v>148500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>266100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>237000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>219500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>113100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>232900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>193200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>164900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>53200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>118800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>50000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>157800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>79200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>115700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>215500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>192300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>39300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>179200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>229900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>177700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>9000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>77600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>118800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>163600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>30300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,174 +2148,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>710000</v>
+      </c>
+      <c r="E26" s="3">
         <v>398500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>700000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>740100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>654400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>334300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>618300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>613800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>532000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>162400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>401700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>166500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>451800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>196800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>454000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>578500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>559200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>109900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>489700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>606300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>499400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>121100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>249400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>410300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>565600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>144300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>323500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>662500</v>
+      </c>
+      <c r="E27" s="3">
         <v>338800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>658200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>675400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>615000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>279500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>570700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>552600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>482000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>112600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>358800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>412900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>174900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>410100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>537700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>517500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>76800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>453900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>569900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>463600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>84900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>212100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>369000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>517600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>88500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2345,8 +2406,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2428,8 +2492,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2511,8 +2578,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2594,174 +2664,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>515200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1014100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>617800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>370700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>492800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>803300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>394200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>406900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>399500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>784600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>508200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>674600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>492400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>920900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>527400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>447200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>519600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>847700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>418500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>401200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>355800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>756300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>671500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>417500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>274500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>821100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>662500</v>
+      </c>
+      <c r="E33" s="3">
         <v>338800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>658200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>675400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>615000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>279500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>570700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>552600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>482000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>112600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>358800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>412900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>174900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>410100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>537700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>517500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>76800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>453900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>569900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>463600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>84900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>212100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>369000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>517600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>88500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2843,179 +2922,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>662500</v>
+      </c>
+      <c r="E35" s="3">
         <v>338800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>658200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>675400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>615000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>279500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>570700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>552600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>482000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>112600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>358800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>412900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>174900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>410100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>537700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>517500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>76800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>453900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>569900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>463600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>84900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>212100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>369000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>517600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>88500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3045,8 +3133,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3076,174 +3165,181 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23101800</v>
+      </c>
+      <c r="E41" s="3">
         <v>25596900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6686000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7280000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9531300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5555400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7893500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7303900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7996900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6985700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6452400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6934700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7810800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5327800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7069900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5777500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4361000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5329900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4608100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4589200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4387400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5323900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5337600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5780800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6495200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>6385500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>7024600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>38509300</v>
+      </c>
+      <c r="E42" s="3">
         <v>41084100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>49405400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>44316800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>43457800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>44083500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>38326100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>33800600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>32013900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>39170300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>33273800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>36396600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>38606200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>37680800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>39232200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>36892000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>30905300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>29776700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>20883600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>22286700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>21840100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>20932300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>12488600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>14955900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>13350900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>14204100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>16154100</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3325,8 +3421,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3408,8 +3507,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3491,8 +3593,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3574,257 +3679,269 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1112300</v>
+      </c>
+      <c r="E47" s="3">
         <v>979200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1003600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1021400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>985000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1001400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>896000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>881500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>775800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>735000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>829200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>714700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>674300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>685400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>322100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>311500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>316200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>303600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>276700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>346900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>348200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>367000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>490900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>326300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>351100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>395100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2728700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2648000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2661200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2653800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2659000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2673200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2701000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2682600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2700600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2719200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2764300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2790300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2961700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3098200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3089800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3058200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3080600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2368100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2284800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2378800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2384000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2507000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2509800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2480800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2470200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2534900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2525400</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>720200</v>
+      </c>
+      <c r="E49" s="3">
         <v>636800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>656700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>588700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>592900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>589000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>586400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>581700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>582600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>586100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>615800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>631700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>668000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>717500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>590200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>565800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>588900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>493300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>502400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>549000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>452700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>456400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>461900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>446100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>415100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>435400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>376700</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3906,8 +4023,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3989,91 +4109,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>154800</v>
+      </c>
+      <c r="E52" s="3">
         <v>331800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>292300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>164300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>56900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>59100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>41100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>56000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>73700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>82700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>74500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>37800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>38200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>44800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>82300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>69500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>68200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>120400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>36800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>91100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>177600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>289300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>234800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>221100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>262700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>274800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>143800</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4155,91 +4281,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>358559400</v>
+      </c>
+      <c r="E54" s="3">
         <v>360355800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>376551700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>363709300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>349278200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>335387900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>328638700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>315953000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>307917200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>295320000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>293246000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>292659600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>306353500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>307683600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>314996600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>316273500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>314085600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>285975600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>267139300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>274311500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>273668600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>278340000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>279730100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>278137400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>273600800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>279614500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>281548700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4269,8 +4401,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4300,91 +4433,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13679900</v>
+      </c>
+      <c r="E57" s="3">
         <v>8592200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13085000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12373100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10815600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10844700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7957500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9468900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7995800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3698600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7530800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8467000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9538600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7264700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13339700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15138200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>14778600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10988500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12068900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11638400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12317300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5801500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>13814400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>14756900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>10823000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>13329400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>15356600</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4466,91 +4603,97 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3259400</v>
+      </c>
+      <c r="E59" s="3">
         <v>3047200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2290800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1942400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2038700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1991300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1538600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1446500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1790900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1521700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1545300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1892000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2294100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2199800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2064700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2149400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1989900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1798500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1649500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1642100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2008600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2057400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1681400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1880000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2004400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1813400</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4632,174 +4775,183 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>53272300</v>
+      </c>
+      <c r="E61" s="3">
         <v>52670100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>60429200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>57644800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>53096200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>51506600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>49335300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>46999300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>43329900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>42586400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>38230600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>39214800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>43080800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>42129500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>44185000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>43142100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>40307800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>36868700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>34955700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>35115500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>34009900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>36941800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>37408900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>35000000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>33280700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>34538700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>33926000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>589300</v>
+      </c>
+      <c r="E62" s="3">
         <v>459600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>450100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>463700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>509900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>608300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>663300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>620300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>542300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>528500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>720700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>691400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>680000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>570200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>714600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>648100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>618700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>520300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>418500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>420800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>527700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>419200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>395900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>382900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>400700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>463600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>459900</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4881,8 +5033,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4964,8 +5119,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5047,91 +5205,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>336314700</v>
+      </c>
+      <c r="E66" s="3">
         <v>338784400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>355362300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>343439700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>329565800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>316006400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>309651700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>297533600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>290517700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>278260300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>275726000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>275487700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>288675900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>289399800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>297278600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>299163500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>296968200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>267714100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>249559900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>256847800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>256582900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>260418000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>261733600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>260311800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>255640700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>261266900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>263136400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5161,8 +5325,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5244,8 +5409,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5327,8 +5495,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5410,8 +5581,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5493,91 +5667,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17894800</v>
+      </c>
+      <c r="E72" s="3">
         <v>17812600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17473700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16905200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16229600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16044400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15764300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15298800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14524300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14258500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14719300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14362200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15002800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15745800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15573800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15698600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15678000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14384700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13795900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13837700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13273900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13745600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>13660700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>13507800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>13138800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>13150400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>13062800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5659,8 +5839,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5742,8 +5925,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5825,91 +6011,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22244800</v>
+      </c>
+      <c r="E76" s="3">
         <v>21571400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21189400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20269600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19712400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19381500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18987000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18419400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17399500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17059700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17519900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17171900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17677500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18283800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17718000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17110000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17117400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18261500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17579400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>17463800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>17085700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>17922000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>17996500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>17825600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>17960100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>18347500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>18412300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5991,179 +6183,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>662500</v>
+      </c>
+      <c r="E81" s="3">
         <v>338800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>658200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>675400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>615000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>279500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>570700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>552600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>482000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>112600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>358800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>412900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>174900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>410100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>537700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>517500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>76800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>453900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>569900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>463600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>84900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>212100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>369000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>517600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>88500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6193,91 +6394,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>184500</v>
+      </c>
+      <c r="E83" s="3">
         <v>185200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>174300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>173300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>164200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>155900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>149200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>184500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>102900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>101300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>101500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>98700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>112300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>120400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>116900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>108900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>93600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>61600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>58600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>56000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>50600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>49900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>50800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>51600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>55200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>54800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6359,8 +6564,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6442,8 +6650,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6525,8 +6736,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6608,8 +6822,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6691,91 +6908,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2588600</v>
+      </c>
+      <c r="E89" s="3">
         <v>18298800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-435600</v>
       </c>
-      <c r="F89" s="3">
-        <v>-8170400</v>
-      </c>
       <c r="G89" s="3">
-        <v>4275300</v>
+        <v>-11395700</v>
       </c>
       <c r="H89" s="3">
+        <v>7500600</v>
+      </c>
+      <c r="I89" s="3">
         <v>4027400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2586700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4607300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>831700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1545900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-766500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2718500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-824700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-153300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-428600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3501700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1296100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5231600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>908000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>643600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>877700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-506300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-2456000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-340700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1561500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>108800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>3807600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6805,91 +7028,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-45500</v>
+        <v>-59247000</v>
       </c>
       <c r="E91" s="3">
+        <v>-113722000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-77226000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-104059000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-52618000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-74615000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-81614000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-190900</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="X91" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>-57300</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-22400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-46600</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-30600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-43600</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-25600</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-24800</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-190900</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-91000</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-55400</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-31700</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-43000</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-18000</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-25100</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-57300</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-37900</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>-22400</v>
-      </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-111600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-90400</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6971,8 +7198,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7054,91 +7284,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>294200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2910400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2419400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2322900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2219600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4489600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3902300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1124900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-723400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-365200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-124500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-446100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-179800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-962200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-913600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5520900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-97900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5105000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2452600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1063800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-587600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1277600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-195600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>183200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>392500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2371700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>694800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7168,8 +7404,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7177,11 +7414,11 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-81900</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -7189,11 +7426,11 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-81300</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -7237,22 +7474,25 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-59200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-237000</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-38100</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-22800</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7334,8 +7574,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7417,8 +7660,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7500,253 +7746,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-252600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5147300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1743800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2960900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1882500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2031800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1404600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2911000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>453200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>261800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>553800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2356000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3526800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-950700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3000500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3588600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-289800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>491400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1689200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>354700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1323700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-309500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2140800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-384900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1500100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1503800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1778900</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1319900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>557200</v>
       </c>
-      <c r="F101" s="3">
-        <v>604600</v>
-      </c>
       <c r="G101" s="3">
-        <v>181300</v>
+        <v>588100</v>
       </c>
       <c r="H101" s="3">
+        <v>197800</v>
+      </c>
+      <c r="I101" s="3">
         <v>68900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>409500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>18100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>295500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-571700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-142900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-159900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>369400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-340600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>51200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>90500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>6400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-76600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>218900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>50500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-377500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>14000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>8400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-108300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>138000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-105900</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2424100</v>
+      </c>
+      <c r="E102" s="3">
         <v>8921200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-554100</v>
       </c>
-      <c r="F102" s="3">
-        <v>-2282000</v>
-      </c>
       <c r="G102" s="3">
-        <v>4119500</v>
+        <v>-5523800</v>
       </c>
       <c r="H102" s="3">
+        <v>7361300</v>
+      </c>
+      <c r="I102" s="3">
         <v>1638600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>498500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-553300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>857000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>870800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-480000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-243500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2722600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1696800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1317700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1620600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1593300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>624400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>68000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>153400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-983000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>84300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-496900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-534100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>345600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-621200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>2617600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>WF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,204 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3786600</v>
+      </c>
+      <c r="E8" s="3">
         <v>3696900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3462200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2868700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2454500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2205600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2026000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1862200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1787500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1722100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1728200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1749800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1857400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2028100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2216400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2287800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2353100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2369400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2154000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2006200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1989700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1910800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1912500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1925300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1853100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1833700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1898800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -940,8 +947,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1026,8 +1036,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,8 +1071,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1144,8 +1158,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1230,8 +1247,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1316,94 +1336,100 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-94800</v>
+      </c>
+      <c r="E15" s="3">
         <v>-99600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-101500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-94600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-99400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-98800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-98200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-97600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-97400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-100600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-99400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-99600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-96100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-109500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-115200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-112100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-104100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-88900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-50500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-47800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-44700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-40700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-39500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-40300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-40800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>-44500</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>-54800</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>-53700</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1431,180 +1457,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2558100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2228900</v>
       </c>
-      <c r="E17" s="3">
-        <v>1901100</v>
-      </c>
       <c r="F17" s="3">
-        <v>1284700</v>
+        <v>1897900</v>
       </c>
       <c r="G17" s="3">
+        <v>1279300</v>
+      </c>
+      <c r="H17" s="3">
         <v>1106700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>839000</v>
       </c>
-      <c r="I17" s="3">
-        <v>775300</v>
-      </c>
       <c r="J17" s="3">
+        <v>772200</v>
+      </c>
+      <c r="K17" s="3">
         <v>616800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>573600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>625700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>727900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>721100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>966200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>926000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1019500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1190700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1111900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1098300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1157200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>918800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>752200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>877900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1026000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>926800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>906500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>830000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>903100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>963600</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1228400</v>
+      </c>
+      <c r="E18" s="3">
         <v>1467900</v>
       </c>
-      <c r="E18" s="3">
-        <v>1561100</v>
-      </c>
       <c r="F18" s="3">
-        <v>1584000</v>
+        <v>1564300</v>
       </c>
       <c r="G18" s="3">
+        <v>1589400</v>
+      </c>
+      <c r="H18" s="3">
         <v>1347800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1366600</v>
       </c>
-      <c r="I18" s="3">
-        <v>1250700</v>
-      </c>
       <c r="J18" s="3">
+        <v>1253800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1245400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1213900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1096400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1000300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1028700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>891200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1102100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1196900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1097100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1241200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1271100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>996800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1087400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1237400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1032900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>886500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>998500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>946600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1003700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>995700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>934400</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1635,180 +1668,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-569800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-515200</v>
       </c>
-      <c r="E20" s="3">
-        <v>-1014100</v>
-      </c>
       <c r="F20" s="3">
-        <v>-617800</v>
+        <v>-1017300</v>
       </c>
       <c r="G20" s="3">
+        <v>-623200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-370700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-492800</v>
       </c>
-      <c r="I20" s="3">
-        <v>-803300</v>
-      </c>
       <c r="J20" s="3">
+        <v>-806400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-394200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-406900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-399500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-784600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-508200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-674600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-492400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-920900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-527400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-447200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-519600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-847700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-418500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-401200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-355800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-756300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-671500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-417500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-274500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-821100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-531000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>840900</v>
+      </c>
+      <c r="E21" s="3">
         <v>1137200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>732200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1140500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1150400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1038000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>603300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1000500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>991500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>799800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>316900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>622000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>315300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>721900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>396300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>686600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>902900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>845100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>210800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>727400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>892200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>727700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>180100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>377800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>580800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>784400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>229400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>457200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1893,180 +1933,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>658700</v>
+      </c>
+      <c r="E23" s="3">
         <v>952700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>546900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>966200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>977100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>873800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>447400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>851200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>807000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>696900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>215700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>520500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>216600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>609600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>276000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>569700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>794000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>751500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>149100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>668900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>836200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>677100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>130200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>327000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>529200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>729200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>174600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>403400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E24" s="3">
         <v>242800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>148500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>266100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>237000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>219500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>113100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>232900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>193200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>164900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>53200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>118800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>50000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>157800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>79200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>115700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>215500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>192300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>39300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>179200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>229900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>177700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>9000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>77600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>118800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>163600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>30300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2151,180 +2200,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500400</v>
+      </c>
+      <c r="E26" s="3">
         <v>710000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>398500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>700000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>740100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>654400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>334300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>618300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>613800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>532000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>162400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>401700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>166500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>451800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>196800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>454000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>578500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>559200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>109900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>489700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>606300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>499400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>121100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>249400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>410300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>565600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>144300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>323500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>444300</v>
+      </c>
+      <c r="E27" s="3">
         <v>662500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>338800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>658200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>675400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>615000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>279500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>570700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>552600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>482000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>112600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>358800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>412900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>174900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>410100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>537700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>517500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>76800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>453900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>569900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>463600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>84900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>212100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>369000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>517600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>88500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2409,8 +2467,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2495,8 +2556,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2581,8 +2645,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2667,180 +2734,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>569800</v>
+      </c>
+      <c r="E32" s="3">
         <v>515200</v>
       </c>
-      <c r="E32" s="3">
-        <v>1014100</v>
-      </c>
       <c r="F32" s="3">
-        <v>617800</v>
+        <v>1017300</v>
       </c>
       <c r="G32" s="3">
+        <v>623200</v>
+      </c>
+      <c r="H32" s="3">
         <v>370700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>492800</v>
       </c>
-      <c r="I32" s="3">
-        <v>803300</v>
-      </c>
       <c r="J32" s="3">
+        <v>806400</v>
+      </c>
+      <c r="K32" s="3">
         <v>394200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>406900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>399500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>784600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>508200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>674600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>492400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>920900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>527400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>447200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>519600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>847700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>418500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>401200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>355800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>756300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>671500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>417500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>274500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>821100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>444300</v>
+      </c>
+      <c r="E33" s="3">
         <v>662500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>338800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>658200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>675400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>615000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>279500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>570700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>552600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>482000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>112600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>358800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>412900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>174900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>410100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>537700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>517500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>76800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>453900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>569900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>463600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>84900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>212100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>369000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>517600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>88500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2925,185 +3001,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>444300</v>
+      </c>
+      <c r="E35" s="3">
         <v>662500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>338800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>658200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>675400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>615000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>279500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>570700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>552600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>482000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>112600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>358800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>412900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>174900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>410100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>537700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>517500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>76800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>453900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>569900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>463600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>84900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>212100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>369000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>517600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>88500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3134,8 +3219,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3166,180 +3252,187 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16047400</v>
+      </c>
+      <c r="E41" s="3">
         <v>23101800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>25596900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6686000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7280000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9531300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5555400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7893500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7303900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7996900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6985700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6452400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6934700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7810800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5327800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7069900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5777500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4361000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5329900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4608100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4589200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4387400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5323900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5337600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5780800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>6495200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>6385500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>7024600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>47257200</v>
+      </c>
+      <c r="E42" s="3">
         <v>38509300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>41084100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>49405400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>44316800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>43457800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>44083500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>38326100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>33800600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>32013900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>39170300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>33273800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>36396600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>38606200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>37680800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>39232200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>36892000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>30905300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>29776700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>20883600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>22286700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>21840100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>20932300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>12488600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>14955900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>13350900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>14204100</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>16154100</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3424,8 +3517,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3510,8 +3606,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3596,8 +3695,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3682,266 +3784,278 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1216300</v>
+      </c>
+      <c r="E47" s="3">
         <v>1112300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>979200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1003600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1021400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>985000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1001400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>896000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>881500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>775800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>735000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>829200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>714700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>674300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>685400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>322100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>311500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>316200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>303600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>276700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>346900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>348200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>367000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>490900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>326300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>351100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>395100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2705700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2728700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2648000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2661200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2653800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2659000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2673200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2701000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2682600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2700600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2719200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2764300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2790300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2961700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3098200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3089800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3058200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3080600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2368100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2284800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2378800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2384000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2507000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2509800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2480800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2470200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2534900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2525400</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>742100</v>
+      </c>
+      <c r="E49" s="3">
         <v>720200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>636800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>656700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>588700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>592900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>589000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>586400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>581700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>582600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>586100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>615800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>631700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>668000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>717500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>590200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>565800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>588900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>493300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>502400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>549000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>452700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>456400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>461900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>446100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>415100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>435400</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>376700</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4026,8 +4140,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4112,94 +4229,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>297100</v>
+      </c>
+      <c r="E52" s="3">
         <v>154800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>331800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>292300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>164300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>56900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>59100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>41100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>56000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>73700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>82700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>74500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>37800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>38200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>44800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>82300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>69500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>68200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>120400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>36800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>91100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>177600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>289300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>234800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>221100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>262700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>274800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>143800</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4284,94 +4407,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>362183700</v>
+      </c>
+      <c r="E54" s="3">
         <v>358559400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>360355800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>376551700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>363709300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>349278200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>335387900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>328638700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>315953000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>307917200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>295320000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>293246000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>292659600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>306353500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>307683600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>314996600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>316273500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>314085600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>285975600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>267139300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>274311500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>273668600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>278340000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>279730100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>278137400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>273600800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>279614500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>281548700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4402,8 +4531,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4434,94 +4564,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14578600</v>
+      </c>
+      <c r="E57" s="3">
         <v>13679900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8592200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13085000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12373100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10815600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10844700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7957500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9468900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7995800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3698600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7530800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8467000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9538600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7264700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13339700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15138200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>14778600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10988500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12068900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>11638400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>12317300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5801500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>13814400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>14756900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>10823000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>13329400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>15356600</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4606,94 +4740,100 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3076300</v>
+      </c>
+      <c r="E59" s="3">
         <v>3259400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3047200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2290800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1942400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2038700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1991300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1538600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1446500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1790900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1521700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1545300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1892000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2294100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2199800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2064700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2149400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1989900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1798500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1649500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1642100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2008600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2057400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1681400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1880000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2004400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1813400</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4778,180 +4918,189 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>53380200</v>
+      </c>
+      <c r="E61" s="3">
         <v>53272300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>52670100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>60429200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>57644800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>53096200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>51506600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>49335300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>46999300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>43329900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>42586400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>38230600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>39214800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>43080800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>42129500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>44185000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>43142100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>40307800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>36868700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>34955700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>35115500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>34009900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>36941800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>37408900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>35000000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>33280700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>34538700</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>33926000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>779900</v>
+      </c>
+      <c r="E62" s="3">
         <v>589300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>459600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>450100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>463700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>509900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>608300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>663300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>620300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>542300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>528500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>720700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>691400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>680000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>570200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>714600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>648100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>618700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>520300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>418500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>420800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>527700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>419200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>395900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>382900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>400700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>463600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>459900</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5036,8 +5185,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5122,8 +5274,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5208,94 +5363,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>339500200</v>
+      </c>
+      <c r="E66" s="3">
         <v>336314700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>338784400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>355362300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>343439700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>329565800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>316006400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>309651700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>297533600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>290517700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>278260300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>275726000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>275487700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>288675900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>289399800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>297278600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>299163500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>296968200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>267714100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>249559900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>256847800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>256582900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>260418000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>261733600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>260311800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>255640700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>261266900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>263136400</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5326,8 +5487,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5412,8 +5574,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5498,8 +5663,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5584,8 +5752,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5670,94 +5841,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18339100</v>
+      </c>
+      <c r="E72" s="3">
         <v>17894800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17812600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17473700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16905200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16229600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16044400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15764300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15298800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14524300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14258500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14719300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14362200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15002800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15745800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15573800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15698600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15678000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14384700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13795900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13837700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13273900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>13745600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>13660700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>13507800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>13138800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>13150400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>13062800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5842,8 +6019,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5928,8 +6108,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6014,94 +6197,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22683500</v>
+      </c>
+      <c r="E76" s="3">
         <v>22244800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21571400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21189400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20269600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19712400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19381500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18987000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18419400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17399500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17059700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17519900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17171900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17677500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18283800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17718000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17110000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>17117400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18261500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>17579400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>17463800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>17085700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>17922000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>17996500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>17825600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>17960100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>18347500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>18412300</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6186,185 +6375,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>444300</v>
+      </c>
+      <c r="E81" s="3">
         <v>662500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>338800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>658200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>675400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>615000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>279500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>570700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>552600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>482000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>112600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>358800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>412900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>174900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>410100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>537700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>517500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>76800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>453900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>569900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>463600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>84900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>212100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>369000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>517600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>88500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6395,94 +6593,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>182300</v>
+      </c>
+      <c r="E83" s="3">
         <v>184500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>185200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>174300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>173300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>164200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>155900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>149200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>184500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>102900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>101300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>101500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>98700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>112300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>120400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>116900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>108900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>93600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>61600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>58600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>56000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>50600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>49900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>50800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>51600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>55200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>54800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6567,8 +6769,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6653,8 +6858,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6739,8 +6947,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6825,8 +7036,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6911,94 +7125,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5585700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2588600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18298800</v>
       </c>
-      <c r="F89" s="3">
-        <v>-435600</v>
-      </c>
       <c r="G89" s="3">
-        <v>-11395700</v>
+        <v>-9729000</v>
       </c>
       <c r="H89" s="3">
+        <v>-2102300</v>
+      </c>
+      <c r="I89" s="3">
         <v>7500600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4027400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2586700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4607300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>831700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1545900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-766500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2718500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-824700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-153300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-428600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3501700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1296100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5231600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>908000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>643600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>877700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-506300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-2456000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-340700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1561500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>108800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>3807600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7029,94 +7249,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-103704000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-59247000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-113722000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-77226000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-104059000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-52618000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-74615000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-81614000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-43600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-24800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-190900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-91000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-55400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-31700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-43000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-20100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-18000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-25100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-57300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-37900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-22400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-111600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-90400</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7201,8 +7425,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7287,94 +7514,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-258400</v>
+      </c>
+      <c r="E94" s="3">
         <v>294200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2910400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2419400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2322900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2219600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4489600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3902300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1124900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-723400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-365200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-124500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-446100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-179800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-962200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-913600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5520900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-97900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5105000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2452600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1063800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-587600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1277600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-195600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>183200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>392500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-2371700</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>694800</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7405,8 +7638,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7417,11 +7651,11 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-81900</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -7429,11 +7663,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-81300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -7477,22 +7711,25 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-59200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-237000</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-38100</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-22800</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7577,8 +7814,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7663,8 +7903,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7749,262 +7992,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1024600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-252600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5147300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1743800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2960900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1882500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2031800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1404600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2911000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>453200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>261800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>553800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2356000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3526800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-950700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3000500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3588600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-289800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>491400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1689200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>354700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1323700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-309500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2140800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-384900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1500100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1503800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-1778900</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-103800</v>
+      </c>
+      <c r="E101" s="3">
         <v>123000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1319900</v>
       </c>
-      <c r="F101" s="3">
-        <v>557200</v>
-      </c>
       <c r="G101" s="3">
-        <v>588100</v>
+        <v>496900</v>
       </c>
       <c r="H101" s="3">
+        <v>648400</v>
+      </c>
+      <c r="I101" s="3">
         <v>197800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>68900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>409500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>18100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>295500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-571700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-142900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-159900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>369400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-340600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>51200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>90500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>6400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-76600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>218900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>50500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-377500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>14000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>8400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-108300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>138000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-105900</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6972500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2424100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8921200</v>
       </c>
-      <c r="F102" s="3">
-        <v>-554100</v>
-      </c>
       <c r="G102" s="3">
-        <v>-5523800</v>
+        <v>-9907800</v>
       </c>
       <c r="H102" s="3">
+        <v>3829800</v>
+      </c>
+      <c r="I102" s="3">
         <v>7361300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1638600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>498500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-553300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>857000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>870800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-480000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-243500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2722600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1696800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1317700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1620600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1593300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>624400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>68000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>153400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-983000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>84300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-496900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-534100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>345600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-621200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>2617600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>WF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,204 +665,211 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="32" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3786600</v>
+        <v>4034200</v>
       </c>
       <c r="E8" s="3">
-        <v>3696900</v>
+        <v>3887500</v>
       </c>
       <c r="F8" s="3">
-        <v>3462200</v>
+        <v>3795400</v>
       </c>
       <c r="G8" s="3">
-        <v>2868700</v>
+        <v>3554500</v>
       </c>
       <c r="H8" s="3">
-        <v>2454500</v>
+        <v>2945200</v>
       </c>
       <c r="I8" s="3">
-        <v>2205600</v>
+        <v>2519900</v>
       </c>
       <c r="J8" s="3">
+        <v>2264400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2026000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1862200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1787500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1722100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1728200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1749800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1857400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2028100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2216400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2287800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2353100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2369400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2154000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2006200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1989700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1910800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1912500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1925300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1853100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1833700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1898800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1898000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -950,8 +957,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1039,8 +1049,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1072,8 +1085,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1161,8 +1175,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1250,8 +1267,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1339,97 +1359,103 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-94800</v>
+        <v>-90600</v>
       </c>
       <c r="E15" s="3">
+        <v>-97300</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-102200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-104200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-97200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-101400</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-98200</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-97600</v>
+      </c>
+      <c r="M15" s="3">
+        <v>-97400</v>
+      </c>
+      <c r="N15" s="3">
+        <v>-100600</v>
+      </c>
+      <c r="O15" s="3">
+        <v>-99400</v>
+      </c>
+      <c r="P15" s="3">
         <v>-99600</v>
       </c>
-      <c r="F15" s="3">
-        <v>-101500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-94600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-99400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-98800</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-98200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-97600</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-97400</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-100600</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-99400</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-99600</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-96100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-109500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-115200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-112100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-104100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-88900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-50500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-47800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-44700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-40700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-39500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-40300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>-40800</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>-44500</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>-54800</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>-53700</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1458,186 +1484,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2558100</v>
+        <v>2551100</v>
       </c>
       <c r="E17" s="3">
-        <v>2228900</v>
+        <v>2626300</v>
       </c>
       <c r="F17" s="3">
-        <v>1897900</v>
+        <v>2288400</v>
       </c>
       <c r="G17" s="3">
-        <v>1279300</v>
+        <v>1948500</v>
       </c>
       <c r="H17" s="3">
-        <v>1106700</v>
+        <v>1313400</v>
       </c>
       <c r="I17" s="3">
-        <v>839000</v>
+        <v>1136200</v>
       </c>
       <c r="J17" s="3">
+        <v>861300</v>
+      </c>
+      <c r="K17" s="3">
         <v>772200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>616800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>573600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>625700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>727900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>721100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>966200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>926000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1019500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1190700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1111900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1098300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1157200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>918800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>752200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>877900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1026000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>926800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>906500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>830000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>903100</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>963600</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1228400</v>
+        <v>1483200</v>
       </c>
       <c r="E18" s="3">
-        <v>1467900</v>
+        <v>1261200</v>
       </c>
       <c r="F18" s="3">
-        <v>1564300</v>
+        <v>1507100</v>
       </c>
       <c r="G18" s="3">
-        <v>1589400</v>
+        <v>1606000</v>
       </c>
       <c r="H18" s="3">
-        <v>1347800</v>
+        <v>1631700</v>
       </c>
       <c r="I18" s="3">
-        <v>1366600</v>
+        <v>1383700</v>
       </c>
       <c r="J18" s="3">
+        <v>1403000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1253800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1245400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1213900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1096400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1000300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1028700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>891200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1102100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1196900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1097100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1241200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1271100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>996800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1087400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1237400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1032900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>886500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>998500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>946600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1003700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>995700</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>934400</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1669,186 +1702,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-569800</v>
+        <v>-523100</v>
       </c>
       <c r="E20" s="3">
-        <v>-515200</v>
+        <v>-585000</v>
       </c>
       <c r="F20" s="3">
-        <v>-1017300</v>
+        <v>-528900</v>
       </c>
       <c r="G20" s="3">
-        <v>-623200</v>
+        <v>-1044500</v>
       </c>
       <c r="H20" s="3">
-        <v>-370700</v>
+        <v>-639800</v>
       </c>
       <c r="I20" s="3">
-        <v>-492800</v>
+        <v>-380600</v>
       </c>
       <c r="J20" s="3">
+        <v>-505900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-806400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-394200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-406900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-399500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-784600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-508200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-674600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-492400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-920900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-527400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-447200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-519600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-847700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-418500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-401200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-355800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-756300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-671500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-417500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-274500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-821100</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-531000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>840900</v>
+        <v>1145000</v>
       </c>
       <c r="E21" s="3">
-        <v>1137200</v>
+        <v>863400</v>
       </c>
       <c r="F21" s="3">
-        <v>732200</v>
+        <v>1167600</v>
       </c>
       <c r="G21" s="3">
-        <v>1140500</v>
+        <v>751700</v>
       </c>
       <c r="H21" s="3">
-        <v>1150400</v>
+        <v>1170900</v>
       </c>
       <c r="I21" s="3">
-        <v>1038000</v>
+        <v>1181100</v>
       </c>
       <c r="J21" s="3">
+        <v>1065700</v>
+      </c>
+      <c r="K21" s="3">
         <v>603300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1000500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>991500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>799800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>316900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>622000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>315300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>721900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>396300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>686600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>902900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>845100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>210800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>727400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>892200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>727700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>180100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>377800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>580800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>784400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>229400</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>457200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1936,186 +1976,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>658700</v>
+        <v>960000</v>
       </c>
       <c r="E23" s="3">
-        <v>952700</v>
+        <v>676200</v>
       </c>
       <c r="F23" s="3">
-        <v>546900</v>
+        <v>978100</v>
       </c>
       <c r="G23" s="3">
-        <v>966200</v>
+        <v>561500</v>
       </c>
       <c r="H23" s="3">
-        <v>977100</v>
+        <v>991900</v>
       </c>
       <c r="I23" s="3">
-        <v>873800</v>
+        <v>1003200</v>
       </c>
       <c r="J23" s="3">
+        <v>897100</v>
+      </c>
+      <c r="K23" s="3">
         <v>447400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>851200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>807000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>696900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>215700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>520500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>216600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>609600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>276000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>569700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>794000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>751500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>149100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>668900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>836200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>677100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>130200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>327000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>529200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>729200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>174600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>403400</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>158300</v>
+        <v>253100</v>
       </c>
       <c r="E24" s="3">
-        <v>242800</v>
+        <v>162500</v>
       </c>
       <c r="F24" s="3">
-        <v>148500</v>
+        <v>249200</v>
       </c>
       <c r="G24" s="3">
-        <v>266100</v>
+        <v>152400</v>
       </c>
       <c r="H24" s="3">
-        <v>237000</v>
+        <v>273200</v>
       </c>
       <c r="I24" s="3">
-        <v>219500</v>
+        <v>243300</v>
       </c>
       <c r="J24" s="3">
+        <v>225300</v>
+      </c>
+      <c r="K24" s="3">
         <v>113100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>232900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>193200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>164900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>53200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>118800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>50000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>157800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>79200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>115700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>215500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>192300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>39300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>179200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>229900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>177700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>9000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>77600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>118800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>163600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>30300</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2203,186 +2252,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>500400</v>
+        <v>706900</v>
       </c>
       <c r="E26" s="3">
-        <v>710000</v>
+        <v>513700</v>
       </c>
       <c r="F26" s="3">
-        <v>398500</v>
+        <v>728900</v>
       </c>
       <c r="G26" s="3">
-        <v>700000</v>
+        <v>409100</v>
       </c>
       <c r="H26" s="3">
-        <v>740100</v>
+        <v>718700</v>
       </c>
       <c r="I26" s="3">
-        <v>654400</v>
+        <v>759900</v>
       </c>
       <c r="J26" s="3">
+        <v>671800</v>
+      </c>
+      <c r="K26" s="3">
         <v>334300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>618300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>613800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>532000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>162400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>401700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>166500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>451800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>196800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>454000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>578500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>559200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>109900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>489700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>606300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>499400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>121100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>249400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>410300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>565600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>144300</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>323500</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>444300</v>
+        <v>667300</v>
       </c>
       <c r="E27" s="3">
-        <v>662500</v>
+        <v>456200</v>
       </c>
       <c r="F27" s="3">
-        <v>338800</v>
+        <v>680100</v>
       </c>
       <c r="G27" s="3">
-        <v>658200</v>
+        <v>347900</v>
       </c>
       <c r="H27" s="3">
-        <v>675400</v>
+        <v>675700</v>
       </c>
       <c r="I27" s="3">
-        <v>615000</v>
+        <v>693400</v>
       </c>
       <c r="J27" s="3">
+        <v>631400</v>
+      </c>
+      <c r="K27" s="3">
         <v>279500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>570700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>552600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>482000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>112600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>358800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>412900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>174900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>410100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>537700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>517500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>76800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>453900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>569900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>463600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>84900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>212100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>369000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>517600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>88500</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2470,8 +2528,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2559,8 +2620,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2648,8 +2712,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2737,186 +2804,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>569800</v>
+        <v>523100</v>
       </c>
       <c r="E32" s="3">
-        <v>515200</v>
+        <v>585000</v>
       </c>
       <c r="F32" s="3">
-        <v>1017300</v>
+        <v>528900</v>
       </c>
       <c r="G32" s="3">
-        <v>623200</v>
+        <v>1044500</v>
       </c>
       <c r="H32" s="3">
-        <v>370700</v>
+        <v>639800</v>
       </c>
       <c r="I32" s="3">
-        <v>492800</v>
+        <v>380600</v>
       </c>
       <c r="J32" s="3">
+        <v>505900</v>
+      </c>
+      <c r="K32" s="3">
         <v>806400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>394200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>406900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>399500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>784600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>508200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>674600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>492400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>920900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>527400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>447200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>519600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>847700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>418500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>401200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>355800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>756300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>671500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>417500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>274500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>821100</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>531000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>444300</v>
+        <v>667300</v>
       </c>
       <c r="E33" s="3">
-        <v>662500</v>
+        <v>456200</v>
       </c>
       <c r="F33" s="3">
-        <v>338800</v>
+        <v>680100</v>
       </c>
       <c r="G33" s="3">
-        <v>658200</v>
+        <v>347900</v>
       </c>
       <c r="H33" s="3">
-        <v>675400</v>
+        <v>675700</v>
       </c>
       <c r="I33" s="3">
-        <v>615000</v>
+        <v>693400</v>
       </c>
       <c r="J33" s="3">
+        <v>631400</v>
+      </c>
+      <c r="K33" s="3">
         <v>279500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>570700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>552600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>482000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>112600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>358800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>412900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>174900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>410100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>537700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>517500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>76800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>453900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>569900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>463600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>84900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>212100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>369000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>517600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>88500</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3004,191 +3080,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>444300</v>
+        <v>667300</v>
       </c>
       <c r="E35" s="3">
-        <v>662500</v>
+        <v>456200</v>
       </c>
       <c r="F35" s="3">
-        <v>338800</v>
+        <v>680100</v>
       </c>
       <c r="G35" s="3">
-        <v>658200</v>
+        <v>347900</v>
       </c>
       <c r="H35" s="3">
-        <v>675400</v>
+        <v>675700</v>
       </c>
       <c r="I35" s="3">
-        <v>615000</v>
+        <v>693400</v>
       </c>
       <c r="J35" s="3">
+        <v>631400</v>
+      </c>
+      <c r="K35" s="3">
         <v>279500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>570700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>552600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>482000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>112600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>358800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>412900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>174900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>410100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>537700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>517500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>76800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>453900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>569900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>463600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>84900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>212100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>369000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>517600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>88500</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3220,8 +3305,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3253,186 +3339,193 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16047400</v>
+        <v>19794600</v>
       </c>
       <c r="E41" s="3">
-        <v>23101800</v>
+        <v>16475400</v>
       </c>
       <c r="F41" s="3">
-        <v>25596900</v>
+        <v>23717800</v>
       </c>
       <c r="G41" s="3">
-        <v>6686000</v>
+        <v>26279400</v>
       </c>
       <c r="H41" s="3">
-        <v>7280000</v>
+        <v>6864300</v>
       </c>
       <c r="I41" s="3">
-        <v>9531300</v>
+        <v>7474200</v>
       </c>
       <c r="J41" s="3">
+        <v>9785500</v>
+      </c>
+      <c r="K41" s="3">
         <v>5555400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7893500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7303900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7996900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6985700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6452400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6934700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7810800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5327800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7069900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5777500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4361000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5329900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4608100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4589200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4387400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5323900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5337600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5780800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>6495200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>6385500</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>7024600</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>47257200</v>
+        <v>41369000</v>
       </c>
       <c r="E42" s="3">
-        <v>38509300</v>
+        <v>48517300</v>
       </c>
       <c r="F42" s="3">
-        <v>41084100</v>
+        <v>39536200</v>
       </c>
       <c r="G42" s="3">
-        <v>49405400</v>
+        <v>42179700</v>
       </c>
       <c r="H42" s="3">
-        <v>44316800</v>
+        <v>50722900</v>
       </c>
       <c r="I42" s="3">
-        <v>43457800</v>
+        <v>45498600</v>
       </c>
       <c r="J42" s="3">
+        <v>44616700</v>
+      </c>
+      <c r="K42" s="3">
         <v>44083500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>38326100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>33800600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>32013900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>39170300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>33273800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>36396600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>38606200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>37680800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>39232200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>36892000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>30905300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>29776700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>20883600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>22286700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>21840100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>20932300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>12488600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>14955900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>13350900</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>14204100</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>16154100</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3520,8 +3613,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3609,8 +3705,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3698,8 +3797,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3787,275 +3889,287 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1216300</v>
+        <v>1352700</v>
       </c>
       <c r="E47" s="3">
-        <v>1112300</v>
+        <v>1248700</v>
       </c>
       <c r="F47" s="3">
-        <v>979200</v>
+        <v>1141900</v>
       </c>
       <c r="G47" s="3">
-        <v>1003600</v>
+        <v>1005300</v>
       </c>
       <c r="H47" s="3">
-        <v>1021400</v>
+        <v>1030300</v>
       </c>
       <c r="I47" s="3">
-        <v>985000</v>
+        <v>1048600</v>
       </c>
       <c r="J47" s="3">
+        <v>1011300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1001400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>896000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>881500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>775800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>735000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>829200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>714700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>674300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>685400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>322100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>311500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>316200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>303600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>276700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>346900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>348200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>367000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>490900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>326300</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>351100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>395100</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2705700</v>
+        <v>2781600</v>
       </c>
       <c r="E48" s="3">
-        <v>2728700</v>
+        <v>2777800</v>
       </c>
       <c r="F48" s="3">
-        <v>2648000</v>
+        <v>2801500</v>
       </c>
       <c r="G48" s="3">
-        <v>2661200</v>
+        <v>2718600</v>
       </c>
       <c r="H48" s="3">
-        <v>2653800</v>
+        <v>2732200</v>
       </c>
       <c r="I48" s="3">
-        <v>2659000</v>
+        <v>2724600</v>
       </c>
       <c r="J48" s="3">
+        <v>2729900</v>
+      </c>
+      <c r="K48" s="3">
         <v>2673200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2701000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2682600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2700600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2719200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2764300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2790300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2961700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3098200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3089800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3058200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3080600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2368100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2284800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2378800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2384000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2507000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2509800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2480800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2470200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2534900</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>2525400</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>742100</v>
+        <v>758200</v>
       </c>
       <c r="E49" s="3">
-        <v>720200</v>
+        <v>761900</v>
       </c>
       <c r="F49" s="3">
-        <v>636800</v>
+        <v>739400</v>
       </c>
       <c r="G49" s="3">
-        <v>656700</v>
+        <v>653800</v>
       </c>
       <c r="H49" s="3">
-        <v>588700</v>
+        <v>674200</v>
       </c>
       <c r="I49" s="3">
-        <v>592900</v>
+        <v>604400</v>
       </c>
       <c r="J49" s="3">
+        <v>608700</v>
+      </c>
+      <c r="K49" s="3">
         <v>589000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>586400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>581700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>582600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>586100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>615800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>631700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>668000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>717500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>590200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>565800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>588900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>493300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>502400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>549000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>452700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>456400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>461900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>446100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>415100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>435400</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>376700</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4143,8 +4257,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4232,97 +4349,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>297100</v>
+        <v>321100</v>
       </c>
       <c r="E52" s="3">
-        <v>154800</v>
+        <v>305100</v>
       </c>
       <c r="F52" s="3">
-        <v>331800</v>
+        <v>158900</v>
       </c>
       <c r="G52" s="3">
-        <v>292300</v>
+        <v>340600</v>
       </c>
       <c r="H52" s="3">
-        <v>164300</v>
+        <v>300100</v>
       </c>
       <c r="I52" s="3">
-        <v>56900</v>
+        <v>168600</v>
       </c>
       <c r="J52" s="3">
+        <v>58400</v>
+      </c>
+      <c r="K52" s="3">
         <v>59100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>41100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>56000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>73700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>82700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>74500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>37800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>38200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>44800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>82300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>69500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>68200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>120400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>36800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>91100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>177600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>289300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>234800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>221100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>262700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>274800</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>143800</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4410,97 +4533,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>362183700</v>
+        <v>374156100</v>
       </c>
       <c r="E54" s="3">
-        <v>358559400</v>
+        <v>371841900</v>
       </c>
       <c r="F54" s="3">
-        <v>360355800</v>
+        <v>368121000</v>
       </c>
       <c r="G54" s="3">
-        <v>376551700</v>
+        <v>369965300</v>
       </c>
       <c r="H54" s="3">
-        <v>363709300</v>
+        <v>386593100</v>
       </c>
       <c r="I54" s="3">
-        <v>349278200</v>
+        <v>373408200</v>
       </c>
       <c r="J54" s="3">
+        <v>358592300</v>
+      </c>
+      <c r="K54" s="3">
         <v>335387900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>328638700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>315953000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>307917200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>295320000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>293246000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>292659600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>306353500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>307683600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>314996600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>316273500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>314085600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>285975600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>267139300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>274311500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>273668600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>278340000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>279730100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>278137400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>273600800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>279614500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>281548700</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4532,8 +4661,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4565,97 +4695,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14578600</v>
+        <v>14685300</v>
       </c>
       <c r="E57" s="3">
-        <v>13679900</v>
+        <v>14967400</v>
       </c>
       <c r="F57" s="3">
-        <v>8592200</v>
+        <v>14044700</v>
       </c>
       <c r="G57" s="3">
-        <v>13085000</v>
+        <v>8821300</v>
       </c>
       <c r="H57" s="3">
-        <v>12373100</v>
+        <v>13433900</v>
       </c>
       <c r="I57" s="3">
-        <v>10815600</v>
+        <v>12703000</v>
       </c>
       <c r="J57" s="3">
+        <v>11104000</v>
+      </c>
+      <c r="K57" s="3">
         <v>10844700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7957500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9468900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7995800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3698600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7530800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8467000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9538600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7264700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13339700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15138200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>14778600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10988500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12068900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>11638400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>12317300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>5801500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>13814400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>14756900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>10823000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>13329400</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>15356600</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4743,97 +4877,103 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3076300</v>
+        <v>3565400</v>
       </c>
       <c r="E59" s="3">
-        <v>3259400</v>
+        <v>3158300</v>
       </c>
       <c r="F59" s="3">
-        <v>3047200</v>
+        <v>3346400</v>
       </c>
       <c r="G59" s="3">
-        <v>2290800</v>
+        <v>3128400</v>
       </c>
       <c r="H59" s="3">
-        <v>1942400</v>
+        <v>2351900</v>
       </c>
       <c r="I59" s="3">
-        <v>2038700</v>
+        <v>1994200</v>
       </c>
       <c r="J59" s="3">
+        <v>2093100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1991300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1538600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1446500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1600800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1790900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1521700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1545300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1892000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2294100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2199800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2064700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2149400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1989900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1798500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1649500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1642100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2008600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2057400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1681400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1880000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2004400</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1813400</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4921,186 +5061,195 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>53380200</v>
+        <v>54582700</v>
       </c>
       <c r="E61" s="3">
-        <v>53272300</v>
+        <v>54803700</v>
       </c>
       <c r="F61" s="3">
-        <v>52670100</v>
+        <v>54692900</v>
       </c>
       <c r="G61" s="3">
-        <v>60429200</v>
+        <v>54074700</v>
       </c>
       <c r="H61" s="3">
-        <v>57644800</v>
+        <v>62040700</v>
       </c>
       <c r="I61" s="3">
-        <v>53096200</v>
+        <v>59182000</v>
       </c>
       <c r="J61" s="3">
+        <v>54512100</v>
+      </c>
+      <c r="K61" s="3">
         <v>51506600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>49335300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>46999300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>43329900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>42586400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>38230600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>39214800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>43080800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>42129500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>44185000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>43142100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>40307800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>36868700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>34955700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>35115500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>34009900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>36941800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>37408900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>35000000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>33280700</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>34538700</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>33926000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>779900</v>
+        <v>842200</v>
       </c>
       <c r="E62" s="3">
-        <v>589300</v>
+        <v>800600</v>
       </c>
       <c r="F62" s="3">
-        <v>459600</v>
+        <v>605100</v>
       </c>
       <c r="G62" s="3">
-        <v>450100</v>
+        <v>471900</v>
       </c>
       <c r="H62" s="3">
-        <v>463700</v>
+        <v>462100</v>
       </c>
       <c r="I62" s="3">
-        <v>509900</v>
+        <v>476100</v>
       </c>
       <c r="J62" s="3">
+        <v>523500</v>
+      </c>
+      <c r="K62" s="3">
         <v>608300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>663300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>620300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>542300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>528500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>720700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>691400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>680000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>570200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>714600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>648100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>618700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>520300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>418500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>420800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>527700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>419200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>395900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>382900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>400700</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>463600</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>459900</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5188,8 +5337,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5277,8 +5429,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5366,97 +5521,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>339500200</v>
+        <v>349835500</v>
       </c>
       <c r="E66" s="3">
-        <v>336314700</v>
+        <v>348553500</v>
       </c>
       <c r="F66" s="3">
-        <v>338784400</v>
+        <v>345283100</v>
       </c>
       <c r="G66" s="3">
-        <v>355362300</v>
+        <v>347818600</v>
       </c>
       <c r="H66" s="3">
-        <v>343439700</v>
+        <v>364838600</v>
       </c>
       <c r="I66" s="3">
-        <v>329565800</v>
+        <v>352598100</v>
       </c>
       <c r="J66" s="3">
+        <v>338354200</v>
+      </c>
+      <c r="K66" s="3">
         <v>316006400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>309651700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>297533600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>290517700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>278260300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>275726000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>275487700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>288675900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>289399800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>297278600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>299163500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>296968200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>267714100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>249559900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>256847800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>256582900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>260418000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>261733600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>260311800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>255640700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>261266900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>263136400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5488,8 +5649,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5577,8 +5739,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5666,8 +5831,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5755,8 +5923,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5844,97 +6015,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18339100</v>
+        <v>19394600</v>
       </c>
       <c r="E72" s="3">
-        <v>17894800</v>
+        <v>18828100</v>
       </c>
       <c r="F72" s="3">
-        <v>17812600</v>
+        <v>18371900</v>
       </c>
       <c r="G72" s="3">
-        <v>17473700</v>
+        <v>18287600</v>
       </c>
       <c r="H72" s="3">
-        <v>16905200</v>
+        <v>17939700</v>
       </c>
       <c r="I72" s="3">
-        <v>16229600</v>
+        <v>17356000</v>
       </c>
       <c r="J72" s="3">
+        <v>16662400</v>
+      </c>
+      <c r="K72" s="3">
         <v>16044400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15764300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15298800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14524300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14258500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14719300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14362200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15002800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15745800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15573800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15698600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15678000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14384700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13795900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13837700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>13273900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>13745600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>13660700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>13507800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>13138800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>13150400</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>13062800</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6022,8 +6199,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6111,8 +6291,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6200,97 +6383,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22683500</v>
+        <v>24320600</v>
       </c>
       <c r="E76" s="3">
-        <v>22244800</v>
+        <v>23288400</v>
       </c>
       <c r="F76" s="3">
-        <v>21571400</v>
+        <v>22837900</v>
       </c>
       <c r="G76" s="3">
-        <v>21189400</v>
+        <v>22146700</v>
       </c>
       <c r="H76" s="3">
-        <v>20269600</v>
+        <v>21754500</v>
       </c>
       <c r="I76" s="3">
-        <v>19712400</v>
+        <v>20810100</v>
       </c>
       <c r="J76" s="3">
+        <v>20238100</v>
+      </c>
+      <c r="K76" s="3">
         <v>19381500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18987000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18419400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17399500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17059700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17519900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17171900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17677500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18283800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17718000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>17110000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17117400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18261500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>17579400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>17463800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>17085700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>17922000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>17996500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>17825600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>17960100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>18347500</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>18412300</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6378,191 +6567,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>444300</v>
+        <v>667300</v>
       </c>
       <c r="E81" s="3">
-        <v>662500</v>
+        <v>456200</v>
       </c>
       <c r="F81" s="3">
-        <v>338800</v>
+        <v>680100</v>
       </c>
       <c r="G81" s="3">
-        <v>658200</v>
+        <v>347900</v>
       </c>
       <c r="H81" s="3">
-        <v>675400</v>
+        <v>675700</v>
       </c>
       <c r="I81" s="3">
-        <v>615000</v>
+        <v>693400</v>
       </c>
       <c r="J81" s="3">
+        <v>631400</v>
+      </c>
+      <c r="K81" s="3">
         <v>279500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>570700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>552600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>482000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>112600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>358800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>412900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>174900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>410100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>537700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>517500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>76800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>453900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>569900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>463600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>84900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>212100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>369000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>517600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>88500</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6594,97 +6792,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>182300</v>
+        <v>185000</v>
       </c>
       <c r="E83" s="3">
+        <v>187100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>189400</v>
+      </c>
+      <c r="G83" s="3">
+        <v>190200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>179000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>177900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>168600</v>
+      </c>
+      <c r="K83" s="3">
+        <v>155900</v>
+      </c>
+      <c r="L83" s="3">
+        <v>149200</v>
+      </c>
+      <c r="M83" s="3">
         <v>184500</v>
       </c>
-      <c r="F83" s="3">
-        <v>185200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>174300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>173300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>164200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>155900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>149200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>184500</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>102900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>101300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>101500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>98700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>112300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>120400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>116900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>108900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>93600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>61600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>58600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>56000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>50600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>49900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>50800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>51600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>55200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>54800</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6772,8 +6974,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6861,8 +7066,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6950,8 +7158,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7039,8 +7250,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7128,97 +7342,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5585700</v>
+        <v>4769000</v>
       </c>
       <c r="E89" s="3">
-        <v>-2588600</v>
+        <v>-5734700</v>
       </c>
       <c r="F89" s="3">
-        <v>18298800</v>
+        <v>-2657700</v>
       </c>
       <c r="G89" s="3">
-        <v>-9729000</v>
+        <v>12332300</v>
       </c>
       <c r="H89" s="3">
-        <v>-2102300</v>
+        <v>-3533900</v>
       </c>
       <c r="I89" s="3">
-        <v>7500600</v>
+        <v>-2158400</v>
       </c>
       <c r="J89" s="3">
+        <v>7700600</v>
+      </c>
+      <c r="K89" s="3">
         <v>4027400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2586700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4607300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>831700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1545900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-766500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2718500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-824700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-153300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-428600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3501700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1296100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5231600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>908000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>643600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>877700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-506300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-2456000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-340700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1561500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>108800</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>3807600</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7250,97 +7470,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-68486000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-103704000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-59247000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-113722000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-77226000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-104059000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-52618000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-74615000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-81614000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-43600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-24800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-190900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-91000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-55400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-31700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-43000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-20100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-18000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-17800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-25100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-57300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-37900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-22400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-111600</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-90400</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7428,8 +7652,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7517,97 +7744,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-258400</v>
+        <v>-1148000</v>
       </c>
       <c r="E94" s="3">
-        <v>294200</v>
+        <v>-265300</v>
       </c>
       <c r="F94" s="3">
-        <v>-2910400</v>
+        <v>302000</v>
       </c>
       <c r="G94" s="3">
-        <v>-2419400</v>
+        <v>-2988000</v>
       </c>
       <c r="H94" s="3">
-        <v>2322900</v>
+        <v>-2483900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2219600</v>
+        <v>2384800</v>
       </c>
       <c r="J94" s="3">
+        <v>-2278800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4489600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3902300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1124900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-723400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-365200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-124500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-446100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-179800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-962200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-913600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5520900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-97900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5105000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2452600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1063800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-587600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1277600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-195600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>183200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>392500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-2371700</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>694800</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7639,13 +7872,14 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-100600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -7654,10 +7888,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-81900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-84100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -7666,11 +7900,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-81300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -7714,22 +7948,25 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-59200</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-237000</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-38100</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-22800</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7817,8 +8054,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7906,8 +8146,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7995,271 +8238,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1024600</v>
+        <v>-414200</v>
       </c>
       <c r="E100" s="3">
-        <v>-252600</v>
+        <v>-1052000</v>
       </c>
       <c r="F100" s="3">
-        <v>-5147300</v>
+        <v>-259300</v>
       </c>
       <c r="G100" s="3">
-        <v>1743800</v>
+        <v>-5284600</v>
       </c>
       <c r="H100" s="3">
-        <v>2960900</v>
+        <v>1790300</v>
       </c>
       <c r="I100" s="3">
-        <v>1882500</v>
+        <v>3039800</v>
       </c>
       <c r="J100" s="3">
+        <v>1932700</v>
+      </c>
+      <c r="K100" s="3">
         <v>2031800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1404600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2911000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>453200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>261800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>553800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2356000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3526800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-950700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3000500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3588600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-289800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>491400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1689200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>354700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1323700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-309500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2140800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-384900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1500100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>1503800</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-1778900</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-103800</v>
+        <v>28300</v>
       </c>
       <c r="E101" s="3">
-        <v>123000</v>
+        <v>-106600</v>
       </c>
       <c r="F101" s="3">
-        <v>-1319900</v>
+        <v>126300</v>
       </c>
       <c r="G101" s="3">
-        <v>496900</v>
+        <v>-1518600</v>
       </c>
       <c r="H101" s="3">
-        <v>648400</v>
+        <v>673600</v>
       </c>
       <c r="I101" s="3">
-        <v>197800</v>
+        <v>665700</v>
       </c>
       <c r="J101" s="3">
+        <v>203100</v>
+      </c>
+      <c r="K101" s="3">
         <v>68900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>409500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>18100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>295500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-571700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-142900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-159900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>369400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-340600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>51200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>90500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>6400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-76600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>218900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>50500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-377500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>14000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>8400</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-108300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>138000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-105900</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6972500</v>
+        <v>3235100</v>
       </c>
       <c r="E102" s="3">
-        <v>-2424100</v>
+        <v>-7158500</v>
       </c>
       <c r="F102" s="3">
-        <v>8921200</v>
+        <v>-2488700</v>
       </c>
       <c r="G102" s="3">
-        <v>-9907800</v>
+        <v>2541100</v>
       </c>
       <c r="H102" s="3">
-        <v>3829800</v>
+        <v>-3554000</v>
       </c>
       <c r="I102" s="3">
-        <v>7361300</v>
+        <v>3931900</v>
       </c>
       <c r="J102" s="3">
+        <v>7557600</v>
+      </c>
+      <c r="K102" s="3">
         <v>1638600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>498500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-553300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>857000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>870800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-480000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-243500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2722600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1696800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1317700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1620600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1593300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>624400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>68000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>153400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-983000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>84300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-496900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-534100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>345600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-621200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>2617600</v>
       </c>
     </row>
